--- a/outputs/o__Bacteroidales.xlsx
+++ b/outputs/o__Bacteroidales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681612F3-42F4-754D-ABCE-DAC7D6F2E411}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D547457-1A4F-F344-8EA2-81D20AC694D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="f__Bacteroidaceae-b" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,22 @@
     <sheet name="f__Tannerellaceae-b" sheetId="7" r:id="rId7"/>
     <sheet name="f__UBA7960-b" sheetId="8" r:id="rId8"/>
     <sheet name="__UBA932-b" sheetId="9" r:id="rId9"/>
+    <sheet name="f__Bacteroidaceae-b-p" sheetId="10" r:id="rId10"/>
+    <sheet name="f__Dysgonomonadaceae-b-p" sheetId="11" r:id="rId11"/>
+    <sheet name="f__Muribaculaceae-b-p" sheetId="12" r:id="rId12"/>
+    <sheet name="f__P3-b-p" sheetId="13" r:id="rId13"/>
+    <sheet name="f__Paludibacteraceae-b-p" sheetId="14" r:id="rId14"/>
+    <sheet name="f__Rikenellaceae-b-p" sheetId="15" r:id="rId15"/>
+    <sheet name="f__Tannerellaceae-b-p" sheetId="16" r:id="rId16"/>
+    <sheet name="f__UBA7960-b-p" sheetId="17" r:id="rId17"/>
+    <sheet name="f__UBA932-b-p" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="213">
   <si>
     <t>f__Bacteroidaceae</t>
   </si>
@@ -664,19 +673,28 @@
   </si>
   <si>
     <t>GB_GCA_900318355.1_0</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -693,7 +711,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -716,13 +734,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4465,6 +4501,8114 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:L98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0.98497024112919052</v>
+      </c>
+      <c r="C2">
+        <v>2.867346252337333E-4</v>
+      </c>
+      <c r="D2">
+        <v>1.084313420551466E-3</v>
+      </c>
+      <c r="E2">
+        <v>4.5229102061064884E-3</v>
+      </c>
+      <c r="F2">
+        <v>1.101919427932587E-3</v>
+      </c>
+      <c r="G2">
+        <v>1.7803492912051801E-3</v>
+      </c>
+      <c r="H2">
+        <v>1.2606688957557281E-6</v>
+      </c>
+      <c r="I2">
+        <v>5.9762125587992238E-3</v>
+      </c>
+      <c r="J2">
+        <v>2.7605867208502688E-4</v>
+      </c>
+      <c r="K2">
+        <v>0.98497024112919052</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.97678288504604072</v>
+      </c>
+      <c r="C3">
+        <v>9.4125321633365029E-4</v>
+      </c>
+      <c r="D3">
+        <v>1.121805340620787E-3</v>
+      </c>
+      <c r="E3">
+        <v>6.9259264519838026E-3</v>
+      </c>
+      <c r="F3">
+        <v>9.5027477186139346E-4</v>
+      </c>
+      <c r="G3">
+        <v>5.6931169575319676E-3</v>
+      </c>
+      <c r="H3">
+        <v>1.0259332100065801E-4</v>
+      </c>
+      <c r="I3">
+        <v>7.2354350269025307E-3</v>
+      </c>
+      <c r="J3">
+        <v>2.4670986772439588E-4</v>
+      </c>
+      <c r="K3">
+        <v>0.97678288504604072</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.90740290183988404</v>
+      </c>
+      <c r="C4">
+        <v>5.1599913398561162E-4</v>
+      </c>
+      <c r="D4">
+        <v>2.671300598152113E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.232326491165567E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.8033489341220668E-3</v>
+      </c>
+      <c r="G4">
+        <v>2.4699956268181989E-2</v>
+      </c>
+      <c r="H4">
+        <v>2.4551597138575892E-6</v>
+      </c>
+      <c r="I4">
+        <v>1.7920890082915881E-2</v>
+      </c>
+      <c r="J4">
+        <v>5.6181776880198158E-3</v>
+      </c>
+      <c r="K4">
+        <v>0.90740290183988404</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.96502906729368632</v>
+      </c>
+      <c r="C5">
+        <v>7.4433975806152827E-4</v>
+      </c>
+      <c r="D5">
+        <v>8.3218581104937169E-4</v>
+      </c>
+      <c r="E5">
+        <v>1.395184205929147E-2</v>
+      </c>
+      <c r="F5">
+        <v>3.3204400695062728E-4</v>
+      </c>
+      <c r="G5">
+        <v>7.2368450004931069E-3</v>
+      </c>
+      <c r="H5">
+        <v>3.2749075633167942E-5</v>
+      </c>
+      <c r="I5">
+        <v>1.1519600859487609E-2</v>
+      </c>
+      <c r="J5">
+        <v>3.2132613534677972E-4</v>
+      </c>
+      <c r="K5">
+        <v>0.96502906729368632</v>
+      </c>
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.73020323793034236</v>
+      </c>
+      <c r="C6">
+        <v>5.6300830556490246E-3</v>
+      </c>
+      <c r="D6">
+        <v>3.7768218205527573E-2</v>
+      </c>
+      <c r="E6">
+        <v>4.3300287350420498E-2</v>
+      </c>
+      <c r="F6">
+        <v>3.6582385440195743E-2</v>
+      </c>
+      <c r="G6">
+        <v>5.0774450663688672E-2</v>
+      </c>
+      <c r="H6">
+        <v>1.705292906014174E-3</v>
+      </c>
+      <c r="I6">
+        <v>7.9693680934045733E-2</v>
+      </c>
+      <c r="J6">
+        <v>1.434236351411622E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.73020323793034236</v>
+      </c>
+      <c r="L6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.99143103459092652</v>
+      </c>
+      <c r="C7">
+        <v>4.6213559267309042E-4</v>
+      </c>
+      <c r="D7">
+        <v>2.7737332019892361E-4</v>
+      </c>
+      <c r="E7">
+        <v>3.4823742056955048E-3</v>
+      </c>
+      <c r="F7">
+        <v>1.4457701869595151E-4</v>
+      </c>
+      <c r="G7">
+        <v>7.1427369690034155E-4</v>
+      </c>
+      <c r="H7">
+        <v>3.294753079109121E-5</v>
+      </c>
+      <c r="I7">
+        <v>3.3112645001368551E-3</v>
+      </c>
+      <c r="J7">
+        <v>1.4401954398164961E-4</v>
+      </c>
+      <c r="K7">
+        <v>0.99143103459092652</v>
+      </c>
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0.81936485492147859</v>
+      </c>
+      <c r="C8">
+        <v>2.1396973130880259E-3</v>
+      </c>
+      <c r="D8">
+        <v>3.7011926507931142E-2</v>
+      </c>
+      <c r="E8">
+        <v>5.1521750604394179E-2</v>
+      </c>
+      <c r="F8">
+        <v>9.2412468430069662E-3</v>
+      </c>
+      <c r="G8">
+        <v>2.5614988375763901E-2</v>
+      </c>
+      <c r="H8">
+        <v>2.095074890748365E-3</v>
+      </c>
+      <c r="I8">
+        <v>3.5733419429463023E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.7277041114125671E-2</v>
+      </c>
+      <c r="K8">
+        <v>0.81936485492147859</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0.9254830361854901</v>
+      </c>
+      <c r="C9">
+        <v>1.419778588223004E-3</v>
+      </c>
+      <c r="D9">
+        <v>1.299984040389905E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.6113593443389682E-2</v>
+      </c>
+      <c r="F9">
+        <v>2.7071855977814458E-3</v>
+      </c>
+      <c r="G9">
+        <v>1.6927168880582519E-2</v>
+      </c>
+      <c r="H9">
+        <v>3.1346705741837828E-5</v>
+      </c>
+      <c r="I9">
+        <v>2.2244022179933341E-2</v>
+      </c>
+      <c r="J9">
+        <v>2.074028014959066E-3</v>
+      </c>
+      <c r="K9">
+        <v>0.9254830361854901</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.98005033188644874</v>
+      </c>
+      <c r="C10">
+        <v>5.9274448935590983E-4</v>
+      </c>
+      <c r="D10">
+        <v>1.747170103624197E-3</v>
+      </c>
+      <c r="E10">
+        <v>1.3224822827684149E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.7901242597451899E-4</v>
+      </c>
+      <c r="G10">
+        <v>6.8843667070145906E-4</v>
+      </c>
+      <c r="H10">
+        <v>2.226857675567814E-5</v>
+      </c>
+      <c r="I10">
+        <v>3.3510745233813568E-3</v>
+      </c>
+      <c r="J10">
+        <v>1.4413849607403369E-4</v>
+      </c>
+      <c r="K10">
+        <v>0.98005033188644874</v>
+      </c>
+      <c r="L10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.99828469951523413</v>
+      </c>
+      <c r="C11">
+        <v>8.724178139805405E-5</v>
+      </c>
+      <c r="D11">
+        <v>6.103132046635049E-5</v>
+      </c>
+      <c r="E11">
+        <v>5.6309924279355627E-4</v>
+      </c>
+      <c r="F11">
+        <v>1.0298486761547631E-5</v>
+      </c>
+      <c r="G11">
+        <v>1.4851064012800591E-4</v>
+      </c>
+      <c r="H11">
+        <v>7.7038274457192358E-7</v>
+      </c>
+      <c r="I11">
+        <v>8.1388353674063788E-4</v>
+      </c>
+      <c r="J11">
+        <v>3.0465093733129721E-5</v>
+      </c>
+      <c r="K11">
+        <v>0.99828469951523413</v>
+      </c>
+      <c r="L11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.97241928384869525</v>
+      </c>
+      <c r="C12">
+        <v>2.6617552363291208E-3</v>
+      </c>
+      <c r="D12">
+        <v>3.967281211413598E-3</v>
+      </c>
+      <c r="E12">
+        <v>6.341056571101145E-3</v>
+      </c>
+      <c r="F12">
+        <v>1.5745698361771031E-3</v>
+      </c>
+      <c r="G12">
+        <v>2.2321166634472951E-3</v>
+      </c>
+      <c r="H12">
+        <v>5.3106883874910304E-4</v>
+      </c>
+      <c r="I12">
+        <v>9.3692363088478687E-3</v>
+      </c>
+      <c r="J12">
+        <v>9.0363148523964654E-4</v>
+      </c>
+      <c r="K12">
+        <v>0.97241928384869525</v>
+      </c>
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>0.99362151866521164</v>
+      </c>
+      <c r="C13">
+        <v>6.792927958929786E-5</v>
+      </c>
+      <c r="D13">
+        <v>1.2697540825311481E-4</v>
+      </c>
+      <c r="E13">
+        <v>2.9452586706198449E-3</v>
+      </c>
+      <c r="F13">
+        <v>1.318786922051132E-4</v>
+      </c>
+      <c r="G13">
+        <v>8.9474186228278468E-4</v>
+      </c>
+      <c r="H13">
+        <v>8.1148744788335798E-5</v>
+      </c>
+      <c r="I13">
+        <v>1.753706063014946E-3</v>
+      </c>
+      <c r="J13">
+        <v>3.7684261403497083E-4</v>
+      </c>
+      <c r="K13">
+        <v>0.99362151866521164</v>
+      </c>
+      <c r="L13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>0.98888908431422651</v>
+      </c>
+      <c r="C14">
+        <v>3.3921180644270001E-4</v>
+      </c>
+      <c r="D14">
+        <v>3.6854101603254791E-4</v>
+      </c>
+      <c r="E14">
+        <v>3.645828938947254E-3</v>
+      </c>
+      <c r="F14">
+        <v>5.4807137209930874E-4</v>
+      </c>
+      <c r="G14">
+        <v>1.9563321852258818E-3</v>
+      </c>
+      <c r="H14">
+        <v>1.422546389759191E-5</v>
+      </c>
+      <c r="I14">
+        <v>3.921218834080191E-3</v>
+      </c>
+      <c r="J14">
+        <v>3.1748606904794788E-4</v>
+      </c>
+      <c r="K14">
+        <v>0.98888908431422651</v>
+      </c>
+      <c r="L14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>0.93743512062938128</v>
+      </c>
+      <c r="C15">
+        <v>1.0607782404198979E-2</v>
+      </c>
+      <c r="D15">
+        <v>1.4357040141755549E-3</v>
+      </c>
+      <c r="E15">
+        <v>1.2932093540491629E-2</v>
+      </c>
+      <c r="F15">
+        <v>3.7093363293252469E-3</v>
+      </c>
+      <c r="G15">
+        <v>6.453265773683302E-3</v>
+      </c>
+      <c r="H15">
+        <v>1.095704378044395E-2</v>
+      </c>
+      <c r="I15">
+        <v>1.2551943513362709E-2</v>
+      </c>
+      <c r="J15">
+        <v>3.9177100149372993E-3</v>
+      </c>
+      <c r="K15">
+        <v>0.93743512062938128</v>
+      </c>
+      <c r="L15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.74455175335567081</v>
+      </c>
+      <c r="C16">
+        <v>3.7132124584753762E-2</v>
+      </c>
+      <c r="D16">
+        <v>2.4811025118840289E-2</v>
+      </c>
+      <c r="E16">
+        <v>5.9741765215150032E-2</v>
+      </c>
+      <c r="F16">
+        <v>3.2736600528328573E-2</v>
+      </c>
+      <c r="G16">
+        <v>1.3517270410231839E-2</v>
+      </c>
+      <c r="H16">
+        <v>3.118637506799116E-2</v>
+      </c>
+      <c r="I16">
+        <v>4.2967437272586208E-2</v>
+      </c>
+      <c r="J16">
+        <v>1.3355648446447309E-2</v>
+      </c>
+      <c r="K16">
+        <v>0.74455175335567081</v>
+      </c>
+      <c r="L16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0.88516676282117901</v>
+      </c>
+      <c r="C17">
+        <v>2.15081926201431E-3</v>
+      </c>
+      <c r="D17">
+        <v>4.8933708286831162E-2</v>
+      </c>
+      <c r="E17">
+        <v>1.994589078813851E-2</v>
+      </c>
+      <c r="F17">
+        <v>4.6600954106020372E-4</v>
+      </c>
+      <c r="G17">
+        <v>1.0710469496964969E-2</v>
+      </c>
+      <c r="H17">
+        <v>1.9544668021216209E-4</v>
+      </c>
+      <c r="I17">
+        <v>2.8677129816495509E-2</v>
+      </c>
+      <c r="J17">
+        <v>3.7537633071043361E-3</v>
+      </c>
+      <c r="K17">
+        <v>0.88516676282117901</v>
+      </c>
+      <c r="L17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.75094698771582979</v>
+      </c>
+      <c r="C18">
+        <v>3.8632902658592158E-3</v>
+      </c>
+      <c r="D18">
+        <v>3.2797394730777321E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.15696241580430159</v>
+      </c>
+      <c r="F18">
+        <v>6.5182855562487838E-4</v>
+      </c>
+      <c r="G18">
+        <v>5.2238803301719629E-3</v>
+      </c>
+      <c r="H18">
+        <v>7.8881254296166013E-5</v>
+      </c>
+      <c r="I18">
+        <v>4.672239740398508E-2</v>
+      </c>
+      <c r="J18">
+        <v>2.752923939154008E-3</v>
+      </c>
+      <c r="K18">
+        <v>0.75094698771582979</v>
+      </c>
+      <c r="L18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.51200322933955345</v>
+      </c>
+      <c r="C19">
+        <v>0.1228063867033642</v>
+      </c>
+      <c r="D19">
+        <v>5.1660195487610888E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.106889086586533</v>
+      </c>
+      <c r="F19">
+        <v>7.82603920976775E-3</v>
+      </c>
+      <c r="G19">
+        <v>4.7531220730613999E-2</v>
+      </c>
+      <c r="H19">
+        <v>6.6153383236088353E-2</v>
+      </c>
+      <c r="I19">
+        <v>7.8422998514688882E-2</v>
+      </c>
+      <c r="J19">
+        <v>6.7074601917794692E-3</v>
+      </c>
+      <c r="K19">
+        <v>0.51200322933955345</v>
+      </c>
+      <c r="L19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.99286262973464767</v>
+      </c>
+      <c r="C20">
+        <v>1.7158545863598239E-4</v>
+      </c>
+      <c r="D20">
+        <v>1.159859697014379E-3</v>
+      </c>
+      <c r="E20">
+        <v>2.765167216811843E-3</v>
+      </c>
+      <c r="F20">
+        <v>1.8644797532783239E-5</v>
+      </c>
+      <c r="G20">
+        <v>3.8496184624123048E-4</v>
+      </c>
+      <c r="H20">
+        <v>2.817173624718294E-6</v>
+      </c>
+      <c r="I20">
+        <v>2.485011462063617E-3</v>
+      </c>
+      <c r="J20">
+        <v>1.4932261342773121E-4</v>
+      </c>
+      <c r="K20">
+        <v>0.99286262973464767</v>
+      </c>
+      <c r="L20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>0.81677474054630594</v>
+      </c>
+      <c r="C21">
+        <v>2.8496170336806321E-3</v>
+      </c>
+      <c r="D21">
+        <v>6.279732972029245E-3</v>
+      </c>
+      <c r="E21">
+        <v>3.655927817015063E-2</v>
+      </c>
+      <c r="F21">
+        <v>5.8276121176360296E-3</v>
+      </c>
+      <c r="G21">
+        <v>2.1225920486625451E-2</v>
+      </c>
+      <c r="H21">
+        <v>1.6136114074799101E-2</v>
+      </c>
+      <c r="I21">
+        <v>4.1624917521899812E-2</v>
+      </c>
+      <c r="J21">
+        <v>5.2722067076873151E-2</v>
+      </c>
+      <c r="K21">
+        <v>0.81677474054630594</v>
+      </c>
+      <c r="L21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.9984502661159923</v>
+      </c>
+      <c r="C22">
+        <v>8.2759462467351603E-5</v>
+      </c>
+      <c r="D22">
+        <v>8.5222615384809183E-5</v>
+      </c>
+      <c r="E22">
+        <v>5.4367990223733881E-4</v>
+      </c>
+      <c r="F22">
+        <v>3.1206044990574921E-6</v>
+      </c>
+      <c r="G22">
+        <v>1.679889469233246E-4</v>
+      </c>
+      <c r="H22">
+        <v>2.6996152581761541E-6</v>
+      </c>
+      <c r="I22">
+        <v>5.5487295725014458E-4</v>
+      </c>
+      <c r="J22">
+        <v>1.0938977998757659E-4</v>
+      </c>
+      <c r="K22">
+        <v>0.9984502661159923</v>
+      </c>
+      <c r="L22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.96018312429727093</v>
+      </c>
+      <c r="C23">
+        <v>9.0557734025259581E-4</v>
+      </c>
+      <c r="D23">
+        <v>1.456654579863077E-3</v>
+      </c>
+      <c r="E23">
+        <v>6.6514893291938354E-3</v>
+      </c>
+      <c r="F23">
+        <v>1.7709222297367709E-3</v>
+      </c>
+      <c r="G23">
+        <v>8.8000929095185358E-3</v>
+      </c>
+      <c r="H23">
+        <v>1.8991170350805609E-6</v>
+      </c>
+      <c r="I23">
+        <v>1.6390404318256509E-2</v>
+      </c>
+      <c r="J23">
+        <v>3.8398358788725791E-3</v>
+      </c>
+      <c r="K23">
+        <v>0.96018312429727093</v>
+      </c>
+      <c r="L23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.97346691687517528</v>
+      </c>
+      <c r="C24">
+        <v>7.2460166917842433E-4</v>
+      </c>
+      <c r="D24">
+        <v>2.9210414017481041E-4</v>
+      </c>
+      <c r="E24">
+        <v>6.8257180158968851E-3</v>
+      </c>
+      <c r="F24">
+        <v>5.1798828323679274E-3</v>
+      </c>
+      <c r="G24">
+        <v>1.9745702099141578E-3</v>
+      </c>
+      <c r="H24">
+        <v>1.205082279551379E-4</v>
+      </c>
+      <c r="I24">
+        <v>8.9605187035341396E-3</v>
+      </c>
+      <c r="J24">
+        <v>2.4551793258032239E-3</v>
+      </c>
+      <c r="K24">
+        <v>0.97346691687517528</v>
+      </c>
+      <c r="L24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0.97994451445913289</v>
+      </c>
+      <c r="C25">
+        <v>2.5667040233367719E-4</v>
+      </c>
+      <c r="D25">
+        <v>2.4748895105294172E-4</v>
+      </c>
+      <c r="E25">
+        <v>9.4497455082599522E-3</v>
+      </c>
+      <c r="F25">
+        <v>1.8725547151628979E-4</v>
+      </c>
+      <c r="G25">
+        <v>1.9752455596648601E-3</v>
+      </c>
+      <c r="H25">
+        <v>1.6590942177918419E-5</v>
+      </c>
+      <c r="I25">
+        <v>7.5998103742477511E-3</v>
+      </c>
+      <c r="J25">
+        <v>3.2267833161371822E-4</v>
+      </c>
+      <c r="K25">
+        <v>0.97994451445913289</v>
+      </c>
+      <c r="L25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0.94690237268398414</v>
+      </c>
+      <c r="C26">
+        <v>1.3052157545713071E-3</v>
+      </c>
+      <c r="D26">
+        <v>1.5886176258774649E-3</v>
+      </c>
+      <c r="E26">
+        <v>6.4604993626028182E-3</v>
+      </c>
+      <c r="F26">
+        <v>1.778207375301844E-3</v>
+      </c>
+      <c r="G26">
+        <v>1.1672023434837321E-2</v>
+      </c>
+      <c r="H26">
+        <v>6.1495335600593993E-5</v>
+      </c>
+      <c r="I26">
+        <v>1.8310149353310039E-2</v>
+      </c>
+      <c r="J26">
+        <v>1.192141907391441E-2</v>
+      </c>
+      <c r="K26">
+        <v>0.94690237268398414</v>
+      </c>
+      <c r="L26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>0.96397516279223849</v>
+      </c>
+      <c r="C27">
+        <v>6.1212724225938309E-4</v>
+      </c>
+      <c r="D27">
+        <v>3.6270098278403449E-3</v>
+      </c>
+      <c r="E27">
+        <v>1.0491578310975389E-2</v>
+      </c>
+      <c r="F27">
+        <v>5.5761055035331343E-4</v>
+      </c>
+      <c r="G27">
+        <v>6.599123887749473E-3</v>
+      </c>
+      <c r="H27">
+        <v>5.3834101548489703E-5</v>
+      </c>
+      <c r="I27">
+        <v>1.22090169932323E-2</v>
+      </c>
+      <c r="J27">
+        <v>1.8745362938028191E-3</v>
+      </c>
+      <c r="K27">
+        <v>0.96397516279223849</v>
+      </c>
+      <c r="L27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0.98406672913052684</v>
+      </c>
+      <c r="C28">
+        <v>4.2434825492897773E-5</v>
+      </c>
+      <c r="D28">
+        <v>6.2959659766204474E-3</v>
+      </c>
+      <c r="E28">
+        <v>2.6202407800471959E-3</v>
+      </c>
+      <c r="F28">
+        <v>8.4215657580093275E-5</v>
+      </c>
+      <c r="G28">
+        <v>1.431560827656424E-3</v>
+      </c>
+      <c r="H28">
+        <v>5.2083904912275147E-5</v>
+      </c>
+      <c r="I28">
+        <v>3.764546833436131E-3</v>
+      </c>
+      <c r="J28">
+        <v>1.6422220637277011E-3</v>
+      </c>
+      <c r="K28">
+        <v>0.98406672913052684</v>
+      </c>
+      <c r="L28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>0.92491038322976915</v>
+      </c>
+      <c r="C29">
+        <v>2.6959842171358881E-3</v>
+      </c>
+      <c r="D29">
+        <v>6.7354277972276244E-4</v>
+      </c>
+      <c r="E29">
+        <v>3.6644691705938183E-2</v>
+      </c>
+      <c r="F29">
+        <v>1.131727717502358E-2</v>
+      </c>
+      <c r="G29">
+        <v>5.8125502913335776E-3</v>
+      </c>
+      <c r="H29">
+        <v>4.2524874250632631E-4</v>
+      </c>
+      <c r="I29">
+        <v>1.6844886061870689E-2</v>
+      </c>
+      <c r="J29">
+        <v>6.7543579669985295E-4</v>
+      </c>
+      <c r="K29">
+        <v>0.92491038322976915</v>
+      </c>
+      <c r="L29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>0.6200453627936201</v>
+      </c>
+      <c r="C30">
+        <v>1.280166132574578E-2</v>
+      </c>
+      <c r="D30">
+        <v>4.1046244281121996E-3</v>
+      </c>
+      <c r="E30">
+        <v>7.1874915324811689E-2</v>
+      </c>
+      <c r="F30">
+        <v>1.3897036315829369E-3</v>
+      </c>
+      <c r="G30">
+        <v>1.851832562851425E-2</v>
+      </c>
+      <c r="H30">
+        <v>1.6978065003699149E-2</v>
+      </c>
+      <c r="I30">
+        <v>0.1226419242710793</v>
+      </c>
+      <c r="J30">
+        <v>0.13164541759283449</v>
+      </c>
+      <c r="K30">
+        <v>0.6200453627936201</v>
+      </c>
+      <c r="L30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>0.96288604465870276</v>
+      </c>
+      <c r="C31">
+        <v>9.9912363952116322E-4</v>
+      </c>
+      <c r="D31">
+        <v>5.0958450458000624E-3</v>
+      </c>
+      <c r="E31">
+        <v>3.9311472631268296E-3</v>
+      </c>
+      <c r="F31">
+        <v>1.5345711866831351E-3</v>
+      </c>
+      <c r="G31">
+        <v>8.4982968355164726E-3</v>
+      </c>
+      <c r="H31">
+        <v>7.9552857390788117E-4</v>
+      </c>
+      <c r="I31">
+        <v>1.471709343437563E-2</v>
+      </c>
+      <c r="J31">
+        <v>1.542349362366047E-3</v>
+      </c>
+      <c r="K31">
+        <v>0.96288604465870276</v>
+      </c>
+      <c r="L31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>0.91713298053878012</v>
+      </c>
+      <c r="C32">
+        <v>1.225451422942858E-2</v>
+      </c>
+      <c r="D32">
+        <v>5.0235916428493224E-3</v>
+      </c>
+      <c r="E32">
+        <v>3.1473134983910918E-2</v>
+      </c>
+      <c r="F32">
+        <v>2.2689014723767868E-3</v>
+      </c>
+      <c r="G32">
+        <v>8.7706907865030773E-3</v>
+      </c>
+      <c r="H32">
+        <v>9.4615982175653545E-3</v>
+      </c>
+      <c r="I32">
+        <v>1.228353087904129E-2</v>
+      </c>
+      <c r="J32">
+        <v>1.331057249544583E-3</v>
+      </c>
+      <c r="K32">
+        <v>0.91713298053878012</v>
+      </c>
+      <c r="L32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>0.62387906195614318</v>
+      </c>
+      <c r="C33">
+        <v>5.4299420359295624E-3</v>
+      </c>
+      <c r="D33">
+        <v>3.0482309187770819E-2</v>
+      </c>
+      <c r="E33">
+        <v>7.8639104111480146E-2</v>
+      </c>
+      <c r="F33">
+        <v>1.0038202478973521E-3</v>
+      </c>
+      <c r="G33">
+        <v>0.11896784300511989</v>
+      </c>
+      <c r="H33">
+        <v>6.2517106591101794E-3</v>
+      </c>
+      <c r="I33">
+        <v>0.10903937925881869</v>
+      </c>
+      <c r="J33">
+        <v>2.630682953773017E-2</v>
+      </c>
+      <c r="K33">
+        <v>0.62387906195614318</v>
+      </c>
+      <c r="L33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>0.96418125354017437</v>
+      </c>
+      <c r="C34">
+        <v>1.06835949211989E-3</v>
+      </c>
+      <c r="D34">
+        <v>7.5026051763966411E-3</v>
+      </c>
+      <c r="E34">
+        <v>1.0042407739112059E-2</v>
+      </c>
+      <c r="F34">
+        <v>1.527892892113998E-4</v>
+      </c>
+      <c r="G34">
+        <v>4.868845143168609E-3</v>
+      </c>
+      <c r="H34">
+        <v>1.4739676511016259E-5</v>
+      </c>
+      <c r="I34">
+        <v>1.1084561787351181E-2</v>
+      </c>
+      <c r="J34">
+        <v>1.0844381559549151E-3</v>
+      </c>
+      <c r="K34">
+        <v>0.96418125354017437</v>
+      </c>
+      <c r="L34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>0.98233522729287526</v>
+      </c>
+      <c r="C35">
+        <v>5.3012254523900017E-4</v>
+      </c>
+      <c r="D35">
+        <v>1.0531199394460519E-3</v>
+      </c>
+      <c r="E35">
+        <v>7.7545047133692454E-3</v>
+      </c>
+      <c r="F35">
+        <v>1.180136689942471E-3</v>
+      </c>
+      <c r="G35">
+        <v>1.2756122933643261E-3</v>
+      </c>
+      <c r="H35">
+        <v>8.6302718382545295E-4</v>
+      </c>
+      <c r="I35">
+        <v>3.499463317570793E-3</v>
+      </c>
+      <c r="J35">
+        <v>1.5087860243673929E-3</v>
+      </c>
+      <c r="K35">
+        <v>0.98233522729287526</v>
+      </c>
+      <c r="L35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>0.79923361698175654</v>
+      </c>
+      <c r="C36">
+        <v>2.1166678181713319E-3</v>
+      </c>
+      <c r="D36">
+        <v>3.0646851601184768E-3</v>
+      </c>
+      <c r="E36">
+        <v>7.3325309673076655E-2</v>
+      </c>
+      <c r="F36">
+        <v>1.8520627850100391E-2</v>
+      </c>
+      <c r="G36">
+        <v>5.1917377223721223E-2</v>
+      </c>
+      <c r="H36">
+        <v>4.8601053895137202E-4</v>
+      </c>
+      <c r="I36">
+        <v>4.754132998542248E-2</v>
+      </c>
+      <c r="J36">
+        <v>3.7943747686814762E-3</v>
+      </c>
+      <c r="K36">
+        <v>0.79923361698175654</v>
+      </c>
+      <c r="L36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>0.98958207723136649</v>
+      </c>
+      <c r="C37">
+        <v>1.254696068348424E-4</v>
+      </c>
+      <c r="D37">
+        <v>2.1606802606525038E-3</v>
+      </c>
+      <c r="E37">
+        <v>4.5636690844030568E-3</v>
+      </c>
+      <c r="F37">
+        <v>9.5082141142541199E-5</v>
+      </c>
+      <c r="G37">
+        <v>4.1098365746641342E-4</v>
+      </c>
+      <c r="H37">
+        <v>3.3467663973280542E-5</v>
+      </c>
+      <c r="I37">
+        <v>2.853542285777411E-3</v>
+      </c>
+      <c r="J37">
+        <v>1.750280683833714E-4</v>
+      </c>
+      <c r="K37">
+        <v>0.98958207723136649</v>
+      </c>
+      <c r="L37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>0.99641954961115309</v>
+      </c>
+      <c r="C38">
+        <v>9.8264075754002795E-6</v>
+      </c>
+      <c r="D38">
+        <v>1.444579088561726E-3</v>
+      </c>
+      <c r="E38">
+        <v>1.1993848788601439E-3</v>
+      </c>
+      <c r="F38">
+        <v>4.5092709293106723E-6</v>
+      </c>
+      <c r="G38">
+        <v>1.5791248869564991E-4</v>
+      </c>
+      <c r="H38">
+        <v>1.2428572327449149E-6</v>
+      </c>
+      <c r="I38">
+        <v>7.2760165780689069E-4</v>
+      </c>
+      <c r="J38">
+        <v>3.5393739185021953E-5</v>
+      </c>
+      <c r="K38">
+        <v>0.99641954961115309</v>
+      </c>
+      <c r="L38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>0.81080916131150738</v>
+      </c>
+      <c r="C39">
+        <v>1.428405020286854E-3</v>
+      </c>
+      <c r="D39">
+        <v>2.8292403665538111E-2</v>
+      </c>
+      <c r="E39">
+        <v>4.0378972353332467E-2</v>
+      </c>
+      <c r="F39">
+        <v>1.419862252033564E-3</v>
+      </c>
+      <c r="G39">
+        <v>2.3329966410671529E-2</v>
+      </c>
+      <c r="H39">
+        <v>3.014897511054394E-4</v>
+      </c>
+      <c r="I39">
+        <v>8.8593802323529744E-2</v>
+      </c>
+      <c r="J39">
+        <v>5.4459369119946571E-3</v>
+      </c>
+      <c r="K39">
+        <v>0.81080916131150738</v>
+      </c>
+      <c r="L39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>0.99630286363866793</v>
+      </c>
+      <c r="C40">
+        <v>8.2744605776859182E-5</v>
+      </c>
+      <c r="D40">
+        <v>6.2548732321599139E-5</v>
+      </c>
+      <c r="E40">
+        <v>1.7730725337964061E-3</v>
+      </c>
+      <c r="F40">
+        <v>6.6181606083296474E-5</v>
+      </c>
+      <c r="G40">
+        <v>3.7140064962371401E-4</v>
+      </c>
+      <c r="H40">
+        <v>2.4981005831962719E-6</v>
+      </c>
+      <c r="I40">
+        <v>1.2069818702134759E-3</v>
+      </c>
+      <c r="J40">
+        <v>1.3170826293362951E-4</v>
+      </c>
+      <c r="K40">
+        <v>0.99630286363866793</v>
+      </c>
+      <c r="L40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>0.88537408693491693</v>
+      </c>
+      <c r="C41">
+        <v>1.2612908637843329E-2</v>
+      </c>
+      <c r="D41">
+        <v>8.4322732214584042E-3</v>
+      </c>
+      <c r="E41">
+        <v>1.5036301834329351E-2</v>
+      </c>
+      <c r="F41">
+        <v>3.1232406304681202E-3</v>
+      </c>
+      <c r="G41">
+        <v>1.8037736226664311E-2</v>
+      </c>
+      <c r="H41">
+        <v>7.933505895947603E-3</v>
+      </c>
+      <c r="I41">
+        <v>4.7822047204710963E-2</v>
+      </c>
+      <c r="J41">
+        <v>1.6278994136607659E-3</v>
+      </c>
+      <c r="K41">
+        <v>0.88537408693491693</v>
+      </c>
+      <c r="L41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0.99916578223179908</v>
+      </c>
+      <c r="C42">
+        <v>7.8418224369417004E-6</v>
+      </c>
+      <c r="D42">
+        <v>9.6941239582546475E-5</v>
+      </c>
+      <c r="E42">
+        <v>1.5008683317207499E-4</v>
+      </c>
+      <c r="F42">
+        <v>2.3827344292835389E-5</v>
+      </c>
+      <c r="G42">
+        <v>1.4042260908742589E-4</v>
+      </c>
+      <c r="H42">
+        <v>4.4065166132580371E-7</v>
+      </c>
+      <c r="I42">
+        <v>3.8084249930858319E-4</v>
+      </c>
+      <c r="J42">
+        <v>3.3814768659221693E-5</v>
+      </c>
+      <c r="K42">
+        <v>0.99916578223179908</v>
+      </c>
+      <c r="L42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>0.81957005060056309</v>
+      </c>
+      <c r="C43">
+        <v>8.6682097942840347E-2</v>
+      </c>
+      <c r="D43">
+        <v>7.4717398277584944E-3</v>
+      </c>
+      <c r="E43">
+        <v>1.34587039837454E-2</v>
+      </c>
+      <c r="F43">
+        <v>6.0861121066426317E-3</v>
+      </c>
+      <c r="G43">
+        <v>1.38567505629664E-2</v>
+      </c>
+      <c r="H43">
+        <v>5.447683500460058E-3</v>
+      </c>
+      <c r="I43">
+        <v>4.6220411300873759E-2</v>
+      </c>
+      <c r="J43">
+        <v>1.206450174149923E-3</v>
+      </c>
+      <c r="K43">
+        <v>0.81957005060056309</v>
+      </c>
+      <c r="L43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>0.98286299104377739</v>
+      </c>
+      <c r="C44">
+        <v>4.4330870453726122E-4</v>
+      </c>
+      <c r="D44">
+        <v>7.7568596556863983E-4</v>
+      </c>
+      <c r="E44">
+        <v>4.2297453980067561E-3</v>
+      </c>
+      <c r="F44">
+        <v>4.9066530137744562E-4</v>
+      </c>
+      <c r="G44">
+        <v>3.047725009848839E-3</v>
+      </c>
+      <c r="H44">
+        <v>9.215248090288607E-6</v>
+      </c>
+      <c r="I44">
+        <v>7.9637791312746758E-3</v>
+      </c>
+      <c r="J44">
+        <v>1.768841975187859E-4</v>
+      </c>
+      <c r="K44">
+        <v>0.98286299104377739</v>
+      </c>
+      <c r="L44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>0.79837145993729086</v>
+      </c>
+      <c r="C45">
+        <v>1.764484229842075E-3</v>
+      </c>
+      <c r="D45">
+        <v>2.1127047643443668E-3</v>
+      </c>
+      <c r="E45">
+        <v>2.059935790230891E-2</v>
+      </c>
+      <c r="F45">
+        <v>6.4627003935014221E-2</v>
+      </c>
+      <c r="G45">
+        <v>1.262717886365401E-2</v>
+      </c>
+      <c r="H45">
+        <v>1.481227894312797E-2</v>
+      </c>
+      <c r="I45">
+        <v>3.5492338579856723E-2</v>
+      </c>
+      <c r="J45">
+        <v>4.9593192844560832E-2</v>
+      </c>
+      <c r="K45">
+        <v>0.79837145993729086</v>
+      </c>
+      <c r="L45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>0.98291947430055826</v>
+      </c>
+      <c r="C46">
+        <v>1.0382320486145651E-3</v>
+      </c>
+      <c r="D46">
+        <v>4.9264231231257701E-4</v>
+      </c>
+      <c r="E46">
+        <v>6.999853723924759E-3</v>
+      </c>
+      <c r="F46">
+        <v>1.2327679144598209E-4</v>
+      </c>
+      <c r="G46">
+        <v>1.3804092075824751E-3</v>
+      </c>
+      <c r="H46">
+        <v>1.3276346489399501E-4</v>
+      </c>
+      <c r="I46">
+        <v>6.6149338950273811E-3</v>
+      </c>
+      <c r="J46">
+        <v>2.984142556400612E-4</v>
+      </c>
+      <c r="K46">
+        <v>0.98291947430055826</v>
+      </c>
+      <c r="L46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>0.96299618638745332</v>
+      </c>
+      <c r="C47">
+        <v>8.3666925338910186E-4</v>
+      </c>
+      <c r="D47">
+        <v>7.6107313899182452E-3</v>
+      </c>
+      <c r="E47">
+        <v>8.3122239269490909E-3</v>
+      </c>
+      <c r="F47">
+        <v>3.5195617381059282E-4</v>
+      </c>
+      <c r="G47">
+        <v>4.5000876002438007E-3</v>
+      </c>
+      <c r="H47">
+        <v>1.003328914337391E-4</v>
+      </c>
+      <c r="I47">
+        <v>1.181590764889716E-2</v>
+      </c>
+      <c r="J47">
+        <v>3.4759047279049461E-3</v>
+      </c>
+      <c r="K47">
+        <v>0.96299618638745332</v>
+      </c>
+      <c r="L47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>0.96698036414447364</v>
+      </c>
+      <c r="C48">
+        <v>1.0906397984272349E-3</v>
+      </c>
+      <c r="D48">
+        <v>5.286961314148058E-3</v>
+      </c>
+      <c r="E48">
+        <v>1.1579685757323431E-2</v>
+      </c>
+      <c r="F48">
+        <v>2.1035883927824229E-4</v>
+      </c>
+      <c r="G48">
+        <v>2.8435311456993951E-3</v>
+      </c>
+      <c r="H48">
+        <v>1.844708558684402E-5</v>
+      </c>
+      <c r="I48">
+        <v>1.054153496631359E-2</v>
+      </c>
+      <c r="J48">
+        <v>1.4484769487495229E-3</v>
+      </c>
+      <c r="K48">
+        <v>0.96698036414447364</v>
+      </c>
+      <c r="L48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>0.99531149907356453</v>
+      </c>
+      <c r="C49">
+        <v>5.6250075992195079E-5</v>
+      </c>
+      <c r="D49">
+        <v>1.093703423966272E-4</v>
+      </c>
+      <c r="E49">
+        <v>2.2661732265958508E-3</v>
+      </c>
+      <c r="F49">
+        <v>3.9356902762931286E-6</v>
+      </c>
+      <c r="G49">
+        <v>3.4863901284151852E-4</v>
+      </c>
+      <c r="H49">
+        <v>1.179926990303671E-4</v>
+      </c>
+      <c r="I49">
+        <v>1.7758402969790829E-3</v>
+      </c>
+      <c r="J49">
+        <v>1.029958232345344E-5</v>
+      </c>
+      <c r="K49">
+        <v>0.99531149907356453</v>
+      </c>
+      <c r="L49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>0.9897463368344962</v>
+      </c>
+      <c r="C50">
+        <v>2.6397779340986909E-4</v>
+      </c>
+      <c r="D50">
+        <v>2.7093594722956809E-4</v>
+      </c>
+      <c r="E50">
+        <v>2.2256947371122561E-3</v>
+      </c>
+      <c r="F50">
+        <v>6.9345504844800737E-4</v>
+      </c>
+      <c r="G50">
+        <v>1.7961249184413231E-3</v>
+      </c>
+      <c r="H50">
+        <v>7.6891886777568662E-7</v>
+      </c>
+      <c r="I50">
+        <v>4.5919032982521214E-3</v>
+      </c>
+      <c r="J50">
+        <v>4.1080250374284202E-4</v>
+      </c>
+      <c r="K50">
+        <v>0.9897463368344962</v>
+      </c>
+      <c r="L50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>0.99642735607795785</v>
+      </c>
+      <c r="C51">
+        <v>5.50370118559368E-5</v>
+      </c>
+      <c r="D51">
+        <v>7.430337909930102E-5</v>
+      </c>
+      <c r="E51">
+        <v>1.6145666732867859E-3</v>
+      </c>
+      <c r="F51">
+        <v>7.4942745506545618E-5</v>
+      </c>
+      <c r="G51">
+        <v>3.289963737239529E-4</v>
+      </c>
+      <c r="H51">
+        <v>3.974874964303422E-7</v>
+      </c>
+      <c r="I51">
+        <v>1.403293556095152E-3</v>
+      </c>
+      <c r="J51">
+        <v>2.1106694977986381E-5</v>
+      </c>
+      <c r="K51">
+        <v>0.99642735607795785</v>
+      </c>
+      <c r="L51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>0.95885453212085736</v>
+      </c>
+      <c r="C52">
+        <v>2.8020420328878919E-3</v>
+      </c>
+      <c r="D52">
+        <v>1.5972378153487729E-3</v>
+      </c>
+      <c r="E52">
+        <v>1.477489041898367E-2</v>
+      </c>
+      <c r="F52">
+        <v>1.4791460610233509E-4</v>
+      </c>
+      <c r="G52">
+        <v>1.2436754473413161E-2</v>
+      </c>
+      <c r="H52">
+        <v>7.2712370583775856E-5</v>
+      </c>
+      <c r="I52">
+        <v>8.4043859990538053E-3</v>
+      </c>
+      <c r="J52">
+        <v>9.0953016276900441E-4</v>
+      </c>
+      <c r="K52">
+        <v>0.95885453212085736</v>
+      </c>
+      <c r="L52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>0.86296850361774702</v>
+      </c>
+      <c r="C53">
+        <v>9.2958409408983762E-3</v>
+      </c>
+      <c r="D53">
+        <v>7.126281886162684E-3</v>
+      </c>
+      <c r="E53">
+        <v>2.257869942326193E-2</v>
+      </c>
+      <c r="F53">
+        <v>1.836515475592722E-3</v>
+      </c>
+      <c r="G53">
+        <v>1.5064993369565859E-2</v>
+      </c>
+      <c r="H53">
+        <v>4.0478167527365546E-3</v>
+      </c>
+      <c r="I53">
+        <v>6.77867055497475E-2</v>
+      </c>
+      <c r="J53">
+        <v>9.2946429842872425E-3</v>
+      </c>
+      <c r="K53">
+        <v>0.86296850361774702</v>
+      </c>
+      <c r="L53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>0.9053301056635833</v>
+      </c>
+      <c r="C54">
+        <v>1.0406623265861821E-2</v>
+      </c>
+      <c r="D54">
+        <v>5.3361615208357719E-3</v>
+      </c>
+      <c r="E54">
+        <v>1.594954527345183E-2</v>
+      </c>
+      <c r="F54">
+        <v>1.5927351156215519E-3</v>
+      </c>
+      <c r="G54">
+        <v>8.6843481876553615E-3</v>
+      </c>
+      <c r="H54">
+        <v>1.6523439761856291E-2</v>
+      </c>
+      <c r="I54">
+        <v>3.352883982077387E-2</v>
+      </c>
+      <c r="J54">
+        <v>2.64820139036024E-3</v>
+      </c>
+      <c r="K54">
+        <v>0.9053301056635833</v>
+      </c>
+      <c r="L54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>0.82849210360207792</v>
+      </c>
+      <c r="C55">
+        <v>1.2958683716646789E-2</v>
+      </c>
+      <c r="D55">
+        <v>9.6836042380144798E-3</v>
+      </c>
+      <c r="E55">
+        <v>5.3933808863983593E-2</v>
+      </c>
+      <c r="F55">
+        <v>6.4295890158303521E-3</v>
+      </c>
+      <c r="G55">
+        <v>2.7137294838823559E-2</v>
+      </c>
+      <c r="H55">
+        <v>1.519099471934991E-3</v>
+      </c>
+      <c r="I55">
+        <v>5.8946154389261513E-2</v>
+      </c>
+      <c r="J55">
+        <v>8.9966186342707751E-4</v>
+      </c>
+      <c r="K55">
+        <v>0.82849210360207792</v>
+      </c>
+      <c r="L55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56">
+        <v>0.93464524774845037</v>
+      </c>
+      <c r="C56">
+        <v>1.762976959048729E-3</v>
+      </c>
+      <c r="D56">
+        <v>2.0778538549726382E-2</v>
+      </c>
+      <c r="E56">
+        <v>6.121401133096881E-3</v>
+      </c>
+      <c r="F56">
+        <v>3.3044595603405041E-3</v>
+      </c>
+      <c r="G56">
+        <v>1.160507665303348E-2</v>
+      </c>
+      <c r="H56">
+        <v>1.4586056983877509E-4</v>
+      </c>
+      <c r="I56">
+        <v>1.913585401539955E-2</v>
+      </c>
+      <c r="J56">
+        <v>2.5005848110653608E-3</v>
+      </c>
+      <c r="K56">
+        <v>0.93464524774845037</v>
+      </c>
+      <c r="L56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57">
+        <v>0.97696943371297362</v>
+      </c>
+      <c r="C57">
+        <v>1.241220006508744E-3</v>
+      </c>
+      <c r="D57">
+        <v>1.6139367952661019E-3</v>
+      </c>
+      <c r="E57">
+        <v>3.8572649597755841E-3</v>
+      </c>
+      <c r="F57">
+        <v>1.008437463676677E-3</v>
+      </c>
+      <c r="G57">
+        <v>9.5724982670226354E-3</v>
+      </c>
+      <c r="H57">
+        <v>7.1980641642024261E-5</v>
+      </c>
+      <c r="I57">
+        <v>5.2729950443587102E-3</v>
+      </c>
+      <c r="J57">
+        <v>3.9223310877601123E-4</v>
+      </c>
+      <c r="K57">
+        <v>0.97696943371297362</v>
+      </c>
+      <c r="L57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58">
+        <v>0.80735988288782523</v>
+      </c>
+      <c r="C58">
+        <v>3.165188357207336E-3</v>
+      </c>
+      <c r="D58">
+        <v>3.0964908614549659E-3</v>
+      </c>
+      <c r="E58">
+        <v>3.6649624713404869E-2</v>
+      </c>
+      <c r="F58">
+        <v>4.5134333923177762E-2</v>
+      </c>
+      <c r="G58">
+        <v>4.8638239126934463E-2</v>
+      </c>
+      <c r="H58">
+        <v>2.9714909452518219E-4</v>
+      </c>
+      <c r="I58">
+        <v>3.8481240306260329E-2</v>
+      </c>
+      <c r="J58">
+        <v>1.7177850729209979E-2</v>
+      </c>
+      <c r="K58">
+        <v>0.80735988288782523</v>
+      </c>
+      <c r="L58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59">
+        <v>0.96382595284343797</v>
+      </c>
+      <c r="C59">
+        <v>1.45576132439979E-4</v>
+      </c>
+      <c r="D59">
+        <v>1.49976507056175E-2</v>
+      </c>
+      <c r="E59">
+        <v>5.6087513952937373E-3</v>
+      </c>
+      <c r="F59">
+        <v>4.6058213979596573E-4</v>
+      </c>
+      <c r="G59">
+        <v>3.5574968664583121E-3</v>
+      </c>
+      <c r="H59">
+        <v>2.18286976323245E-5</v>
+      </c>
+      <c r="I59">
+        <v>8.2336428956939125E-3</v>
+      </c>
+      <c r="J59">
+        <v>3.1485183236303138E-3</v>
+      </c>
+      <c r="K59">
+        <v>0.96382595284343797</v>
+      </c>
+      <c r="L59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60">
+        <v>0.99646389897220355</v>
+      </c>
+      <c r="C60">
+        <v>5.362537809244692E-5</v>
+      </c>
+      <c r="D60">
+        <v>1.8722613227881309E-4</v>
+      </c>
+      <c r="E60">
+        <v>1.483021185458723E-3</v>
+      </c>
+      <c r="F60">
+        <v>1.963029577623173E-5</v>
+      </c>
+      <c r="G60">
+        <v>2.3132281309546919E-4</v>
+      </c>
+      <c r="H60">
+        <v>3.0145010901175331E-6</v>
+      </c>
+      <c r="I60">
+        <v>1.5184885404948649E-3</v>
+      </c>
+      <c r="J60">
+        <v>3.977218150988347E-5</v>
+      </c>
+      <c r="K60">
+        <v>0.99646389897220355</v>
+      </c>
+      <c r="L60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61">
+        <v>0.97317281301920233</v>
+      </c>
+      <c r="C61">
+        <v>3.2481323285280959E-4</v>
+      </c>
+      <c r="D61">
+        <v>4.9749946079618115E-4</v>
+      </c>
+      <c r="E61">
+        <v>1.8260874968975709E-2</v>
+      </c>
+      <c r="F61">
+        <v>4.18496400464407E-4</v>
+      </c>
+      <c r="G61">
+        <v>2.8401622635484268E-3</v>
+      </c>
+      <c r="H61">
+        <v>1.1993835310622901E-4</v>
+      </c>
+      <c r="I61">
+        <v>4.0535249566849632E-3</v>
+      </c>
+      <c r="J61">
+        <v>3.1187734436882242E-4</v>
+      </c>
+      <c r="K61">
+        <v>0.97317281301920233</v>
+      </c>
+      <c r="L61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62">
+        <v>0.98397007288079974</v>
+      </c>
+      <c r="C62">
+        <v>3.2131256476484381E-4</v>
+      </c>
+      <c r="D62">
+        <v>2.369068228117797E-3</v>
+      </c>
+      <c r="E62">
+        <v>5.354409954573148E-3</v>
+      </c>
+      <c r="F62">
+        <v>3.8852560921796587E-5</v>
+      </c>
+      <c r="G62">
+        <v>1.457035431299392E-3</v>
+      </c>
+      <c r="H62">
+        <v>9.0687012067644282E-5</v>
+      </c>
+      <c r="I62">
+        <v>6.1253021481803126E-3</v>
+      </c>
+      <c r="J62">
+        <v>2.7325921927530682E-4</v>
+      </c>
+      <c r="K62">
+        <v>0.98397007288079974</v>
+      </c>
+      <c r="L62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63">
+        <v>0.96284173006664131</v>
+      </c>
+      <c r="C63">
+        <v>2.2749967227633019E-3</v>
+      </c>
+      <c r="D63">
+        <v>1.938959351137304E-3</v>
+      </c>
+      <c r="E63">
+        <v>1.3956839923974449E-2</v>
+      </c>
+      <c r="F63">
+        <v>5.2583625680841255E-4</v>
+      </c>
+      <c r="G63">
+        <v>5.4470360676841132E-3</v>
+      </c>
+      <c r="H63">
+        <v>1.0467357085522241E-4</v>
+      </c>
+      <c r="I63">
+        <v>1.2249950388101749E-2</v>
+      </c>
+      <c r="J63">
+        <v>6.5997765203424405E-4</v>
+      </c>
+      <c r="K63">
+        <v>0.96284173006664131</v>
+      </c>
+      <c r="L63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64">
+        <v>0.88302262240050178</v>
+      </c>
+      <c r="C64">
+        <v>4.811701322093595E-2</v>
+      </c>
+      <c r="D64">
+        <v>1.701555529117675E-3</v>
+      </c>
+      <c r="E64">
+        <v>1.455590848359797E-2</v>
+      </c>
+      <c r="F64">
+        <v>8.5189262883176298E-3</v>
+      </c>
+      <c r="G64">
+        <v>1.1862819816802751E-2</v>
+      </c>
+      <c r="H64">
+        <v>4.8184787685396288E-3</v>
+      </c>
+      <c r="I64">
+        <v>2.0148167602413111E-2</v>
+      </c>
+      <c r="J64">
+        <v>7.2545078897735104E-3</v>
+      </c>
+      <c r="K64">
+        <v>0.88302262240050178</v>
+      </c>
+      <c r="L64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65">
+        <v>0.62296089100027274</v>
+      </c>
+      <c r="C65">
+        <v>2.0649638169238358E-3</v>
+      </c>
+      <c r="D65">
+        <v>0.25818593733546902</v>
+      </c>
+      <c r="E65">
+        <v>7.9449970741194351E-2</v>
+      </c>
+      <c r="F65">
+        <v>1.9576657149036959E-4</v>
+      </c>
+      <c r="G65">
+        <v>8.4165399384185345E-3</v>
+      </c>
+      <c r="H65">
+        <v>3.8956156779479861E-4</v>
+      </c>
+      <c r="I65">
+        <v>2.5669602123733561E-2</v>
+      </c>
+      <c r="J65">
+        <v>2.6667669047027789E-3</v>
+      </c>
+      <c r="K65">
+        <v>0.62296089100027274</v>
+      </c>
+      <c r="L65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66">
+        <v>0.98609689711755544</v>
+      </c>
+      <c r="C66">
+        <v>1.2728720712174399E-5</v>
+      </c>
+      <c r="D66">
+        <v>2.0826747907896652E-3</v>
+      </c>
+      <c r="E66">
+        <v>3.6230539676853522E-3</v>
+      </c>
+      <c r="F66">
+        <v>1.9940642605004851E-5</v>
+      </c>
+      <c r="G66">
+        <v>3.7061137746903189E-3</v>
+      </c>
+      <c r="H66">
+        <v>6.9367354130027463E-7</v>
+      </c>
+      <c r="I66">
+        <v>4.4323437619773424E-3</v>
+      </c>
+      <c r="J66">
+        <v>2.5553550443455458E-5</v>
+      </c>
+      <c r="K66">
+        <v>0.98609689711755544</v>
+      </c>
+      <c r="L66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67">
+        <v>0.99386763862787042</v>
+      </c>
+      <c r="C67">
+        <v>1.257357766989013E-4</v>
+      </c>
+      <c r="D67">
+        <v>2.3556203933967979E-4</v>
+      </c>
+      <c r="E67">
+        <v>1.4187587889712969E-3</v>
+      </c>
+      <c r="F67">
+        <v>2.1968258907335321E-4</v>
+      </c>
+      <c r="G67">
+        <v>4.5001211462385339E-4</v>
+      </c>
+      <c r="H67">
+        <v>2.980489953301781E-5</v>
+      </c>
+      <c r="I67">
+        <v>3.184748301372321E-3</v>
+      </c>
+      <c r="J67">
+        <v>4.6805686251731832E-4</v>
+      </c>
+      <c r="K67">
+        <v>0.99386763862787042</v>
+      </c>
+      <c r="L67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68">
+        <v>0.99117719442460905</v>
+      </c>
+      <c r="C68">
+        <v>6.921617644969968E-4</v>
+      </c>
+      <c r="D68">
+        <v>2.3055958072678591E-4</v>
+      </c>
+      <c r="E68">
+        <v>4.1880416640744092E-3</v>
+      </c>
+      <c r="F68">
+        <v>1.268009463467541E-4</v>
+      </c>
+      <c r="G68">
+        <v>1.090600003106394E-3</v>
+      </c>
+      <c r="H68">
+        <v>1.5336545222038819E-5</v>
+      </c>
+      <c r="I68">
+        <v>2.2863490990441201E-3</v>
+      </c>
+      <c r="J68">
+        <v>1.929559723736835E-4</v>
+      </c>
+      <c r="K68">
+        <v>0.99117719442460905</v>
+      </c>
+      <c r="L68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69">
+        <v>0.89403398742828655</v>
+      </c>
+      <c r="C69">
+        <v>4.141136469606497E-3</v>
+      </c>
+      <c r="D69">
+        <v>2.327830258805944E-3</v>
+      </c>
+      <c r="E69">
+        <v>6.5647404723302966E-2</v>
+      </c>
+      <c r="F69">
+        <v>4.3237472762339733E-5</v>
+      </c>
+      <c r="G69">
+        <v>8.1653994234805963E-3</v>
+      </c>
+      <c r="H69">
+        <v>1.757599835408251E-5</v>
+      </c>
+      <c r="I69">
+        <v>2.5511249203276541E-2</v>
+      </c>
+      <c r="J69">
+        <v>1.121790221245137E-4</v>
+      </c>
+      <c r="K69">
+        <v>0.89403398742828655</v>
+      </c>
+      <c r="L69" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70">
+        <v>0.5699527371380837</v>
+      </c>
+      <c r="C70">
+        <v>4.0657673895131773E-2</v>
+      </c>
+      <c r="D70">
+        <v>6.7145995968661054E-2</v>
+      </c>
+      <c r="E70">
+        <v>9.0753050396031584E-2</v>
+      </c>
+      <c r="F70">
+        <v>1.449784121940741E-2</v>
+      </c>
+      <c r="G70">
+        <v>9.0617214491582498E-2</v>
+      </c>
+      <c r="H70">
+        <v>1.8719856198510462E-2</v>
+      </c>
+      <c r="I70">
+        <v>9.1500943874465751E-2</v>
+      </c>
+      <c r="J70">
+        <v>1.6154686818125579E-2</v>
+      </c>
+      <c r="K70">
+        <v>0.5699527371380837</v>
+      </c>
+      <c r="L70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71">
+        <v>0.96808845619668227</v>
+      </c>
+      <c r="C71">
+        <v>2.5029538005804698E-4</v>
+      </c>
+      <c r="D71">
+        <v>1.9664977424283551E-3</v>
+      </c>
+      <c r="E71">
+        <v>2.1008557812868259E-2</v>
+      </c>
+      <c r="F71">
+        <v>9.6916681847593407E-5</v>
+      </c>
+      <c r="G71">
+        <v>1.6074732204279861E-3</v>
+      </c>
+      <c r="H71">
+        <v>3.6194441514142913E-5</v>
+      </c>
+      <c r="I71">
+        <v>6.6818486990701809E-3</v>
+      </c>
+      <c r="J71">
+        <v>2.6375982510332228E-4</v>
+      </c>
+      <c r="K71">
+        <v>0.96808845619668227</v>
+      </c>
+      <c r="L71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72">
+        <v>0.75559431011010858</v>
+      </c>
+      <c r="C72">
+        <v>2.433976354470813E-2</v>
+      </c>
+      <c r="D72">
+        <v>4.3277793907672148E-2</v>
+      </c>
+      <c r="E72">
+        <v>4.1446671965083899E-2</v>
+      </c>
+      <c r="F72">
+        <v>1.5347314989781849E-2</v>
+      </c>
+      <c r="G72">
+        <v>5.3376118656000747E-2</v>
+      </c>
+      <c r="H72">
+        <v>5.0395976756350703E-3</v>
+      </c>
+      <c r="I72">
+        <v>5.4971707277899483E-2</v>
+      </c>
+      <c r="J72">
+        <v>6.6067218731098772E-3</v>
+      </c>
+      <c r="K72">
+        <v>0.75559431011010858</v>
+      </c>
+      <c r="L72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73">
+        <v>0.82225071505373282</v>
+      </c>
+      <c r="C73">
+        <v>2.2531201684859399E-2</v>
+      </c>
+      <c r="D73">
+        <v>6.8718659024341244E-3</v>
+      </c>
+      <c r="E73">
+        <v>4.8218807805331568E-2</v>
+      </c>
+      <c r="F73">
+        <v>6.3323548298368452E-3</v>
+      </c>
+      <c r="G73">
+        <v>1.416240089093385E-2</v>
+      </c>
+      <c r="H73">
+        <v>2.9870231937100589E-2</v>
+      </c>
+      <c r="I73">
+        <v>3.2326319251950453E-2</v>
+      </c>
+      <c r="J73">
+        <v>1.7436102643820391E-2</v>
+      </c>
+      <c r="K73">
+        <v>0.82225071505373282</v>
+      </c>
+      <c r="L73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74">
+        <v>0.97885545144241082</v>
+      </c>
+      <c r="C74">
+        <v>9.945738605575535E-4</v>
+      </c>
+      <c r="D74">
+        <v>3.3930558495637018E-3</v>
+      </c>
+      <c r="E74">
+        <v>7.9249130928626937E-3</v>
+      </c>
+      <c r="F74">
+        <v>1.1028189005479331E-3</v>
+      </c>
+      <c r="G74">
+        <v>8.2301649496642536E-4</v>
+      </c>
+      <c r="H74">
+        <v>9.575337211156636E-4</v>
+      </c>
+      <c r="I74">
+        <v>3.8075304571228768E-3</v>
+      </c>
+      <c r="J74">
+        <v>2.1411061808523932E-3</v>
+      </c>
+      <c r="K74">
+        <v>0.97885545144241082</v>
+      </c>
+      <c r="L74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75">
+        <v>0.84684803589161139</v>
+      </c>
+      <c r="C75">
+        <v>1.431610899829262E-2</v>
+      </c>
+      <c r="D75">
+        <v>5.3096950589925796E-3</v>
+      </c>
+      <c r="E75">
+        <v>2.385434618579825E-2</v>
+      </c>
+      <c r="F75">
+        <v>1.112133214576032E-2</v>
+      </c>
+      <c r="G75">
+        <v>7.8270668725101637E-3</v>
+      </c>
+      <c r="H75">
+        <v>1.9722606667490952E-2</v>
+      </c>
+      <c r="I75">
+        <v>5.6849432906087058E-2</v>
+      </c>
+      <c r="J75">
+        <v>1.415137527345669E-2</v>
+      </c>
+      <c r="K75">
+        <v>0.84684803589161139</v>
+      </c>
+      <c r="L75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76">
+        <v>0.94912142505643105</v>
+      </c>
+      <c r="C76">
+        <v>1.1528596371420949E-3</v>
+      </c>
+      <c r="D76">
+        <v>3.2742411006198529E-3</v>
+      </c>
+      <c r="E76">
+        <v>7.978409619995807E-3</v>
+      </c>
+      <c r="F76">
+        <v>1.0183468238842721E-3</v>
+      </c>
+      <c r="G76">
+        <v>1.0222810669908209E-2</v>
+      </c>
+      <c r="H76">
+        <v>9.0910687790703685E-5</v>
+      </c>
+      <c r="I76">
+        <v>1.310727469515703E-2</v>
+      </c>
+      <c r="J76">
+        <v>1.403372170907107E-2</v>
+      </c>
+      <c r="K76">
+        <v>0.94912142505643105</v>
+      </c>
+      <c r="L76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77">
+        <v>0.98001849378062966</v>
+      </c>
+      <c r="C77">
+        <v>3.3402170570627108E-4</v>
+      </c>
+      <c r="D77">
+        <v>2.6899695557377899E-3</v>
+      </c>
+      <c r="E77">
+        <v>3.5880173689327439E-3</v>
+      </c>
+      <c r="F77">
+        <v>8.1754226440078131E-4</v>
+      </c>
+      <c r="G77">
+        <v>3.4507977878613571E-3</v>
+      </c>
+      <c r="H77">
+        <v>6.3458918153569288E-5</v>
+      </c>
+      <c r="I77">
+        <v>8.2548885566837166E-3</v>
+      </c>
+      <c r="J77">
+        <v>7.8281006189400413E-4</v>
+      </c>
+      <c r="K77">
+        <v>0.98001849378062966</v>
+      </c>
+      <c r="L77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78">
+        <v>0.80979082389571067</v>
+      </c>
+      <c r="C78">
+        <v>1.512805539315071E-2</v>
+      </c>
+      <c r="D78">
+        <v>5.2444036338576139E-3</v>
+      </c>
+      <c r="E78">
+        <v>9.1813771884787843E-2</v>
+      </c>
+      <c r="F78">
+        <v>8.3336220811095763E-3</v>
+      </c>
+      <c r="G78">
+        <v>1.2000861031224041E-2</v>
+      </c>
+      <c r="H78">
+        <v>1.8568029523280141E-2</v>
+      </c>
+      <c r="I78">
+        <v>3.1353190384068488E-2</v>
+      </c>
+      <c r="J78">
+        <v>7.7672421728110733E-3</v>
+      </c>
+      <c r="K78">
+        <v>0.80979082389571067</v>
+      </c>
+      <c r="L78" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79">
+        <v>0.9197043622496337</v>
+      </c>
+      <c r="C79">
+        <v>2.914863051918814E-3</v>
+      </c>
+      <c r="D79">
+        <v>4.9179688063031779E-3</v>
+      </c>
+      <c r="E79">
+        <v>2.2345518899640111E-2</v>
+      </c>
+      <c r="F79">
+        <v>7.7393484180568583E-3</v>
+      </c>
+      <c r="G79">
+        <v>6.1456881959787686E-3</v>
+      </c>
+      <c r="H79">
+        <v>9.9061045083660391E-3</v>
+      </c>
+      <c r="I79">
+        <v>2.1434218154585089E-2</v>
+      </c>
+      <c r="J79">
+        <v>4.8919277155173441E-3</v>
+      </c>
+      <c r="K79">
+        <v>0.9197043622496337</v>
+      </c>
+      <c r="L79" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80">
+        <v>0.96201439210572182</v>
+      </c>
+      <c r="C80">
+        <v>5.4333397246942368E-5</v>
+      </c>
+      <c r="D80">
+        <v>1.391955056311338E-2</v>
+      </c>
+      <c r="E80">
+        <v>1.2090626150185871E-2</v>
+      </c>
+      <c r="F80">
+        <v>1.5747697466274061E-4</v>
+      </c>
+      <c r="G80">
+        <v>5.0391353635905918E-3</v>
+      </c>
+      <c r="H80">
+        <v>2.090106922221993E-4</v>
+      </c>
+      <c r="I80">
+        <v>5.853217178442627E-3</v>
+      </c>
+      <c r="J80">
+        <v>6.6225757481373597E-4</v>
+      </c>
+      <c r="K80">
+        <v>0.96201439210572182</v>
+      </c>
+      <c r="L80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81">
+        <v>0.30225481449737962</v>
+      </c>
+      <c r="C81">
+        <v>1.8824789411397839E-4</v>
+      </c>
+      <c r="D81">
+        <v>0.47571459712338637</v>
+      </c>
+      <c r="E81">
+        <v>4.8623305813200388E-2</v>
+      </c>
+      <c r="F81">
+        <v>1.708891629730978E-2</v>
+      </c>
+      <c r="G81">
+        <v>5.8433833792227621E-2</v>
+      </c>
+      <c r="H81">
+        <v>2.7862452670948331E-5</v>
+      </c>
+      <c r="I81">
+        <v>5.2285695011433188E-2</v>
+      </c>
+      <c r="J81">
+        <v>4.5382727118277878E-2</v>
+      </c>
+      <c r="K81">
+        <v>0.47571459712338637</v>
+      </c>
+      <c r="L81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82">
+        <v>0.8784378103390833</v>
+      </c>
+      <c r="C82">
+        <v>4.3109120705714498E-3</v>
+      </c>
+      <c r="D82">
+        <v>1.5714887306281591E-2</v>
+      </c>
+      <c r="E82">
+        <v>3.1478635057025202E-2</v>
+      </c>
+      <c r="F82">
+        <v>1.5270459412757419E-3</v>
+      </c>
+      <c r="G82">
+        <v>1.529346093958456E-2</v>
+      </c>
+      <c r="H82">
+        <v>1.2398010333108771E-4</v>
+      </c>
+      <c r="I82">
+        <v>4.0153064112992999E-2</v>
+      </c>
+      <c r="J82">
+        <v>1.2960204129854019E-2</v>
+      </c>
+      <c r="K82">
+        <v>0.8784378103390833</v>
+      </c>
+      <c r="L82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83">
+        <v>0.98290990037120374</v>
+      </c>
+      <c r="C83">
+        <v>1.787208424292382E-3</v>
+      </c>
+      <c r="D83">
+        <v>1.2048738196615021E-3</v>
+      </c>
+      <c r="E83">
+        <v>4.2358338779638757E-3</v>
+      </c>
+      <c r="F83">
+        <v>1.46638885294482E-4</v>
+      </c>
+      <c r="G83">
+        <v>1.255678752044305E-3</v>
+      </c>
+      <c r="H83">
+        <v>5.0132412192169002E-5</v>
+      </c>
+      <c r="I83">
+        <v>7.8620678308255372E-3</v>
+      </c>
+      <c r="J83">
+        <v>5.4766562652181481E-4</v>
+      </c>
+      <c r="K83">
+        <v>0.98290990037120374</v>
+      </c>
+      <c r="L83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84">
+        <v>0.55887906044637348</v>
+      </c>
+      <c r="C84">
+        <v>1.6171916492768161E-2</v>
+      </c>
+      <c r="D84">
+        <v>2.7404023461757632E-2</v>
+      </c>
+      <c r="E84">
+        <v>0.1002758951759304</v>
+      </c>
+      <c r="F84">
+        <v>1.846023923748558E-2</v>
+      </c>
+      <c r="G84">
+        <v>8.0983399964005193E-2</v>
+      </c>
+      <c r="H84">
+        <v>3.3605714550647127E-2</v>
+      </c>
+      <c r="I84">
+        <v>7.2457413289161846E-2</v>
+      </c>
+      <c r="J84">
+        <v>9.176233738187059E-2</v>
+      </c>
+      <c r="K84">
+        <v>0.55887906044637348</v>
+      </c>
+      <c r="L84" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85">
+        <v>0.97039263353646887</v>
+      </c>
+      <c r="C85">
+        <v>1.384961497060383E-3</v>
+      </c>
+      <c r="D85">
+        <v>3.3470287030469112E-3</v>
+      </c>
+      <c r="E85">
+        <v>2.602254392632015E-3</v>
+      </c>
+      <c r="F85">
+        <v>3.7377534105662328E-4</v>
+      </c>
+      <c r="G85">
+        <v>2.918358151151971E-3</v>
+      </c>
+      <c r="H85">
+        <v>3.3729819322325361E-3</v>
+      </c>
+      <c r="I85">
+        <v>8.9224827194516361E-3</v>
+      </c>
+      <c r="J85">
+        <v>6.6855237268990319E-3</v>
+      </c>
+      <c r="K85">
+        <v>0.97039263353646887</v>
+      </c>
+      <c r="L85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86">
+        <v>0.94661460792147789</v>
+      </c>
+      <c r="C86">
+        <v>3.9825207267508702E-3</v>
+      </c>
+      <c r="D86">
+        <v>8.3732315303976183E-3</v>
+      </c>
+      <c r="E86">
+        <v>8.6121372776779455E-3</v>
+      </c>
+      <c r="F86">
+        <v>1.016497907940482E-3</v>
+      </c>
+      <c r="G86">
+        <v>3.4563371830174431E-3</v>
+      </c>
+      <c r="H86">
+        <v>4.9350311105774639E-4</v>
+      </c>
+      <c r="I86">
+        <v>2.2807370935580159E-2</v>
+      </c>
+      <c r="J86">
+        <v>4.6437934061000887E-3</v>
+      </c>
+      <c r="K86">
+        <v>0.94661460792147789</v>
+      </c>
+      <c r="L86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87">
+        <v>0.69662786151304901</v>
+      </c>
+      <c r="C87">
+        <v>2.8075222691438299E-2</v>
+      </c>
+      <c r="D87">
+        <v>3.0869410285048301E-2</v>
+      </c>
+      <c r="E87">
+        <v>8.8864055782775744E-2</v>
+      </c>
+      <c r="F87">
+        <v>2.0469003422583499E-2</v>
+      </c>
+      <c r="G87">
+        <v>1.438707521239072E-2</v>
+      </c>
+      <c r="H87">
+        <v>8.0280881819607852E-2</v>
+      </c>
+      <c r="I87">
+        <v>3.7320723186047559E-2</v>
+      </c>
+      <c r="J87">
+        <v>3.1057660870588691E-3</v>
+      </c>
+      <c r="K87">
+        <v>0.69662786151304901</v>
+      </c>
+      <c r="L87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88">
+        <v>0.97996560128352628</v>
+      </c>
+      <c r="C88">
+        <v>8.7701801876327991E-4</v>
+      </c>
+      <c r="D88">
+        <v>2.6712331697510061E-3</v>
+      </c>
+      <c r="E88">
+        <v>7.1117182833716867E-3</v>
+      </c>
+      <c r="F88">
+        <v>1.2844351689386851E-5</v>
+      </c>
+      <c r="G88">
+        <v>2.2946489308000198E-3</v>
+      </c>
+      <c r="H88">
+        <v>7.2038057734488216E-6</v>
+      </c>
+      <c r="I88">
+        <v>6.8847822124597068E-3</v>
+      </c>
+      <c r="J88">
+        <v>1.7494994386512951E-4</v>
+      </c>
+      <c r="K88">
+        <v>0.97996560128352628</v>
+      </c>
+      <c r="L88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89">
+        <v>0.99406286173205927</v>
+      </c>
+      <c r="C89">
+        <v>8.7314803433862325E-5</v>
+      </c>
+      <c r="D89">
+        <v>1.02302981664168E-4</v>
+      </c>
+      <c r="E89">
+        <v>2.7854358718512379E-4</v>
+      </c>
+      <c r="F89">
+        <v>7.5771200084090826E-6</v>
+      </c>
+      <c r="G89">
+        <v>4.9360670622776101E-4</v>
+      </c>
+      <c r="H89">
+        <v>6.076622858452995E-6</v>
+      </c>
+      <c r="I89">
+        <v>3.0496781370719008E-3</v>
+      </c>
+      <c r="J89">
+        <v>1.9120383094911721E-3</v>
+      </c>
+      <c r="K89">
+        <v>0.99406286173205927</v>
+      </c>
+      <c r="L89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90">
+        <v>0.94144715297625103</v>
+      </c>
+      <c r="C90">
+        <v>1.1652421404326481E-3</v>
+      </c>
+      <c r="D90">
+        <v>2.0567010784610898E-3</v>
+      </c>
+      <c r="E90">
+        <v>2.2699944651545931E-2</v>
+      </c>
+      <c r="F90">
+        <v>1.280034103493659E-2</v>
+      </c>
+      <c r="G90">
+        <v>5.8398682884922533E-3</v>
+      </c>
+      <c r="H90">
+        <v>9.4936879002516109E-4</v>
+      </c>
+      <c r="I90">
+        <v>1.1910847525625261E-2</v>
+      </c>
+      <c r="J90">
+        <v>1.1305335142298379E-3</v>
+      </c>
+      <c r="K90">
+        <v>0.94144715297625103</v>
+      </c>
+      <c r="L90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91">
+        <v>0.84039488135713503</v>
+      </c>
+      <c r="C91">
+        <v>4.3109758921676053E-3</v>
+      </c>
+      <c r="D91">
+        <v>1.3080105658131129E-2</v>
+      </c>
+      <c r="E91">
+        <v>1.8107441737778219E-2</v>
+      </c>
+      <c r="F91">
+        <v>1.68271205745908E-2</v>
+      </c>
+      <c r="G91">
+        <v>2.8761243990214919E-2</v>
+      </c>
+      <c r="H91">
+        <v>2.226345176991185E-4</v>
+      </c>
+      <c r="I91">
+        <v>4.455926404769308E-2</v>
+      </c>
+      <c r="J91">
+        <v>3.3736332224590118E-2</v>
+      </c>
+      <c r="K91">
+        <v>0.84039488135713503</v>
+      </c>
+      <c r="L91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92">
+        <v>0.9537823090336629</v>
+      </c>
+      <c r="C92">
+        <v>9.0758298955122762E-4</v>
+      </c>
+      <c r="D92">
+        <v>1.1152569841281069E-3</v>
+      </c>
+      <c r="E92">
+        <v>8.159839154090489E-3</v>
+      </c>
+      <c r="F92">
+        <v>9.0143615041566021E-3</v>
+      </c>
+      <c r="G92">
+        <v>1.013018736550941E-2</v>
+      </c>
+      <c r="H92">
+        <v>1.286801374906977E-4</v>
+      </c>
+      <c r="I92">
+        <v>1.6483930690594568E-2</v>
+      </c>
+      <c r="J92">
+        <v>2.7785214081609141E-4</v>
+      </c>
+      <c r="K92">
+        <v>0.9537823090336629</v>
+      </c>
+      <c r="L92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93">
+        <v>0.5643071253467602</v>
+      </c>
+      <c r="C93">
+        <v>1.2109004135537581E-2</v>
+      </c>
+      <c r="D93">
+        <v>7.5563621806396128E-2</v>
+      </c>
+      <c r="E93">
+        <v>4.555836276957051E-2</v>
+      </c>
+      <c r="F93">
+        <v>1.086128142423547E-2</v>
+      </c>
+      <c r="G93">
+        <v>3.3487874308401548E-2</v>
+      </c>
+      <c r="H93">
+        <v>1.4415891407504209E-2</v>
+      </c>
+      <c r="I93">
+        <v>0.181108165583826</v>
+      </c>
+      <c r="J93">
+        <v>6.2588673217768412E-2</v>
+      </c>
+      <c r="K93">
+        <v>0.5643071253467602</v>
+      </c>
+      <c r="L93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94">
+        <v>0.99815487210000131</v>
+      </c>
+      <c r="C94">
+        <v>3.7806041899543348E-5</v>
+      </c>
+      <c r="D94">
+        <v>3.7646115133575878E-4</v>
+      </c>
+      <c r="E94">
+        <v>7.8087146134272892E-4</v>
+      </c>
+      <c r="F94">
+        <v>4.0600732545144611E-5</v>
+      </c>
+      <c r="G94">
+        <v>7.2496393986085271E-5</v>
+      </c>
+      <c r="H94">
+        <v>1.2828926992427651E-6</v>
+      </c>
+      <c r="I94">
+        <v>4.8615743148118609E-4</v>
+      </c>
+      <c r="J94">
+        <v>4.9451794708942152E-5</v>
+      </c>
+      <c r="K94">
+        <v>0.99815487210000131</v>
+      </c>
+      <c r="L94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95">
+        <v>0.88793856754267797</v>
+      </c>
+      <c r="C95">
+        <v>2.9215992780314902E-3</v>
+      </c>
+      <c r="D95">
+        <v>1.190356680016531E-2</v>
+      </c>
+      <c r="E95">
+        <v>2.0903817987175E-2</v>
+      </c>
+      <c r="F95">
+        <v>1.7353739468852891E-3</v>
+      </c>
+      <c r="G95">
+        <v>2.44986248184683E-2</v>
+      </c>
+      <c r="H95">
+        <v>3.054017883993169E-3</v>
+      </c>
+      <c r="I95">
+        <v>4.040474807462769E-2</v>
+      </c>
+      <c r="J95">
+        <v>6.6396836679757341E-3</v>
+      </c>
+      <c r="K95">
+        <v>0.88793856754267797</v>
+      </c>
+      <c r="L95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96">
+        <v>0.97074853649456228</v>
+      </c>
+      <c r="C96">
+        <v>1.137908760611869E-3</v>
+      </c>
+      <c r="D96">
+        <v>4.672101549001148E-3</v>
+      </c>
+      <c r="E96">
+        <v>1.042859033639318E-2</v>
+      </c>
+      <c r="F96">
+        <v>1.977695657852838E-3</v>
+      </c>
+      <c r="G96">
+        <v>4.1748069531310928E-3</v>
+      </c>
+      <c r="H96">
+        <v>4.7158471832339229E-4</v>
+      </c>
+      <c r="I96">
+        <v>5.8517025287608774E-3</v>
+      </c>
+      <c r="J96">
+        <v>5.3707300136316479E-4</v>
+      </c>
+      <c r="K96">
+        <v>0.97074853649456228</v>
+      </c>
+      <c r="L96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97">
+        <v>0.96423583520581324</v>
+      </c>
+      <c r="C97">
+        <v>1.9154023149527699E-4</v>
+      </c>
+      <c r="D97">
+        <v>3.4858495213215628E-3</v>
+      </c>
+      <c r="E97">
+        <v>6.5363369768970253E-3</v>
+      </c>
+      <c r="F97">
+        <v>1.8911221222325119E-3</v>
+      </c>
+      <c r="G97">
+        <v>8.1938886954011202E-3</v>
+      </c>
+      <c r="H97">
+        <v>4.8635381862503918E-6</v>
+      </c>
+      <c r="I97">
+        <v>1.206548266978885E-2</v>
+      </c>
+      <c r="J97">
+        <v>3.395081038864059E-3</v>
+      </c>
+      <c r="K97">
+        <v>0.96423583520581324</v>
+      </c>
+      <c r="L97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98">
+        <v>0.97530126431920705</v>
+      </c>
+      <c r="C98">
+        <v>2.150052074221722E-3</v>
+      </c>
+      <c r="D98">
+        <v>2.2482370618656538E-3</v>
+      </c>
+      <c r="E98">
+        <v>5.0419438617935316E-3</v>
+      </c>
+      <c r="F98">
+        <v>3.9657994090991758E-5</v>
+      </c>
+      <c r="G98">
+        <v>4.2711838623236678E-3</v>
+      </c>
+      <c r="H98">
+        <v>2.2856319563163979E-5</v>
+      </c>
+      <c r="I98">
+        <v>1.0329994770550559E-2</v>
+      </c>
+      <c r="J98">
+        <v>5.9480973638356617E-4</v>
+      </c>
+      <c r="K98">
+        <v>0.97530126431920705</v>
+      </c>
+      <c r="L98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2">
+        <v>9.6213665814050178E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.44810323078915432</v>
+      </c>
+      <c r="D2">
+        <v>1.8207411235961809E-2</v>
+      </c>
+      <c r="E2">
+        <v>7.2339558027157275E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.0698210945162351E-2</v>
+      </c>
+      <c r="G2">
+        <v>5.7875078088500162E-2</v>
+      </c>
+      <c r="H2">
+        <v>3.0109702272666079E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.1980051572746179</v>
+      </c>
+      <c r="J2">
+        <v>6.844798555272992E-2</v>
+      </c>
+      <c r="K2">
+        <v>0.44810323078915432</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3">
+        <v>0.69882687791870457</v>
+      </c>
+      <c r="C3">
+        <v>0.20402893435175559</v>
+      </c>
+      <c r="D3">
+        <v>2.0591627021600812E-3</v>
+      </c>
+      <c r="E3">
+        <v>2.7252054839292311E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.1036879144091891E-3</v>
+      </c>
+      <c r="G3">
+        <v>2.624640572852736E-2</v>
+      </c>
+      <c r="H3">
+        <v>4.6785644364397763E-3</v>
+      </c>
+      <c r="I3">
+        <v>3.5560944253601033E-2</v>
+      </c>
+      <c r="J3">
+        <v>2.4336785511008569E-4</v>
+      </c>
+      <c r="K3">
+        <v>0.69882687791870457</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4">
+        <v>0.1938923779324459</v>
+      </c>
+      <c r="C4">
+        <v>0.36959798445558673</v>
+      </c>
+      <c r="D4">
+        <v>1.2527532283611059E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.1644051733541835</v>
+      </c>
+      <c r="F4">
+        <v>8.9815732405628332E-3</v>
+      </c>
+      <c r="G4">
+        <v>2.727679404636691E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.9460403465866648E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.19797015401192719</v>
+      </c>
+      <c r="J4">
+        <v>5.8880072094492043E-3</v>
+      </c>
+      <c r="K4">
+        <v>0.36959798445558673</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5">
+        <v>0.63830834107825829</v>
+      </c>
+      <c r="C5">
+        <v>0.2215435423416181</v>
+      </c>
+      <c r="D5">
+        <v>1.6279757495446579E-3</v>
+      </c>
+      <c r="E5">
+        <v>6.3276530364765521E-2</v>
+      </c>
+      <c r="F5">
+        <v>4.9176236820443425E-4</v>
+      </c>
+      <c r="G5">
+        <v>1.7196785694020479E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.0113457495204909E-2</v>
+      </c>
+      <c r="I5">
+        <v>4.7131555443567411E-2</v>
+      </c>
+      <c r="J5">
+        <v>3.100494648162171E-4</v>
+      </c>
+      <c r="K5">
+        <v>0.63830834107825829</v>
+      </c>
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6">
+        <v>5.9861622281996832E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.32054096624754003</v>
+      </c>
+      <c r="D6">
+        <v>5.9175747772398653E-2</v>
+      </c>
+      <c r="E6">
+        <v>6.3268833405549688E-2</v>
+      </c>
+      <c r="F6">
+        <v>9.8268169804643257E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.26063738495595018</v>
+      </c>
+      <c r="H6">
+        <v>5.889936334867997E-4</v>
+      </c>
+      <c r="I6">
+        <v>0.12147399819806461</v>
+      </c>
+      <c r="J6">
+        <v>1.618428370036985E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.32054096624754003</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7">
+        <v>0.10062739086465319</v>
+      </c>
+      <c r="C7">
+        <v>0.17869673961838919</v>
+      </c>
+      <c r="D7">
+        <v>8.3452822823863335E-2</v>
+      </c>
+      <c r="E7">
+        <v>7.2704500192842816E-2</v>
+      </c>
+      <c r="F7">
+        <v>4.1593500858970359E-2</v>
+      </c>
+      <c r="G7">
+        <v>9.6377839802479909E-2</v>
+      </c>
+      <c r="H7">
+        <v>3.5631297452107462E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.23765896771763931</v>
+      </c>
+      <c r="J7">
+        <v>0.15325694066905429</v>
+      </c>
+      <c r="K7">
+        <v>0.23765896771763931</v>
+      </c>
+      <c r="L7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8">
+        <v>7.3429943548356039E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.42183163879891478</v>
+      </c>
+      <c r="D8">
+        <v>1.1682976933208441E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.1614110955685498</v>
+      </c>
+      <c r="F8">
+        <v>5.5488656080103227E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.1262177186611009</v>
+      </c>
+      <c r="H8">
+        <v>1.9976346546681642E-3</v>
+      </c>
+      <c r="I8">
+        <v>0.1411534592528734</v>
+      </c>
+      <c r="J8">
+        <v>6.7868765022252829E-3</v>
+      </c>
+      <c r="K8">
+        <v>0.42183163879891478</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9">
+        <v>0.32943065846906949</v>
+      </c>
+      <c r="C9">
+        <v>0.17117456713497561</v>
+      </c>
+      <c r="D9">
+        <v>4.6548433103539379E-2</v>
+      </c>
+      <c r="E9">
+        <v>9.9870358405967669E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.1057155031146802</v>
+      </c>
+      <c r="G9">
+        <v>8.0956394833394896E-2</v>
+      </c>
+      <c r="H9">
+        <v>2.3446407520730191E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.1212307096898729</v>
+      </c>
+      <c r="J9">
+        <v>2.1626967727769529E-2</v>
+      </c>
+      <c r="K9">
+        <v>0.32943065846906949</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2">
+        <v>1.02660479473876E-4</v>
+      </c>
+      <c r="C2">
+        <v>6.8287290833652088E-5</v>
+      </c>
+      <c r="D2">
+        <v>0.98521377969629664</v>
+      </c>
+      <c r="E2">
+        <v>2.7611507901210471E-3</v>
+      </c>
+      <c r="F2">
+        <v>2.99456089799257E-5</v>
+      </c>
+      <c r="G2">
+        <v>7.9867491773721946E-3</v>
+      </c>
+      <c r="H2">
+        <v>9.931833015374E-5</v>
+      </c>
+      <c r="I2">
+        <v>3.6336909098521239E-3</v>
+      </c>
+      <c r="J2">
+        <v>1.044177169166749E-4</v>
+      </c>
+      <c r="K2">
+        <v>0.98521377969629664</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3">
+        <v>0.76298446834048961</v>
+      </c>
+      <c r="C3">
+        <v>4.2736052694527854E-3</v>
+      </c>
+      <c r="D3">
+        <v>9.5518373338956339E-2</v>
+      </c>
+      <c r="E3">
+        <v>5.0367499071083711E-2</v>
+      </c>
+      <c r="F3">
+        <v>5.3270337192380954E-3</v>
+      </c>
+      <c r="G3">
+        <v>2.239768172311199E-2</v>
+      </c>
+      <c r="H3">
+        <v>7.0477139748805027E-4</v>
+      </c>
+      <c r="I3">
+        <v>3.8059935106437487E-2</v>
+      </c>
+      <c r="J3">
+        <v>2.0366632033741928E-2</v>
+      </c>
+      <c r="K3">
+        <v>0.76298446834048961</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4">
+        <v>1.069464834112516E-4</v>
+      </c>
+      <c r="C4">
+        <v>6.6534697637841725E-5</v>
+      </c>
+      <c r="D4">
+        <v>0.99332054962564753</v>
+      </c>
+      <c r="E4">
+        <v>1.063935060737117E-3</v>
+      </c>
+      <c r="F4">
+        <v>7.181645563288891E-6</v>
+      </c>
+      <c r="G4">
+        <v>2.016186503067775E-3</v>
+      </c>
+      <c r="H4">
+        <v>5.7604284596334086E-6</v>
+      </c>
+      <c r="I4">
+        <v>3.3697312208521759E-3</v>
+      </c>
+      <c r="J4">
+        <v>4.3174334623218678E-5</v>
+      </c>
+      <c r="K4">
+        <v>0.99332054962564753</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5">
+        <v>0.2777584914071195</v>
+      </c>
+      <c r="C5">
+        <v>6.3557678669890379E-3</v>
+      </c>
+      <c r="D5">
+        <v>0.4197803266348511</v>
+      </c>
+      <c r="E5">
+        <v>8.5088930662732376E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.2787888917789991E-3</v>
+      </c>
+      <c r="G5">
+        <v>9.3364502201745248E-2</v>
+      </c>
+      <c r="H5">
+        <v>3.6363874049374061E-3</v>
+      </c>
+      <c r="I5">
+        <v>6.9141894056007916E-2</v>
+      </c>
+      <c r="J5">
+        <v>4.3594910873838502E-2</v>
+      </c>
+      <c r="K5">
+        <v>0.4197803266348511</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6">
+        <v>0.16771278107412449</v>
+      </c>
+      <c r="C6">
+        <v>3.5116626464609699E-3</v>
+      </c>
+      <c r="D6">
+        <v>0.74514796427550845</v>
+      </c>
+      <c r="E6">
+        <v>2.3231956537623791E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.57221087830569E-3</v>
+      </c>
+      <c r="G6">
+        <v>1.9766770328101289E-2</v>
+      </c>
+      <c r="H6">
+        <v>3.8723426575508582E-4</v>
+      </c>
+      <c r="I6">
+        <v>3.2395685090598751E-2</v>
+      </c>
+      <c r="J6">
+        <v>5.2737349035213684E-3</v>
+      </c>
+      <c r="K6">
+        <v>0.74514796427550845</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7">
+        <v>0.2963407169565993</v>
+      </c>
+      <c r="C7">
+        <v>6.4017900258941982E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.15635415290414131</v>
+      </c>
+      <c r="E7">
+        <v>0.1374484387861597</v>
+      </c>
+      <c r="F7">
+        <v>1.5686016897733E-2</v>
+      </c>
+      <c r="G7">
+        <v>4.8265186579188393E-2</v>
+      </c>
+      <c r="H7">
+        <v>5.0035351067239851E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.12776200757792811</v>
+      </c>
+      <c r="J7">
+        <v>0.1040902289720684</v>
+      </c>
+      <c r="K7">
+        <v>0.2963407169565993</v>
+      </c>
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8">
+        <v>0.45352294156048201</v>
+      </c>
+      <c r="C8">
+        <v>1.75214510067598E-3</v>
+      </c>
+      <c r="D8">
+        <v>0.26815820035985871</v>
+      </c>
+      <c r="E8">
+        <v>0.18327515177639639</v>
+      </c>
+      <c r="F8">
+        <v>1.099324100875031E-2</v>
+      </c>
+      <c r="G8">
+        <v>1.8521412596528512E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.541953908294497E-5</v>
+      </c>
+      <c r="I8">
+        <v>6.2450142877622662E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.3113451806026021E-3</v>
+      </c>
+      <c r="K8">
+        <v>0.45352294156048201</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9">
+        <v>0.1577588100070188</v>
+      </c>
+      <c r="C9">
+        <v>2.801622764514683E-3</v>
+      </c>
+      <c r="D9">
+        <v>0.63933810209951025</v>
+      </c>
+      <c r="E9">
+        <v>4.6380444786733782E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.807595415766189E-3</v>
+      </c>
+      <c r="G9">
+        <v>3.9558800347687613E-2</v>
+      </c>
+      <c r="H9">
+        <v>2.054997460187983E-3</v>
+      </c>
+      <c r="I9">
+        <v>0.1015912623892568</v>
+      </c>
+      <c r="J9">
+        <v>8.7083647293239863E-3</v>
+      </c>
+      <c r="K9">
+        <v>0.63933810209951025</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10">
+        <v>1.8680621408235291E-2</v>
+      </c>
+      <c r="C10">
+        <v>8.4941006490435976E-3</v>
+      </c>
+      <c r="D10">
+        <v>0.87555318504543955</v>
+      </c>
+      <c r="E10">
+        <v>2.952924944119888E-2</v>
+      </c>
+      <c r="F10">
+        <v>2.384652981509234E-4</v>
+      </c>
+      <c r="G10">
+        <v>1.804291166896382E-2</v>
+      </c>
+      <c r="H10">
+        <v>3.3585331749877548E-4</v>
+      </c>
+      <c r="I10">
+        <v>3.901575388730303E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.010985928416607E-2</v>
+      </c>
+      <c r="K10">
+        <v>0.87555318504543955</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11">
+        <v>0.20995866329865609</v>
+      </c>
+      <c r="C11">
+        <v>5.5846700748395589E-3</v>
+      </c>
+      <c r="D11">
+        <v>0.587215874284027</v>
+      </c>
+      <c r="E11">
+        <v>6.6871915614504049E-2</v>
+      </c>
+      <c r="F11">
+        <v>3.433334384335935E-2</v>
+      </c>
+      <c r="G11">
+        <v>2.624642990284717E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.5478548847257789E-5</v>
+      </c>
+      <c r="I11">
+        <v>6.4079616646942505E-2</v>
+      </c>
+      <c r="J11">
+        <v>5.6940077859770049E-3</v>
+      </c>
+      <c r="K11">
+        <v>0.587215874284027</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12">
+        <v>8.8200280903555722E-2</v>
+      </c>
+      <c r="C12">
+        <v>3.9216654729070828E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.63732661572953009</v>
+      </c>
+      <c r="E12">
+        <v>2.7490769862218361E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.190238590566516E-3</v>
+      </c>
+      <c r="G12">
+        <v>3.2728141266157057E-2</v>
+      </c>
+      <c r="H12">
+        <v>6.4270841827014161E-3</v>
+      </c>
+      <c r="I12">
+        <v>8.1220181881450956E-2</v>
+      </c>
+      <c r="J12">
+        <v>8.6200032854749073E-2</v>
+      </c>
+      <c r="K12">
+        <v>0.63732661572953009</v>
+      </c>
+      <c r="L12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13">
+        <v>9.6518907775305779E-3</v>
+      </c>
+      <c r="C13">
+        <v>2.1370996140149131E-3</v>
+      </c>
+      <c r="D13">
+        <v>0.94721097456820458</v>
+      </c>
+      <c r="E13">
+        <v>7.1768956186833658E-3</v>
+      </c>
+      <c r="F13">
+        <v>5.7203793975661634E-4</v>
+      </c>
+      <c r="G13">
+        <v>5.0083733220562454E-3</v>
+      </c>
+      <c r="H13">
+        <v>5.2393214173407177E-5</v>
+      </c>
+      <c r="I13">
+        <v>1.0028581074698209E-2</v>
+      </c>
+      <c r="J13">
+        <v>1.816175387088215E-2</v>
+      </c>
+      <c r="K13">
+        <v>0.94721097456820458</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14">
+        <v>1.3383030837650471E-4</v>
+      </c>
+      <c r="C14">
+        <v>2.3593687938101759E-4</v>
+      </c>
+      <c r="D14">
+        <v>0.99655852614496809</v>
+      </c>
+      <c r="E14">
+        <v>1.112760030318764E-3</v>
+      </c>
+      <c r="F14">
+        <v>1.326416917578258E-5</v>
+      </c>
+      <c r="G14">
+        <v>7.4491849660025756E-4</v>
+      </c>
+      <c r="H14">
+        <v>1.816484344558771E-5</v>
+      </c>
+      <c r="I14">
+        <v>1.0929800095807181E-3</v>
+      </c>
+      <c r="J14">
+        <v>8.9619118153303693E-5</v>
+      </c>
+      <c r="K14">
+        <v>0.99655852614496809</v>
+      </c>
+      <c r="L14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15">
+        <v>1.6340601638970889E-3</v>
+      </c>
+      <c r="C15">
+        <v>9.2601279886009609E-5</v>
+      </c>
+      <c r="D15">
+        <v>0.98845852197535855</v>
+      </c>
+      <c r="E15">
+        <v>3.5612496850922089E-3</v>
+      </c>
+      <c r="F15">
+        <v>2.7355906854817168E-4</v>
+      </c>
+      <c r="G15">
+        <v>2.2785903815989239E-3</v>
+      </c>
+      <c r="H15">
+        <v>3.0407165717723501E-6</v>
+      </c>
+      <c r="I15">
+        <v>3.6174775500856329E-3</v>
+      </c>
+      <c r="J15">
+        <v>8.0899178961519079E-5</v>
+      </c>
+      <c r="K15">
+        <v>0.98845852197535855</v>
+      </c>
+      <c r="L15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16">
+        <v>7.2152463600279738E-4</v>
+      </c>
+      <c r="C16">
+        <v>2.1434373787774951E-5</v>
+      </c>
+      <c r="D16">
+        <v>0.98331470062888338</v>
+      </c>
+      <c r="E16">
+        <v>2.4705413480144928E-3</v>
+      </c>
+      <c r="F16">
+        <v>1.309067328060813E-5</v>
+      </c>
+      <c r="G16">
+        <v>2.6536540546193881E-3</v>
+      </c>
+      <c r="H16">
+        <v>1.5885213404444389E-5</v>
+      </c>
+      <c r="I16">
+        <v>8.9357746180169922E-3</v>
+      </c>
+      <c r="J16">
+        <v>1.8533944539901781E-3</v>
+      </c>
+      <c r="K16">
+        <v>0.98331470062888338</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17">
+        <v>2.7132917613149971E-2</v>
+      </c>
+      <c r="C17">
+        <v>3.8394662489509169E-3</v>
+      </c>
+      <c r="D17">
+        <v>0.72169685595222777</v>
+      </c>
+      <c r="E17">
+        <v>3.8247644793049838E-2</v>
+      </c>
+      <c r="F17">
+        <v>1.1802996942434779E-2</v>
+      </c>
+      <c r="G17">
+        <v>5.7562838011814312E-2</v>
+      </c>
+      <c r="H17">
+        <v>3.0953548509244651E-4</v>
+      </c>
+      <c r="I17">
+        <v>3.979206662782301E-2</v>
+      </c>
+      <c r="J17">
+        <v>9.9615678325457133E-2</v>
+      </c>
+      <c r="K17">
+        <v>0.72169685595222777</v>
+      </c>
+      <c r="L17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18">
+        <v>1.812176037347628E-3</v>
+      </c>
+      <c r="C18">
+        <v>4.4239564967853557E-4</v>
+      </c>
+      <c r="D18">
+        <v>0.9715392393248844</v>
+      </c>
+      <c r="E18">
+        <v>1.0748527129506601E-2</v>
+      </c>
+      <c r="F18">
+        <v>1.5263901734804449E-3</v>
+      </c>
+      <c r="G18">
+        <v>6.1810540645677904E-3</v>
+      </c>
+      <c r="H18">
+        <v>8.8861526815590319E-6</v>
+      </c>
+      <c r="I18">
+        <v>7.3290587366294721E-3</v>
+      </c>
+      <c r="J18">
+        <v>4.1227273122377992E-4</v>
+      </c>
+      <c r="K18">
+        <v>0.9715392393248844</v>
+      </c>
+      <c r="L18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19">
+        <v>3.2680983527665207E-2</v>
+      </c>
+      <c r="C19">
+        <v>1.2691924296845071E-3</v>
+      </c>
+      <c r="D19">
+        <v>0.87120290565498815</v>
+      </c>
+      <c r="E19">
+        <v>2.9569480401120781E-2</v>
+      </c>
+      <c r="F19">
+        <v>5.8510335457143635E-4</v>
+      </c>
+      <c r="G19">
+        <v>2.30904421813624E-2</v>
+      </c>
+      <c r="H19">
+        <v>1.040087532691952E-3</v>
+      </c>
+      <c r="I19">
+        <v>2.8143534296260469E-2</v>
+      </c>
+      <c r="J19">
+        <v>1.241827062165495E-2</v>
+      </c>
+      <c r="K19">
+        <v>0.87120290565498815</v>
+      </c>
+      <c r="L19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20">
+        <v>4.0464529834107468E-3</v>
+      </c>
+      <c r="C20">
+        <v>4.8190332918924742E-4</v>
+      </c>
+      <c r="D20">
+        <v>0.96311086374160215</v>
+      </c>
+      <c r="E20">
+        <v>1.374813824547428E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.5070388528258701E-4</v>
+      </c>
+      <c r="G20">
+        <v>7.0085542275639678E-3</v>
+      </c>
+      <c r="H20">
+        <v>3.2279471031600442E-4</v>
+      </c>
+      <c r="I20">
+        <v>8.7817831195346543E-3</v>
+      </c>
+      <c r="J20">
+        <v>2.3488057576265911E-3</v>
+      </c>
+      <c r="K20">
+        <v>0.96311086374160215</v>
+      </c>
+      <c r="L20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21">
+        <v>8.5009655649261589E-3</v>
+      </c>
+      <c r="C21">
+        <v>1.557006231240998E-3</v>
+      </c>
+      <c r="D21">
+        <v>0.90448734307707557</v>
+      </c>
+      <c r="E21">
+        <v>4.6510941496704337E-2</v>
+      </c>
+      <c r="F21">
+        <v>4.6876017778751483E-5</v>
+      </c>
+      <c r="G21">
+        <v>1.101591105717661E-2</v>
+      </c>
+      <c r="H21">
+        <v>2.065933065733492E-4</v>
+      </c>
+      <c r="I21">
+        <v>2.4207205204549168E-2</v>
+      </c>
+      <c r="J21">
+        <v>3.4671580439752138E-3</v>
+      </c>
+      <c r="K21">
+        <v>0.90448734307707557</v>
+      </c>
+      <c r="L21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22">
+        <v>3.6318167085971961E-3</v>
+      </c>
+      <c r="C22">
+        <v>1.128165375737791E-4</v>
+      </c>
+      <c r="D22">
+        <v>0.98650358790729709</v>
+      </c>
+      <c r="E22">
+        <v>3.1070689461614189E-3</v>
+      </c>
+      <c r="F22">
+        <v>1.2277190920923069E-5</v>
+      </c>
+      <c r="G22">
+        <v>4.3664454204971238E-4</v>
+      </c>
+      <c r="H22">
+        <v>5.0045007026271664E-7</v>
+      </c>
+      <c r="I22">
+        <v>6.1231502405617632E-3</v>
+      </c>
+      <c r="J22">
+        <v>7.2137476768053535E-5</v>
+      </c>
+      <c r="K22">
+        <v>0.98650358790729709</v>
+      </c>
+      <c r="L22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23">
+        <v>0.14146075288331919</v>
+      </c>
+      <c r="C23">
+        <v>5.4703247382793894E-4</v>
+      </c>
+      <c r="D23">
+        <v>0.75211018226415771</v>
+      </c>
+      <c r="E23">
+        <v>1.5848150168088111E-2</v>
+      </c>
+      <c r="F23">
+        <v>1.7591382930515279E-2</v>
+      </c>
+      <c r="G23">
+        <v>1.9291611373811499E-2</v>
+      </c>
+      <c r="H23">
+        <v>2.4474504527992782E-6</v>
+      </c>
+      <c r="I23">
+        <v>4.9001862001916682E-2</v>
+      </c>
+      <c r="J23">
+        <v>4.146578453910945E-3</v>
+      </c>
+      <c r="K23">
+        <v>0.75211018226415771</v>
+      </c>
+      <c r="L23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24">
+        <v>8.2214668857100326E-2</v>
+      </c>
+      <c r="C24">
+        <v>2.445880103408027E-3</v>
+      </c>
+      <c r="D24">
+        <v>0.65941125033384118</v>
+      </c>
+      <c r="E24">
+        <v>6.760566387015049E-2</v>
+      </c>
+      <c r="F24">
+        <v>2.4547962488516709E-2</v>
+      </c>
+      <c r="G24">
+        <v>5.3378611356299441E-2</v>
+      </c>
+      <c r="H24">
+        <v>2.9149342474256901E-4</v>
+      </c>
+      <c r="I24">
+        <v>9.0433383396235786E-2</v>
+      </c>
+      <c r="J24">
+        <v>1.9671086169705511E-2</v>
+      </c>
+      <c r="K24">
+        <v>0.65941125033384118</v>
+      </c>
+      <c r="L24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25">
+        <v>2.6552039314279722E-3</v>
+      </c>
+      <c r="C25">
+        <v>2.061311716308147E-3</v>
+      </c>
+      <c r="D25">
+        <v>0.94362197323918151</v>
+      </c>
+      <c r="E25">
+        <v>1.5901932055072791E-2</v>
+      </c>
+      <c r="F25">
+        <v>1.6835056887788971E-3</v>
+      </c>
+      <c r="G25">
+        <v>2.0674581049035731E-2</v>
+      </c>
+      <c r="H25">
+        <v>1.2597652842667389E-4</v>
+      </c>
+      <c r="I25">
+        <v>9.524677158863187E-3</v>
+      </c>
+      <c r="J25">
+        <v>3.7508386329050572E-3</v>
+      </c>
+      <c r="K25">
+        <v>0.94362197323918151</v>
+      </c>
+      <c r="L25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26">
+        <v>0.35876528760913978</v>
+      </c>
+      <c r="C26">
+        <v>2.081548306638713E-3</v>
+      </c>
+      <c r="D26">
+        <v>0.29769819218015731</v>
+      </c>
+      <c r="E26">
+        <v>3.1014292926503331E-2</v>
+      </c>
+      <c r="F26">
+        <v>4.9650145088971663E-2</v>
+      </c>
+      <c r="G26">
+        <v>6.3630141376546615E-2</v>
+      </c>
+      <c r="H26">
+        <v>1.6587766075444471E-3</v>
+      </c>
+      <c r="I26">
+        <v>7.6977336631517748E-2</v>
+      </c>
+      <c r="J26">
+        <v>0.1185242792729805</v>
+      </c>
+      <c r="K26">
+        <v>0.35876528760913978</v>
+      </c>
+      <c r="L26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27">
+        <v>4.4135705457198512E-2</v>
+      </c>
+      <c r="C27">
+        <v>1.7664745639503711E-3</v>
+      </c>
+      <c r="D27">
+        <v>0.89933294888208559</v>
+      </c>
+      <c r="E27">
+        <v>1.874655600624596E-2</v>
+      </c>
+      <c r="F27">
+        <v>3.6831631475578359E-3</v>
+      </c>
+      <c r="G27">
+        <v>4.0325680806800957E-3</v>
+      </c>
+      <c r="H27">
+        <v>4.1133927228411443E-6</v>
+      </c>
+      <c r="I27">
+        <v>2.4888430081221841E-2</v>
+      </c>
+      <c r="J27">
+        <v>3.410040388336874E-3</v>
+      </c>
+      <c r="K27">
+        <v>0.89933294888208559</v>
+      </c>
+      <c r="L27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2">
+        <v>0.90400646337758239</v>
+      </c>
+      <c r="C2">
+        <v>1.827865300792959E-3</v>
+      </c>
+      <c r="D2">
+        <v>8.1575749097024183E-3</v>
+      </c>
+      <c r="E2">
+        <v>5.37550520726046E-2</v>
+      </c>
+      <c r="F2">
+        <v>8.039357096855101E-4</v>
+      </c>
+      <c r="G2">
+        <v>7.3412596265999977E-3</v>
+      </c>
+      <c r="H2">
+        <v>1.0338945737297131E-3</v>
+      </c>
+      <c r="I2">
+        <v>2.09891661281465E-2</v>
+      </c>
+      <c r="J2">
+        <v>2.084788301155873E-3</v>
+      </c>
+      <c r="K2">
+        <v>0.90400646337758239</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3">
+        <v>4.7019780520429202E-3</v>
+      </c>
+      <c r="C3">
+        <v>2.4752318264939789E-5</v>
+      </c>
+      <c r="D3">
+        <v>0.4783980949685801</v>
+      </c>
+      <c r="E3">
+        <v>0.50131203766584997</v>
+      </c>
+      <c r="F3">
+        <v>2.4997174651056141E-4</v>
+      </c>
+      <c r="G3">
+        <v>1.677247302160166E-3</v>
+      </c>
+      <c r="H3">
+        <v>1.458687724940455E-5</v>
+      </c>
+      <c r="I3">
+        <v>1.354758435702069E-2</v>
+      </c>
+      <c r="J3">
+        <v>7.3746712321359173E-5</v>
+      </c>
+      <c r="K3">
+        <v>0.50131203766584997</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4">
+        <v>1.770321673603081E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.244320475940739E-3</v>
+      </c>
+      <c r="D4">
+        <v>0.35203733434494783</v>
+      </c>
+      <c r="E4">
+        <v>0.54677992092390149</v>
+      </c>
+      <c r="F4">
+        <v>2.332535923032402E-3</v>
+      </c>
+      <c r="G4">
+        <v>3.4487416327815587E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.89743656115508E-3</v>
+      </c>
+      <c r="I4">
+        <v>3.4020727390312672E-2</v>
+      </c>
+      <c r="J4">
+        <v>9.4970913168634964E-3</v>
+      </c>
+      <c r="K4">
+        <v>0.54677992092390149</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5">
+        <v>0.48482115480280408</v>
+      </c>
+      <c r="C5">
+        <v>3.0571793592718659E-3</v>
+      </c>
+      <c r="D5">
+        <v>2.5613365270824801E-3</v>
+      </c>
+      <c r="E5">
+        <v>0.48214615427206081</v>
+      </c>
+      <c r="F5">
+        <v>1.4592584248826371E-4</v>
+      </c>
+      <c r="G5">
+        <v>6.1971608295419778E-3</v>
+      </c>
+      <c r="H5">
+        <v>5.2051488192196181E-4</v>
+      </c>
+      <c r="I5">
+        <v>2.0528107938082889E-2</v>
+      </c>
+      <c r="J5">
+        <v>2.246554674572949E-5</v>
+      </c>
+      <c r="K5">
+        <v>0.48482115480280408</v>
+      </c>
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6">
+        <v>3.2574421568717607E-2</v>
+      </c>
+      <c r="C6">
+        <v>1.4970677455591629E-3</v>
+      </c>
+      <c r="D6">
+        <v>4.4519986576489333E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.85621096415563536</v>
+      </c>
+      <c r="F6">
+        <v>6.5686767853974902E-4</v>
+      </c>
+      <c r="G6">
+        <v>1.120400541769381E-2</v>
+      </c>
+      <c r="H6">
+        <v>1.219399579675748E-4</v>
+      </c>
+      <c r="I6">
+        <v>5.1227049066238851E-2</v>
+      </c>
+      <c r="J6">
+        <v>1.9876978331585162E-3</v>
+      </c>
+      <c r="K6">
+        <v>0.85621096415563536</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7">
+        <v>0.65855886399129737</v>
+      </c>
+      <c r="C7">
+        <v>4.6557634882385254E-3</v>
+      </c>
+      <c r="D7">
+        <v>1.8027753648725109E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.13491440866308621</v>
+      </c>
+      <c r="F7">
+        <v>2.174283218759912E-2</v>
+      </c>
+      <c r="G7">
+        <v>5.6468604893997493E-2</v>
+      </c>
+      <c r="H7">
+        <v>3.6578302896053058E-2</v>
+      </c>
+      <c r="I7">
+        <v>3.5326024787567613E-2</v>
+      </c>
+      <c r="J7">
+        <v>3.3727445443435422E-2</v>
+      </c>
+      <c r="K7">
+        <v>0.65855886399129737</v>
+      </c>
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8">
+        <v>7.1019340116289895E-2</v>
+      </c>
+      <c r="C8">
+        <v>6.2843898088391706E-2</v>
+      </c>
+      <c r="D8">
+        <v>3.9869419292719857E-3</v>
+      </c>
+      <c r="E8">
+        <v>0.69237646906231787</v>
+      </c>
+      <c r="F8">
+        <v>1.1065416769760091E-3</v>
+      </c>
+      <c r="G8">
+        <v>6.5914231154605804E-2</v>
+      </c>
+      <c r="H8">
+        <v>3.533031750977945E-3</v>
+      </c>
+      <c r="I8">
+        <v>9.8886186997442241E-2</v>
+      </c>
+      <c r="J8">
+        <v>3.3335922372654519E-4</v>
+      </c>
+      <c r="K8">
+        <v>0.69237646906231787</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9">
+        <v>0.57297181725654522</v>
+      </c>
+      <c r="C9">
+        <v>5.9349425238137176E-3</v>
+      </c>
+      <c r="D9">
+        <v>2.7520214577849509E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.29250103067731659</v>
+      </c>
+      <c r="F9">
+        <v>3.7792259015915049E-2</v>
+      </c>
+      <c r="G9">
+        <v>3.810689556245226E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.6681821693665169E-3</v>
+      </c>
+      <c r="I9">
+        <v>2.1361927631479899E-2</v>
+      </c>
+      <c r="J9">
+        <v>2.142730585261089E-3</v>
+      </c>
+      <c r="K9">
+        <v>0.57297181725654522</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2">
+        <v>0.17103282332870209</v>
+      </c>
+      <c r="C2">
+        <v>2.4050210945028038E-3</v>
+      </c>
+      <c r="D2">
+        <v>5.6059974273514113E-2</v>
+      </c>
+      <c r="E2">
+        <v>5.5516052287968763E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.64314790944891209</v>
+      </c>
+      <c r="G2">
+        <v>3.185399825680401E-2</v>
+      </c>
+      <c r="H2">
+        <v>1.18742273469364E-3</v>
+      </c>
+      <c r="I2">
+        <v>2.587280302266165E-2</v>
+      </c>
+      <c r="J2">
+        <v>1.2923995552240801E-2</v>
+      </c>
+      <c r="K2">
+        <v>0.64314790944891209</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3">
+        <v>2.668326784195387E-3</v>
+      </c>
+      <c r="C3">
+        <v>1.706584524491747E-3</v>
+      </c>
+      <c r="D3">
+        <v>5.8753834320616379E-3</v>
+      </c>
+      <c r="E3">
+        <v>1.275342647904495E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.89988720873643313</v>
+      </c>
+      <c r="G3">
+        <v>4.7877055610811292E-2</v>
+      </c>
+      <c r="H3">
+        <v>2.34600211601481E-3</v>
+      </c>
+      <c r="I3">
+        <v>2.2405141732145459E-2</v>
+      </c>
+      <c r="J3">
+        <v>4.4808705848015228E-3</v>
+      </c>
+      <c r="K3">
+        <v>0.89988720873643313</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4">
+        <v>0.24930589098408731</v>
+      </c>
+      <c r="C4">
+        <v>3.5229649356031409E-3</v>
+      </c>
+      <c r="D4">
+        <v>8.3955760353293912E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.0021497263806813E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.43596669455411802</v>
+      </c>
+      <c r="G4">
+        <v>4.8676041967971088E-2</v>
+      </c>
+      <c r="H4">
+        <v>6.3401322875570581E-3</v>
+      </c>
+      <c r="I4">
+        <v>7.6129685223316132E-2</v>
+      </c>
+      <c r="J4">
+        <v>5.608133243024651E-2</v>
+      </c>
+      <c r="K4">
+        <v>0.43596669455411802</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5">
+        <v>0.1666889600579548</v>
+      </c>
+      <c r="C5">
+        <v>3.123199680044781E-2</v>
+      </c>
+      <c r="D5">
+        <v>3.1748098168634227E-2</v>
+      </c>
+      <c r="E5">
+        <v>9.2941188706045272E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.154849641167738</v>
+      </c>
+      <c r="G5">
+        <v>0.2298296863394135</v>
+      </c>
+      <c r="H5">
+        <v>8.1800297306937312E-5</v>
+      </c>
+      <c r="I5">
+        <v>0.28984920560435701</v>
+      </c>
+      <c r="J5">
+        <v>2.779422858102459E-3</v>
+      </c>
+      <c r="K5">
+        <v>0.28984920560435701</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6">
+        <v>2.029954933084702E-2</v>
+      </c>
+      <c r="C6">
+        <v>9.587997989982458E-4</v>
+      </c>
+      <c r="D6">
+        <v>4.5816677763574438E-3</v>
+      </c>
+      <c r="E6">
+        <v>2.8870413886041429E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.87266423917929459</v>
+      </c>
+      <c r="G6">
+        <v>2.379139481664819E-2</v>
+      </c>
+      <c r="H6">
+        <v>1.1110856792239939E-2</v>
+      </c>
+      <c r="I6">
+        <v>3.1635292507735398E-2</v>
+      </c>
+      <c r="J6">
+        <v>6.0877859118377634E-3</v>
+      </c>
+      <c r="K6">
+        <v>0.87266423917929459</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7">
+        <v>0.14934693913305819</v>
+      </c>
+      <c r="C7">
+        <v>2.8089606515393079E-3</v>
+      </c>
+      <c r="D7">
+        <v>3.2056737455685311E-2</v>
+      </c>
+      <c r="E7">
+        <v>3.8680728924184303E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.69801048285857548</v>
+      </c>
+      <c r="G7">
+        <v>3.6474650540386157E-2</v>
+      </c>
+      <c r="H7">
+        <v>4.1398211054454207E-3</v>
+      </c>
+      <c r="I7">
+        <v>3.2015205150947079E-2</v>
+      </c>
+      <c r="J7">
+        <v>6.4664741801787398E-3</v>
+      </c>
+      <c r="K7">
+        <v>0.69801048285857548</v>
+      </c>
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8">
+        <v>0.28311701760780728</v>
+      </c>
+      <c r="C8">
+        <v>0.20080018575171729</v>
+      </c>
+      <c r="D8">
+        <v>2.0849966045624838E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.1237119242114597</v>
+      </c>
+      <c r="F8">
+        <v>1.7070837602671401E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.10456728375898409</v>
+      </c>
+      <c r="H8">
+        <v>9.815576057795751E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.10831239482339181</v>
+      </c>
+      <c r="J8">
+        <v>4.3414629620386079E-2</v>
+      </c>
+      <c r="K8">
+        <v>0.28311701760780728</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9">
+        <v>5.094962395058774E-2</v>
+      </c>
+      <c r="C9">
+        <v>1.8471165328901008E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.964865101409208E-2</v>
+      </c>
+      <c r="E9">
+        <v>9.4055704424546055E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.55054725683468819</v>
+      </c>
+      <c r="G9">
+        <v>8.9993623432823466E-2</v>
+      </c>
+      <c r="H9">
+        <v>2.2313257965482461E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.11787256309608</v>
+      </c>
+      <c r="J9">
+        <v>2.614815395279918E-2</v>
+      </c>
+      <c r="K9">
+        <v>0.55054725683468819</v>
+      </c>
+      <c r="L9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10">
+        <v>0.71503650220952675</v>
+      </c>
+      <c r="C10">
+        <v>9.6894419815862158E-4</v>
+      </c>
+      <c r="D10">
+        <v>1.4459251459139649E-2</v>
+      </c>
+      <c r="E10">
+        <v>5.4427621310938291E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.1317632384426036</v>
+      </c>
+      <c r="G10">
+        <v>3.2913766602516721E-2</v>
+      </c>
+      <c r="H10">
+        <v>2.8575225945249818E-4</v>
+      </c>
+      <c r="I10">
+        <v>3.069184961426737E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.9453073903396539E-2</v>
+      </c>
+      <c r="K10">
+        <v>0.71503650220952675</v>
+      </c>
+      <c r="L10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11">
+        <v>0.60827302307334696</v>
+      </c>
+      <c r="C11">
+        <v>2.0491927877984081E-2</v>
+      </c>
+      <c r="D11">
+        <v>3.5122880473656137E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.1190232028242784</v>
+      </c>
+      <c r="F11">
+        <v>5.7717744772848717E-2</v>
+      </c>
+      <c r="G11">
+        <v>5.7916876418286398E-2</v>
+      </c>
+      <c r="H11">
+        <v>8.7429519205714599E-3</v>
+      </c>
+      <c r="I11">
+        <v>3.9963865457296258E-2</v>
+      </c>
+      <c r="J11">
+        <v>5.2747527181731507E-2</v>
+      </c>
+      <c r="K11">
+        <v>0.60827302307334696</v>
+      </c>
+      <c r="L11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12">
+        <v>0.2027117573200265</v>
+      </c>
+      <c r="C12">
+        <v>1.7705493590193831E-2</v>
+      </c>
+      <c r="D12">
+        <v>4.0785545512315127E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.10765628800801939</v>
+      </c>
+      <c r="F12">
+        <v>0.19048208513413689</v>
+      </c>
+      <c r="G12">
+        <v>9.223732802593837E-2</v>
+      </c>
+      <c r="H12">
+        <v>1.8413696100581659E-3</v>
+      </c>
+      <c r="I12">
+        <v>0.18883167476836821</v>
+      </c>
+      <c r="J12">
+        <v>0.15774845803094359</v>
+      </c>
+      <c r="K12">
+        <v>0.2027117573200265</v>
+      </c>
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13">
+        <v>0.1872947240498842</v>
+      </c>
+      <c r="C13">
+        <v>5.5182748454895673E-3</v>
+      </c>
+      <c r="D13">
+        <v>2.63916128739781E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.1125874108715427</v>
+      </c>
+      <c r="F13">
+        <v>0.59666603805917884</v>
+      </c>
+      <c r="G13">
+        <v>1.7135408385454621E-2</v>
+      </c>
+      <c r="H13">
+        <v>3.4582464218330588E-3</v>
+      </c>
+      <c r="I13">
+        <v>3.8217067923658303E-2</v>
+      </c>
+      <c r="J13">
+        <v>1.2731216568980691E-2</v>
+      </c>
+      <c r="K13">
+        <v>0.59666603805917884</v>
+      </c>
+      <c r="L13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14">
+        <v>0.86527635672903669</v>
+      </c>
+      <c r="C14">
+        <v>5.3909695339429936E-4</v>
+      </c>
+      <c r="D14">
+        <v>3.8997956378418928E-2</v>
+      </c>
+      <c r="E14">
+        <v>3.7939001573168193E-2</v>
+      </c>
+      <c r="F14">
+        <v>3.2686578391156032E-2</v>
+      </c>
+      <c r="G14">
+        <v>6.9501894363457059E-3</v>
+      </c>
+      <c r="H14">
+        <v>2.248171714172199E-5</v>
+      </c>
+      <c r="I14">
+        <v>1.539126174865992E-2</v>
+      </c>
+      <c r="J14">
+        <v>2.1970770726784201E-3</v>
+      </c>
+      <c r="K14">
+        <v>0.86527635672903669</v>
+      </c>
+      <c r="L14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2">
+        <v>4.4107657823896099E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.129318147259019E-2</v>
+      </c>
+      <c r="D2">
+        <v>1.25754001381442E-2</v>
+      </c>
+      <c r="E2">
+        <v>6.5053170574023877E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.3170110076729649E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.73219443492720238</v>
+      </c>
+      <c r="H2">
+        <v>1.2438995915295421E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.10739189618725641</v>
+      </c>
+      <c r="J2">
+        <v>1.775152884861699E-3</v>
+      </c>
+      <c r="K2">
+        <v>0.73219443492720238</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3">
+        <v>5.2697692797393832E-4</v>
+      </c>
+      <c r="C3">
+        <v>3.4510100366537499E-3</v>
+      </c>
+      <c r="D3">
+        <v>5.1436181495046897E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.796761960162982E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.3562193979922571E-3</v>
+      </c>
+      <c r="G3">
+        <v>0.8950095463737856</v>
+      </c>
+      <c r="H3">
+        <v>2.3964142726148681E-3</v>
+      </c>
+      <c r="I3">
+        <v>2.5230925024884391E-2</v>
+      </c>
+      <c r="J3">
+        <v>2.6251068694184651E-3</v>
+      </c>
+      <c r="K3">
+        <v>0.8950095463737856</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4">
+        <v>5.7056897742542648E-2</v>
+      </c>
+      <c r="C4">
+        <v>5.0853181787557768E-3</v>
+      </c>
+      <c r="D4">
+        <v>4.3454916135463864E-3</v>
+      </c>
+      <c r="E4">
+        <v>1.8529973952431819E-2</v>
+      </c>
+      <c r="F4">
+        <v>2.6674624938508619E-3</v>
+      </c>
+      <c r="G4">
+        <v>0.8371713639676408</v>
+      </c>
+      <c r="H4">
+        <v>3.8006582818327743E-2</v>
+      </c>
+      <c r="I4">
+        <v>3.3937497948377887E-2</v>
+      </c>
+      <c r="J4">
+        <v>3.1994112845258782E-3</v>
+      </c>
+      <c r="K4">
+        <v>0.8371713639676408</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5">
+        <v>3.5826460255734571E-3</v>
+      </c>
+      <c r="C5">
+        <v>5.7666581923948503E-4</v>
+      </c>
+      <c r="D5">
+        <v>1.461100169020435E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.4524261490575919E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.6177679087247471E-5</v>
+      </c>
+      <c r="G5">
+        <v>0.94594958648161698</v>
+      </c>
+      <c r="H5">
+        <v>2.7537305077793418E-3</v>
+      </c>
+      <c r="I5">
+        <v>7.7002053925394644E-3</v>
+      </c>
+      <c r="J5">
+        <v>2.7572491338361628E-4</v>
+      </c>
+      <c r="K5">
+        <v>0.94594958648161698</v>
+      </c>
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6">
+        <v>8.4394225774495915E-2</v>
+      </c>
+      <c r="C6">
+        <v>1.395923053467159E-2</v>
+      </c>
+      <c r="D6">
+        <v>7.558442295565823E-3</v>
+      </c>
+      <c r="E6">
+        <v>8.1651341536974675E-2</v>
+      </c>
+      <c r="F6">
+        <v>1.0426170367199359E-3</v>
+      </c>
+      <c r="G6">
+        <v>0.56418596711375646</v>
+      </c>
+      <c r="H6">
+        <v>6.7298689092607139E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.15062121903693751</v>
+      </c>
+      <c r="J6">
+        <v>2.9288267578270851E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.56418596711375646</v>
+      </c>
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7">
+        <v>6.6232961618490956E-3</v>
+      </c>
+      <c r="C7">
+        <v>1.9706988991442759E-2</v>
+      </c>
+      <c r="D7">
+        <v>1.887153445701209E-2</v>
+      </c>
+      <c r="E7">
+        <v>6.2261552765665279E-2</v>
+      </c>
+      <c r="F7">
+        <v>1.532765909281722E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.77228400303521283</v>
+      </c>
+      <c r="H7">
+        <v>2.2473044961166939E-2</v>
+      </c>
+      <c r="I7">
+        <v>6.600071926503806E-2</v>
+      </c>
+      <c r="J7">
+        <v>1.6451201269795761E-2</v>
+      </c>
+      <c r="K7">
+        <v>0.77228400303521283</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8">
+        <v>0.21629989481180231</v>
+      </c>
+      <c r="C8">
+        <v>0.14779983414905221</v>
+      </c>
+      <c r="D8">
+        <v>7.9268377281422567E-2</v>
+      </c>
+      <c r="E8">
+        <v>6.7196924059121074E-2</v>
+      </c>
+      <c r="F8">
+        <v>5.8492065552340551E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.1038673644991783</v>
+      </c>
+      <c r="H8">
+        <v>3.5312570850474033E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.22094967321388659</v>
+      </c>
+      <c r="J8">
+        <v>7.0813295582722521E-2</v>
+      </c>
+      <c r="K8">
+        <v>0.22094967321388659</v>
+      </c>
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9">
+        <v>1.7424946368086919E-2</v>
+      </c>
+      <c r="C9">
+        <v>5.0671235124363856E-3</v>
+      </c>
+      <c r="D9">
+        <v>1.9818762511156829E-2</v>
+      </c>
+      <c r="E9">
+        <v>2.4409094288274959E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.112579280411072E-4</v>
+      </c>
+      <c r="G9">
+        <v>0.8906679860803306</v>
+      </c>
+      <c r="H9">
+        <v>4.3426668962177322E-3</v>
+      </c>
+      <c r="I9">
+        <v>3.3185091138896901E-2</v>
+      </c>
+      <c r="J9">
+        <v>4.9730712765586197E-3</v>
+      </c>
+      <c r="K9">
+        <v>0.8906679860803306</v>
+      </c>
+      <c r="L9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10">
+        <v>3.7240165633774919E-3</v>
+      </c>
+      <c r="C10">
+        <v>1.039545776495846E-2</v>
+      </c>
+      <c r="D10">
+        <v>6.9492434620522764E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.15927299110952911</v>
+      </c>
+      <c r="F10">
+        <v>1.134047791479428E-3</v>
+      </c>
+      <c r="G10">
+        <v>0.56373668456152648</v>
+      </c>
+      <c r="H10">
+        <v>1.1510793787645171E-3</v>
+      </c>
+      <c r="I10">
+        <v>0.18936679542588639</v>
+      </c>
+      <c r="J10">
+        <v>1.7264927839554141E-3</v>
+      </c>
+      <c r="K10">
+        <v>0.56373668456152648</v>
+      </c>
+      <c r="L10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2">
+        <v>0.13270065324728561</v>
+      </c>
+      <c r="C2">
+        <v>0.34733276864276452</v>
+      </c>
+      <c r="D2">
+        <v>1.248178066791816E-2</v>
+      </c>
+      <c r="E2">
+        <v>5.910316748259458E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.3919554290487871E-2</v>
+      </c>
+      <c r="G2">
+        <v>4.4095365902042841E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.27348376017204479</v>
+      </c>
+      <c r="I2">
+        <v>0.11492767278060501</v>
+      </c>
+      <c r="J2">
+        <v>1.9552768142564588E-3</v>
+      </c>
+      <c r="K2">
+        <v>0.34733276864276452</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3">
+        <v>0.17956643152854571</v>
+      </c>
+      <c r="C3">
+        <v>0.2568696215911907</v>
+      </c>
+      <c r="D3">
+        <v>3.9668939666803238E-2</v>
+      </c>
+      <c r="E3">
+        <v>3.711904299996234E-2</v>
+      </c>
+      <c r="F3">
+        <v>4.6291786505578282E-2</v>
+      </c>
+      <c r="G3">
+        <v>3.654980459668903E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.27593719338622658</v>
+      </c>
+      <c r="I3">
+        <v>0.1045657719851925</v>
+      </c>
+      <c r="J3">
+        <v>2.343140773981163E-2</v>
+      </c>
+      <c r="K3">
+        <v>0.27593719338622658</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4">
+        <v>0.44578078520797931</v>
+      </c>
+      <c r="C4">
+        <v>1.0595394353627229E-2</v>
+      </c>
+      <c r="D4">
+        <v>3.7449942669893307E-2</v>
+      </c>
+      <c r="E4">
+        <v>8.8759162807014333E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.422220974852942E-2</v>
+      </c>
+      <c r="G4">
+        <v>3.5040543635747552E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.27111159947555019</v>
+      </c>
+      <c r="I4">
+        <v>6.256607426904999E-2</v>
+      </c>
+      <c r="J4">
+        <v>3.4474287832608523E-2</v>
+      </c>
+      <c r="K4">
+        <v>0.44578078520797931</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5">
+        <v>0.15345397600331459</v>
+      </c>
+      <c r="C5">
+        <v>5.5848244609776172E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.179953659590483E-3</v>
+      </c>
+      <c r="E5">
+        <v>3.9390525308123633E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.7106424757201949E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.664227472547912E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.65565630217532722</v>
+      </c>
+      <c r="I5">
+        <v>3.835506176951247E-2</v>
+      </c>
+      <c r="J5">
+        <v>2.136723699167448E-2</v>
+      </c>
+      <c r="K5">
+        <v>0.65565630217532722</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6">
+        <v>8.9349586549302612E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.17753637114284759</v>
+      </c>
+      <c r="D6">
+        <v>1.479686712904143E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.111068697681349</v>
+      </c>
+      <c r="F6">
+        <v>1.9731109470934972E-2</v>
+      </c>
+      <c r="G6">
+        <v>5.53467265122339E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.46811999688537942</v>
+      </c>
+      <c r="I6">
+        <v>5.0966218516105721E-2</v>
+      </c>
+      <c r="J6">
+        <v>1.3084426112805201E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.46811999688537942</v>
+      </c>
+      <c r="L6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7">
+        <v>6.0126380414628131E-2</v>
+      </c>
+      <c r="C7">
+        <v>4.6949622779637941E-2</v>
+      </c>
+      <c r="D7">
+        <v>9.53504594784821E-2</v>
+      </c>
+      <c r="E7">
+        <v>8.5969247036222551E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.2140662057549744</v>
+      </c>
+      <c r="G7">
+        <v>0.23567780765446431</v>
+      </c>
+      <c r="H7">
+        <v>6.8411827178661719E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.14034630296461731</v>
+      </c>
+      <c r="J7">
+        <v>5.3102146738311387E-2</v>
+      </c>
+      <c r="K7">
+        <v>0.23567780765446431</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8">
+        <v>0.45479936692798312</v>
+      </c>
+      <c r="C8">
+        <v>1.9051575478014029E-2</v>
+      </c>
+      <c r="D8">
+        <v>3.0843819621963961E-3</v>
+      </c>
+      <c r="E8">
+        <v>8.158206727343241E-2</v>
+      </c>
+      <c r="F8">
+        <v>3.8916634486106418E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.1103552923250198</v>
+      </c>
+      <c r="H8">
+        <v>0.15182676505616141</v>
+      </c>
+      <c r="I8">
+        <v>0.1035065702251369</v>
+      </c>
+      <c r="J8">
+        <v>3.6877346265949622E-2</v>
+      </c>
+      <c r="K8">
+        <v>0.45479936692798312</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2">
+        <v>0.13266800524342109</v>
+      </c>
+      <c r="C2">
+        <v>0.64326530693358308</v>
+      </c>
+      <c r="D2">
+        <v>2.572006758389776E-6</v>
+      </c>
+      <c r="E2">
+        <v>0.1030003193843103</v>
+      </c>
+      <c r="F2">
+        <v>4.3519084552301988E-4</v>
+      </c>
+      <c r="G2">
+        <v>3.0099252007139369E-2</v>
+      </c>
+      <c r="H2">
+        <v>1.248622930229742E-6</v>
+      </c>
+      <c r="I2">
+        <v>9.0523930962486093E-2</v>
+      </c>
+      <c r="J2">
+        <v>4.1739938484482446E-6</v>
+      </c>
+      <c r="K2">
+        <v>0.64326530693358308</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3">
+        <v>8.5275016229077513E-3</v>
+      </c>
+      <c r="C3">
+        <v>0.23188244050630549</v>
+      </c>
+      <c r="D3">
+        <v>4.0255347714074618E-4</v>
+      </c>
+      <c r="E3">
+        <v>4.8042247651595607E-2</v>
+      </c>
+      <c r="F3">
+        <v>4.3133141461264388E-2</v>
+      </c>
+      <c r="G3">
+        <v>3.1453109511179377E-2</v>
+      </c>
+      <c r="H3">
+        <v>2.021515031859859E-4</v>
+      </c>
+      <c r="I3">
+        <v>0.63583184596032316</v>
+      </c>
+      <c r="J3">
+        <v>5.2500830609736749E-4</v>
+      </c>
+      <c r="K3">
+        <v>0.63583184596032316</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4">
+        <v>3.723754035977813E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.28512950132439291</v>
+      </c>
+      <c r="D4">
+        <v>4.8356524065178222E-3</v>
+      </c>
+      <c r="E4">
+        <v>1.2540368569670149E-2</v>
+      </c>
+      <c r="F4">
+        <v>2.6226221646459789E-3</v>
+      </c>
+      <c r="G4">
+        <v>4.201173287060242E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.8121626587442932E-4</v>
+      </c>
+      <c r="I4">
+        <v>0.59910759183982021</v>
+      </c>
+      <c r="J4">
+        <v>1.603377419869792E-2</v>
+      </c>
+      <c r="K4">
+        <v>0.59910759183982021</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5">
+        <v>1.342184959170413E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.0901767204419709E-2</v>
+      </c>
+      <c r="D5">
+        <v>3.5091890644545921E-3</v>
+      </c>
+      <c r="E5">
+        <v>1.471144212343756E-2</v>
+      </c>
+      <c r="F5">
+        <v>7.8416548907301329E-5</v>
+      </c>
+      <c r="G5">
+        <v>2.2128210105422621E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.741773485128302E-3</v>
+      </c>
+      <c r="I5">
+        <v>0.76295992069333651</v>
+      </c>
+      <c r="J5">
+        <v>0.1605474311831892</v>
+      </c>
+      <c r="K5">
+        <v>0.76295992069333651</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6">
+        <v>7.8341902721605183E-2</v>
+      </c>
+      <c r="C6">
+        <v>7.7711069064753356E-3</v>
+      </c>
+      <c r="D6">
+        <v>5.3358583786707594E-3</v>
+      </c>
+      <c r="E6">
+        <v>1.355260896899158E-2</v>
+      </c>
+      <c r="F6">
+        <v>3.1631056624378942E-4</v>
+      </c>
+      <c r="G6">
+        <v>2.4379846596877339E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.5901227170802271E-4</v>
+      </c>
+      <c r="I6">
+        <v>0.86114054358007341</v>
+      </c>
+      <c r="J6">
+        <v>8.9028100093546132E-3</v>
+      </c>
+      <c r="K6">
+        <v>0.86114054358007341</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7">
+        <v>1.357714396163465E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.31164202671723401</v>
+      </c>
+      <c r="D7">
+        <v>2.2763709310303411E-3</v>
+      </c>
+      <c r="E7">
+        <v>6.2243848522247737E-3</v>
+      </c>
+      <c r="F7">
+        <v>2.4723627607366031E-4</v>
+      </c>
+      <c r="G7">
+        <v>3.2168972682739883E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.9532349922238811E-3</v>
+      </c>
+      <c r="I7">
+        <v>0.62738937923670468</v>
+      </c>
+      <c r="J7">
+        <v>4.5212503501342134E-3</v>
+      </c>
+      <c r="K7">
+        <v>0.62738937923670468</v>
+      </c>
+      <c r="L7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8">
+        <v>4.1987181489595182E-2</v>
+      </c>
+      <c r="C8">
+        <v>4.2186526644000549E-2</v>
+      </c>
+      <c r="D8">
+        <v>2.438562210699588E-2</v>
+      </c>
+      <c r="E8">
+        <v>9.3405627999825786E-3</v>
+      </c>
+      <c r="F8">
+        <v>3.2006695661961689E-4</v>
+      </c>
+      <c r="G8">
+        <v>6.5537312645826268E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.865490518058913E-4</v>
+      </c>
+      <c r="I8">
+        <v>0.78458891399187802</v>
+      </c>
+      <c r="J8">
+        <v>3.146726431329612E-2</v>
+      </c>
+      <c r="K8">
+        <v>0.78458891399187802</v>
+      </c>
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9">
+        <v>0.16387589518280851</v>
+      </c>
+      <c r="C9">
+        <v>4.5847297619612697E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.9094197506765521E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.944172458936997E-2</v>
+      </c>
+      <c r="F9">
+        <v>2.7723982740442401E-3</v>
+      </c>
+      <c r="G9">
+        <v>0.1067457394608898</v>
+      </c>
+      <c r="H9">
+        <v>2.662634081946732E-3</v>
+      </c>
+      <c r="I9">
+        <v>0.56313960355823778</v>
+      </c>
+      <c r="J9">
+        <v>6.6420509726324739E-2</v>
+      </c>
+      <c r="K9">
+        <v>0.56313960355823778</v>
+      </c>
+      <c r="L9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2">
+        <v>0.26745752580139392</v>
+      </c>
+      <c r="C2">
+        <v>4.3916781254782801E-3</v>
+      </c>
+      <c r="D2">
+        <v>6.6441140695306405E-2</v>
+      </c>
+      <c r="E2">
+        <v>3.2435219805514989E-2</v>
+      </c>
+      <c r="F2">
+        <v>2.7528082192506149E-2</v>
+      </c>
+      <c r="G2">
+        <v>6.1454005325994529E-2</v>
+      </c>
+      <c r="H2">
+        <v>6.940310169858268E-3</v>
+      </c>
+      <c r="I2">
+        <v>0.14649058949701371</v>
+      </c>
+      <c r="J2">
+        <v>0.3868614483869337</v>
+      </c>
+      <c r="K2">
+        <v>0.3868614483869337</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3">
+        <v>0.26200289032065899</v>
+      </c>
+      <c r="C3">
+        <v>3.350054609025898E-2</v>
+      </c>
+      <c r="D3">
+        <v>7.4215563386071687E-2</v>
+      </c>
+      <c r="E3">
+        <v>3.622229061221087E-2</v>
+      </c>
+      <c r="F3">
+        <v>2.0721341663914188E-2</v>
+      </c>
+      <c r="G3">
+        <v>7.0978368487735019E-2</v>
+      </c>
+      <c r="H3">
+        <v>6.5653308213127794E-3</v>
+      </c>
+      <c r="I3">
+        <v>0.15544062298544681</v>
+      </c>
+      <c r="J3">
+        <v>0.34035304563239061</v>
+      </c>
+      <c r="K3">
+        <v>0.34035304563239061</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4">
+        <v>0.16998164396910839</v>
+      </c>
+      <c r="C4">
+        <v>2.8573342795125169E-3</v>
+      </c>
+      <c r="D4">
+        <v>5.9173806170669252E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.10448941018866439</v>
+      </c>
+      <c r="F4">
+        <v>3.737769380690151E-3</v>
+      </c>
+      <c r="G4">
+        <v>0.17219467518955059</v>
+      </c>
+      <c r="H4">
+        <v>7.2840053833788986E-3</v>
+      </c>
+      <c r="I4">
+        <v>0.1413852437054606</v>
+      </c>
+      <c r="J4">
+        <v>0.33889611173296502</v>
+      </c>
+      <c r="K4">
+        <v>0.33889611173296502</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5">
+        <v>2.4477003641533591E-2</v>
+      </c>
+      <c r="C5">
+        <v>3.3264731080699703E-2</v>
+      </c>
+      <c r="D5">
+        <v>5.3557689150809863E-2</v>
+      </c>
+      <c r="E5">
+        <v>1.4732382949598839E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.91973169028423E-2</v>
+      </c>
+      <c r="G5">
+        <v>7.8291542906291645E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.7636629429520679E-2</v>
+      </c>
+      <c r="I5">
+        <v>9.301848152726222E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.65582422241144123</v>
+      </c>
+      <c r="K5">
+        <v>0.65582422241144123</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6">
+        <v>6.9274830950829633E-2</v>
+      </c>
+      <c r="C6">
+        <v>1.6383423368360949E-3</v>
+      </c>
+      <c r="D6">
+        <v>4.8188342894463897E-3</v>
+      </c>
+      <c r="E6">
+        <v>4.1848152264022543E-3</v>
+      </c>
+      <c r="F6">
+        <v>9.727555767358764E-5</v>
+      </c>
+      <c r="G6">
+        <v>6.7312358372451364E-3</v>
+      </c>
+      <c r="H6">
+        <v>6.9527269754041628E-5</v>
+      </c>
+      <c r="I6">
+        <v>3.3722791120286547E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.87946234741152629</v>
+      </c>
+      <c r="K6">
+        <v>0.87946234741152629</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7">
+        <v>8.2059987480038923E-3</v>
+      </c>
+      <c r="C7">
+        <v>1.9646600645004219E-3</v>
+      </c>
+      <c r="D7">
+        <v>2.1216352072722992E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.4853760375614439E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.1036152442506961E-3</v>
+      </c>
+      <c r="G7">
+        <v>1.470964692203139E-2</v>
+      </c>
+      <c r="H7">
+        <v>4.0871330399646806E-3</v>
+      </c>
+      <c r="I7">
+        <v>2.3224432554533131E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.90963440097837833</v>
+      </c>
+      <c r="K7">
+        <v>0.90963440097837833</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8">
+        <v>6.0107610694424482E-2</v>
+      </c>
+      <c r="C8">
+        <v>2.8305224436099641E-3</v>
+      </c>
+      <c r="D8">
+        <v>1.275944067172685E-2</v>
+      </c>
+      <c r="E8">
+        <v>3.841247888933623E-2</v>
+      </c>
+      <c r="F8">
+        <v>8.6658993918023106E-4</v>
+      </c>
+      <c r="G8">
+        <v>7.1173716875016016E-2</v>
+      </c>
+      <c r="H8">
+        <v>3.4338246823492201E-2</v>
+      </c>
+      <c r="I8">
+        <v>3.9345370343660091E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.74016602331955395</v>
+      </c>
+      <c r="K8">
+        <v>0.74016602331955395</v>
+      </c>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9">
+        <v>5.6318231315141661E-3</v>
+      </c>
+      <c r="C9">
+        <v>1.7692261721187209E-4</v>
+      </c>
+      <c r="D9">
+        <v>2.210548979120128E-3</v>
+      </c>
+      <c r="E9">
+        <v>1.3695641264213181E-3</v>
+      </c>
+      <c r="F9">
+        <v>6.2987244826614763E-5</v>
+      </c>
+      <c r="G9">
+        <v>1.323766200593937E-3</v>
+      </c>
+      <c r="H9">
+        <v>1.431950904745386E-4</v>
+      </c>
+      <c r="I9">
+        <v>5.3728635771587707E-3</v>
+      </c>
+      <c r="J9">
+        <v>0.98370832903267857</v>
+      </c>
+      <c r="K9">
+        <v>0.98370832903267857</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10">
+        <v>1.9792576129579369E-3</v>
+      </c>
+      <c r="C10">
+        <v>2.6569672556738758E-4</v>
+      </c>
+      <c r="D10">
+        <v>3.0627690242832008E-3</v>
+      </c>
+      <c r="E10">
+        <v>5.0527360333687153E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.193976496468537E-4</v>
+      </c>
+      <c r="G10">
+        <v>1.3540166943145131E-2</v>
+      </c>
+      <c r="H10">
+        <v>3.9898816639168883E-3</v>
+      </c>
+      <c r="I10">
+        <v>1.097671876840027E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.96101337557871369</v>
+      </c>
+      <c r="K10">
+        <v>0.96101337557871369</v>
+      </c>
+      <c r="L10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11">
+        <v>9.9968447248599524E-4</v>
+      </c>
+      <c r="C11">
+        <v>1.7017999991140079E-4</v>
+      </c>
+      <c r="D11">
+        <v>6.1353651739435057E-3</v>
+      </c>
+      <c r="E11">
+        <v>1.824308647503449E-3</v>
+      </c>
+      <c r="F11">
+        <v>8.1773365632983801E-5</v>
+      </c>
+      <c r="G11">
+        <v>7.9712243004931172E-3</v>
+      </c>
+      <c r="H11">
+        <v>2.3500489956346371E-5</v>
+      </c>
+      <c r="I11">
+        <v>1.4399963361027919E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.96839400018904531</v>
+      </c>
+      <c r="K11">
+        <v>0.96839400018904531</v>
+      </c>
+      <c r="L11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12">
+        <v>0.16392404724402321</v>
+      </c>
+      <c r="C12">
+        <v>9.299393298528507E-3</v>
+      </c>
+      <c r="D12">
+        <v>4.6719377551418598E-2</v>
+      </c>
+      <c r="E12">
+        <v>3.0572932405400561E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.0410638716524021E-2</v>
+      </c>
+      <c r="G12">
+        <v>4.7415528780837789E-2</v>
+      </c>
+      <c r="H12">
+        <v>3.424281402810828E-3</v>
+      </c>
+      <c r="I12">
+        <v>9.3869350506324029E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.59436445009413252</v>
+      </c>
+      <c r="K12">
+        <v>0.59436445009413252</v>
+      </c>
+      <c r="L12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13">
+        <v>6.5198516909887073E-3</v>
+      </c>
+      <c r="C13">
+        <v>4.0556916286141521E-4</v>
+      </c>
+      <c r="D13">
+        <v>5.9272005608848634E-3</v>
+      </c>
+      <c r="E13">
+        <v>5.9383695132885677E-3</v>
+      </c>
+      <c r="F13">
+        <v>2.8241337782682631E-3</v>
+      </c>
+      <c r="G13">
+        <v>4.4803146693973544E-3</v>
+      </c>
+      <c r="H13">
+        <v>1.4459219090051411E-3</v>
+      </c>
+      <c r="I13">
+        <v>1.1668492026408619E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.96079014668889717</v>
+      </c>
+      <c r="K13">
+        <v>0.96079014668889717</v>
+      </c>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14">
+        <v>2.5683288246648311E-2</v>
+      </c>
+      <c r="C14">
+        <v>5.8167454924229532E-4</v>
+      </c>
+      <c r="D14">
+        <v>9.7437892153477614E-3</v>
+      </c>
+      <c r="E14">
+        <v>1.076506000573918E-2</v>
+      </c>
+      <c r="F14">
+        <v>6.5097836325080519E-3</v>
+      </c>
+      <c r="G14">
+        <v>5.2261243187283993E-2</v>
+      </c>
+      <c r="H14">
+        <v>1.5340596224833129E-4</v>
+      </c>
+      <c r="I14">
+        <v>6.2647342785218621E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.83165441241576343</v>
+      </c>
+      <c r="K14">
+        <v>0.83165441241576343</v>
+      </c>
+      <c r="L14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15">
+        <v>3.7366962220506693E-2</v>
+      </c>
+      <c r="C15">
+        <v>4.9586909529108138E-2</v>
+      </c>
+      <c r="D15">
+        <v>2.549544516785314E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.306002418748948E-2</v>
+      </c>
+      <c r="F15">
+        <v>1.09288152668176E-3</v>
+      </c>
+      <c r="G15">
+        <v>4.2862928543982153E-2</v>
+      </c>
+      <c r="H15">
+        <v>3.945830105682873E-3</v>
+      </c>
+      <c r="I15">
+        <v>0.56051378189981782</v>
+      </c>
+      <c r="J15">
+        <v>0.26607523681887801</v>
+      </c>
+      <c r="K15">
+        <v>0.56051378189981782</v>
+      </c>
+      <c r="L15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16">
+        <v>8.2773426564930808E-2</v>
+      </c>
+      <c r="C16">
+        <v>4.2259419055430576E-3</v>
+      </c>
+      <c r="D16">
+        <v>6.803094195347581E-2</v>
+      </c>
+      <c r="E16">
+        <v>5.34549650066884E-2</v>
+      </c>
+      <c r="F16">
+        <v>8.4954616463531179E-3</v>
+      </c>
+      <c r="G16">
+        <v>6.1515664227105631E-2</v>
+      </c>
+      <c r="H16">
+        <v>4.7081920454977574E-3</v>
+      </c>
+      <c r="I16">
+        <v>7.485966621391453E-2</v>
+      </c>
+      <c r="J16">
+        <v>0.64193574043649082</v>
+      </c>
+      <c r="K16">
+        <v>0.64193574043649082</v>
+      </c>
+      <c r="L16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17">
+        <v>0.13084034420220719</v>
+      </c>
+      <c r="C17">
+        <v>1.5924340721435611E-3</v>
+      </c>
+      <c r="D17">
+        <v>6.3656606373310123E-2</v>
+      </c>
+      <c r="E17">
+        <v>3.5597837584078557E-2</v>
+      </c>
+      <c r="F17">
+        <v>2.0627078245648951E-5</v>
+      </c>
+      <c r="G17">
+        <v>8.2181541150977852E-2</v>
+      </c>
+      <c r="H17">
+        <v>5.0861187770984964E-3</v>
+      </c>
+      <c r="I17">
+        <v>8.742386413307307E-2</v>
+      </c>
+      <c r="J17">
+        <v>0.59360062662886548</v>
+      </c>
+      <c r="K17">
+        <v>0.59360062662886548</v>
+      </c>
+      <c r="L17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18">
+        <v>0.13213364307369721</v>
+      </c>
+      <c r="C18">
+        <v>1.5822610817819739E-3</v>
+      </c>
+      <c r="D18">
+        <v>8.2565983683524566E-3</v>
+      </c>
+      <c r="E18">
+        <v>3.351958884981214E-2</v>
+      </c>
+      <c r="F18">
+        <v>2.0099243676170879E-4</v>
+      </c>
+      <c r="G18">
+        <v>3.2644168825013489E-2</v>
+      </c>
+      <c r="H18">
+        <v>4.5375228417495091E-3</v>
+      </c>
+      <c r="I18">
+        <v>4.2234447891020099E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.74489077663181136</v>
+      </c>
+      <c r="K18">
+        <v>0.74489077663181136</v>
+      </c>
+      <c r="L18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19">
+        <v>5.5394848488230196E-3</v>
+      </c>
+      <c r="C19">
+        <v>1.867439298792478E-4</v>
+      </c>
+      <c r="D19">
+        <v>3.1785560746677099E-3</v>
+      </c>
+      <c r="E19">
+        <v>1.0401446869801779E-2</v>
+      </c>
+      <c r="F19">
+        <v>2.2565634394385062E-5</v>
+      </c>
+      <c r="G19">
+        <v>3.7543262142241351E-2</v>
+      </c>
+      <c r="H19">
+        <v>2.365164515271855E-3</v>
+      </c>
+      <c r="I19">
+        <v>1.8317025135082689E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.92244575084983804</v>
+      </c>
+      <c r="K19">
+        <v>0.92244575084983804</v>
+      </c>
+      <c r="L19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20">
+        <v>2.073501622333892E-3</v>
+      </c>
+      <c r="C20">
+        <v>1.0451595367630011E-4</v>
+      </c>
+      <c r="D20">
+        <v>1.4333152217399931E-4</v>
+      </c>
+      <c r="E20">
+        <v>1.7094725498594559E-4</v>
+      </c>
+      <c r="F20">
+        <v>7.5419666301571884E-6</v>
+      </c>
+      <c r="G20">
+        <v>8.248686041062754E-4</v>
+      </c>
+      <c r="H20">
+        <v>4.2520248786056191E-7</v>
+      </c>
+      <c r="I20">
+        <v>1.852148176691749E-3</v>
+      </c>
+      <c r="J20">
+        <v>0.99482271969691372</v>
+      </c>
+      <c r="K20">
+        <v>0.99482271969691372</v>
+      </c>
+      <c r="L20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21">
+        <v>0.202738545131637</v>
+      </c>
+      <c r="C21">
+        <v>7.1337871689517796E-3</v>
+      </c>
+      <c r="D21">
+        <v>5.4236343033994668E-2</v>
+      </c>
+      <c r="E21">
+        <v>7.5716008263506385E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.13984155180126651</v>
+      </c>
+      <c r="G21">
+        <v>3.3417069347561022E-2</v>
+      </c>
+      <c r="H21">
+        <v>4.3297650691072357E-3</v>
+      </c>
+      <c r="I21">
+        <v>5.1388907972449077E-2</v>
+      </c>
+      <c r="J21">
+        <v>0.43119802221152631</v>
+      </c>
+      <c r="K21">
+        <v>0.43119802221152631</v>
+      </c>
+      <c r="L21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22">
+        <v>4.7948030628275171E-2</v>
+      </c>
+      <c r="C22">
+        <v>2.5466820017812149E-2</v>
+      </c>
+      <c r="D22">
+        <v>3.8409159226249302E-2</v>
+      </c>
+      <c r="E22">
+        <v>1.8096201445464598E-2</v>
+      </c>
+      <c r="F22">
+        <v>3.9531091157308622E-3</v>
+      </c>
+      <c r="G22">
+        <v>2.665958899799592E-2</v>
+      </c>
+      <c r="H22">
+        <v>1.969786448815368E-2</v>
+      </c>
+      <c r="I22">
+        <v>0.1069739346379381</v>
+      </c>
+      <c r="J22">
+        <v>0.71279529144238019</v>
+      </c>
+      <c r="K22">
+        <v>0.71279529144238019</v>
+      </c>
+      <c r="L22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23">
+        <v>0.1241593845595768</v>
+      </c>
+      <c r="C23">
+        <v>3.1467665996969688E-3</v>
+      </c>
+      <c r="D23">
+        <v>2.8705883782246169E-2</v>
+      </c>
+      <c r="E23">
+        <v>1.6893964140191529E-2</v>
+      </c>
+      <c r="F23">
+        <v>1.2432924564316361E-2</v>
+      </c>
+      <c r="G23">
+        <v>5.298453875732239E-2</v>
+      </c>
+      <c r="H23">
+        <v>5.2858718719306442E-3</v>
+      </c>
+      <c r="I23">
+        <v>7.3267791381909281E-2</v>
+      </c>
+      <c r="J23">
+        <v>0.68312287434280983</v>
+      </c>
+      <c r="K23">
+        <v>0.68312287434280983</v>
+      </c>
+      <c r="L23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24">
+        <v>0.25998160651801111</v>
+      </c>
+      <c r="C24">
+        <v>1.8476740727826999E-3</v>
+      </c>
+      <c r="D24">
+        <v>0.1055519354825305</v>
+      </c>
+      <c r="E24">
+        <v>5.7945506038786398E-2</v>
+      </c>
+      <c r="F24">
+        <v>3.0368979922896049E-3</v>
+      </c>
+      <c r="G24">
+        <v>3.6912481017260773E-2</v>
+      </c>
+      <c r="H24">
+        <v>2.7383816758478632E-3</v>
+      </c>
+      <c r="I24">
+        <v>7.689013368545479E-2</v>
+      </c>
+      <c r="J24">
+        <v>0.45509538351703632</v>
+      </c>
+      <c r="K24">
+        <v>0.45509538351703632</v>
+      </c>
+      <c r="L24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25">
+        <v>2.7493746157469339E-2</v>
+      </c>
+      <c r="C25">
+        <v>7.7846092793586728E-4</v>
+      </c>
+      <c r="D25">
+        <v>5.6674915969332192E-3</v>
+      </c>
+      <c r="E25">
+        <v>2.3412494185700409E-2</v>
+      </c>
+      <c r="F25">
+        <v>7.4389283329947555E-4</v>
+      </c>
+      <c r="G25">
+        <v>8.8325607409680939E-3</v>
+      </c>
+      <c r="H25">
+        <v>3.0346019719622379E-4</v>
+      </c>
+      <c r="I25">
+        <v>2.449636003613526E-2</v>
+      </c>
+      <c r="J25">
+        <v>0.90827153332436217</v>
+      </c>
+      <c r="K25">
+        <v>0.90827153332436217</v>
+      </c>
+      <c r="L25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26">
+        <v>1.7159407669273491E-3</v>
+      </c>
+      <c r="C26">
+        <v>2.2616724967977839E-4</v>
+      </c>
+      <c r="D26">
+        <v>2.3493445839752459E-3</v>
+      </c>
+      <c r="E26">
+        <v>2.457742444082128E-3</v>
+      </c>
+      <c r="F26">
+        <v>3.6413726892810502E-5</v>
+      </c>
+      <c r="G26">
+        <v>1.4518271452066781E-2</v>
+      </c>
+      <c r="H26">
+        <v>2.3462584646974561E-4</v>
+      </c>
+      <c r="I26">
+        <v>1.981740630141848E-2</v>
+      </c>
+      <c r="J26">
+        <v>0.95864408762848763</v>
+      </c>
+      <c r="K26">
+        <v>0.95864408762848763</v>
+      </c>
+      <c r="L26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27">
+        <v>1.7248335075225451E-2</v>
+      </c>
+      <c r="C27">
+        <v>1.351509158112691E-2</v>
+      </c>
+      <c r="D27">
+        <v>6.318895452434943E-2</v>
+      </c>
+      <c r="E27">
+        <v>5.7805232441371479E-2</v>
+      </c>
+      <c r="F27">
+        <v>1.3165235543567729E-3</v>
+      </c>
+      <c r="G27">
+        <v>6.367528172326177E-2</v>
+      </c>
+      <c r="H27">
+        <v>8.1451649067821059E-3</v>
+      </c>
+      <c r="I27">
+        <v>5.9624289115655343E-2</v>
+      </c>
+      <c r="J27">
+        <v>0.7154811270778707</v>
+      </c>
+      <c r="K27">
+        <v>0.7154811270778707</v>
+      </c>
+      <c r="L27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K9"/>
@@ -6934,7 +15078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/outputs/o__Bacteroidales.xlsx
+++ b/outputs/o__Bacteroidales.xlsx
@@ -17,6 +17,8 @@
     <sheet name="f__Lachnospiraceae-t-p" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="g__Ruminococcus_E-t-p" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="glv-t" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="f__Atopobiaceae-t" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="f__Bacteroidaceae-t" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -43845,6 +43847,7402 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>RUG440</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.4225309596876972</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-8.956256579921899</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-3.107899589593877</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-3.587063527454807</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-9.315034593765828</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1.916704053950156</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-7.487846011433859</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.442804524855214</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-2.704398086760894</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>hRUG890</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1.678359207519647</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-9.377949553422106</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-8.040748322170977</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-3.951603942163579</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-13.74920637718945</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-2.674106296862795</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-8.395536253760064</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1.677432444719104</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-2.258462036907581</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>RUG836</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-2.043636902010561</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-8.481680994636799</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-6.143577461774035</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-2.979090752171013</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-12.69644158240127</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.5280236882802154</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-6.998484312234041</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-3.038363479678898</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-3.850128595055255</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RUG025</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-3.071070436200745</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-12.83574513467719</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-10.05571210231796</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-3.977913778200551</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-18.06927609818181</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1.177083018601446</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-11.0230233028569</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-2.495323628958371</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-6.622079102724016</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>RUG729</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-4.326283124192989</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-11.72984916251007</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-9.880896794673612</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-3.016988913947237</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-16.49736443304331</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.9144622259201547</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-11.62200145268053</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-3.470907742298889</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-2.043637408593773</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>RUG768</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-5.329916289276611</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-17.94371492962108</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-11.2423225431942</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-2.397770496559078</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-29.96507601716337</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1.638995422311168</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-10.39873672865157</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-3.547015799824369</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-3.225300194307472</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>RUG721</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4.645563082081845</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-13.10947311044894</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-5.893581221642886</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-3.602160959384825</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-24.60208344217282</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.4177931011204887</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-10.39112162266238</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-3.623013071281223</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-3.915056924075131</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>RUG161</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3.296244223655007</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-8.84601381816427</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-6.269222276311271</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-3.613988663841833</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-8.110931286909421</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-2.532707067973681</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-10.70947869193373</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-2.532413924543946</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1.839573292473124</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>RUG077</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-2.940485542563247</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-12.5654066387139</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-8.886159017203104</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-5.677832104763699</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-14.05505932782667</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-2.181422002052196</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-12.62160568780443</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-2.293176217748765</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-2.202323925460509</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>RUG725</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-2.763357446294369</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-12.22426455339383</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-7.445704091909723</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-3.851573330534122</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-16.27105392835184</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.09029856263984065</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-9.752912900983015</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-2.897598288423791</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-1.588050239361281</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>RUG162</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-3.691445556279318</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-11.14441152804798</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-9.247005429397721</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-4.86291167829446</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-14.09646388642739</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-2.770661818389918</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-9.41527942145135</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-2.419021541173187</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.8285497936336013</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>RUG654</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-2.133875483971396</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-12.6535188280881</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-9.080723314920315</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-3.604643199686583</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-13.79724949657119</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-1.378172098913652</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-8.814978170056099</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-3.445041248512382</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.3486513947916438</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>RUG002</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-3.480203846909835</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-10.83137116254664</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-2.086189214785134</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-3.50744965315425</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-13.88376113173146</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-2.687486232771598</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-8.043317347168612</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-3.470768347311846</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-2.120922209395628</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>RUG778</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-1.556690000448204</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-8.505095381727884</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-4.67807925514373</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-3.059176102714386</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-9.340289169235659</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.6355000642039161</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-7.836846612856276</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-2.145335989276663</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-2.399546953987422</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RUG032</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-4.374638974587343</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-11.61668674167146</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-10.44773541235512</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-3.196218553287731</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-10.80238464047314</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-1.428428417990093</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-15.54774724367763</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-2.013321608791878</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.6631288797974608</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>RUG001</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-6.089923761519165</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-14.59082529853645</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-9.352917368449521</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1.80868254188374</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-20.03555989892347</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-1.979639627098587</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-6.916433723469716</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-2.733575287714203</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-2.302692940685756</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>hRUG864</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-4.668613050078565</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-9.242450992826303</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-8.911663414358831</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-4.576671784238431</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-8.125410853174698</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-1.393847558092111</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-9.556359983953037</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-1.099695449966618</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.9666166041051522</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>RUG078</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-4.003591595241659</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-12.27648479522126</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-5.663486664970949</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-3.349019975829871</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-19.82110447627661</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-1.351505272123653</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-12.78809315533971</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-3.337224852191238</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-4.397957084294855</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>RUG004</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-2.159162666002538</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-12.46217253995551</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-12.10785911240566</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-3.342134488048096</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-13.65450115294695</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-1.739011098658528</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-14.65128538573454</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-1.788335621293379</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.1202465905455627</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>RUG014</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-4.723794897416205</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-13.28881221130887</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-9.379958616030482</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-5.063283611212931</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-13.59417808233217</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-1.905484567381036</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-12.78472672873966</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-2.96313921959471</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.3589627568908493</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>RUG804</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-3.27269765842908</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-13.84041935618862</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-9.393862779924953</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-3.183261997991846</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-18.81283652126425</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-1.169250404358466</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-7.927426703234767</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-4.010919345915801</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.019661734373583</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>hRUG891</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-4.545008911608697</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-9.778928062416099</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-7.781132761773737</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-2.771018511506893</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-11.38763726241818</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-2.13430719057707</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-9.79109333949282</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-2.080488005083053</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.8741250056335518</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K165"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>RUG515</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.871734550447004</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-6.464582110823029</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-5.509351917756467</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-2.832735664739837</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-12.44962771993392</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-3.340364468996985</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-7.384879530628423</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.306244937888389</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-6.036084978329153</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>RUG212</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.731301574921139</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-7.958390949519925</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-4.947933636739763</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.913294007269173</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-8.064234637241951</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-4.960024880342556</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-7.139879554669174</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-2.966965599475221</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-7.649890898099448</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>RUG062</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.680683130529765</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-8.159774227444681</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-8.890025352867498</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-2.869811658091757</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-12.0110846883004</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-4.411588419019453</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-6.787283314855318</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-2.177097096054131</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-7.535821472338238</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RUG419</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.353493546186029</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5.070692206066568</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-6.256826493712098</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-2.081430931809391</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-10.39257018024728</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-4.425315107268014</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-9.745588524163548</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-2.450560331705739</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-8.595401123579425</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>hRUG908</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.745286779922245</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-5.291689475718807</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-2.515680858309997</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-3.170800144440487</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-10.92836452408674</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-4.237970505608494</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-6.668926955891081</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-2.09567834776618</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-5.747901627440015</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>RUG459</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.337425663426594</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-7.595771785347947</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-8.817013610123448</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-4.852272518582813</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-12.94760035285747</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-3.52543338104375</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-10.00994246860852</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-2.541578881097928</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-6.808692388976342</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>RUG577</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.078322695039361</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-6.571540516100606</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-4.33693188327705</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-2.362416937753604</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-13.52534584759332</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-3.744597763139971</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-8.770012860363435</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-1.845579097832568</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-7.843624163644717</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>RUG112</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.399763154561627</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5.637438112015262</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-6.319721791815115</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-2.005981815542111</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-6.331386533490026</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-3.663238568361116</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-10.83315406145446</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-2.599944591749469</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-7.390367516217806</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>RUG431</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.545078988525225</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-7.058766885101956</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-7.75610409968343</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-2.964744397399436</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-11.67586174958428</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-4.202969036600481</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-6.319735065368462</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-2.422379522111628</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-7.045592641472465</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>RUG446</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.995200590387416</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-8.986020128827688</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-2.895451529328128</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-2.248509782375026</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-15.37305618135431</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-3.618586307824534</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-10.39686688558546</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-3.132127464884504</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-8.266571303826401</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>RUG318</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.535974209613727</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-5.690848201971902</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-7.754583415063362</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1.771279489396102</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-13.33509192659157</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-4.51544603858803</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-7.365488067475864</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-2.103152887235835</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-9.953796761850871</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>RUG483</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.025639484323553</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-9.583411047045473</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-7.566415830924161</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-2.419329670131357</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-13.12020071827559</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-2.347208482395946</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-8.238534354705948</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-2.617088075841933</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-10.04312674230924</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>RUG838</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.745521716207593</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-7.33165079062865</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-4.201544765023076</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-2.896168388090693</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-10.67711419109017</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-3.498338135794847</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-7.833265193259845</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-2.205057773682368</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-5.318548462205861</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>hRUG906</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.320658328172144</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-8.125565966777122</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.2676931151508597</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1.322565687944857</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-10.07727482450812</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-4.982420427842325</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-7.451277546866386</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-3.111906593873757</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-9.22649399081404</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RUG339</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.15130293586676</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-4.842501767571465</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-6.417198175175049</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-2.866149525886893</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-12.08818757327152</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-3.73329816582973</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-5.416238637805598</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-2.20887917046882</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-5.755854129091759</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>RUG500</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7102678060602167</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-8.464926248626252</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-7.873331655042772</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-2.088533535537556</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-10.25412248851037</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-2.630263475172936</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-7.090928032053362</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-2.067682826138773</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-9.096756467996212</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>RUG273</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.315174748937118</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-8.100824798091981</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-7.94487666845333</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-2.318659626973493</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-7.207754190650858</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-3.567526988246963</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-8.71259911678861</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-2.720507571664335</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-7.923286234946232</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>RUG307</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.893098917285824</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-6.43430757949355</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-5.766016403172556</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-2.642599632196548</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-10.03358280971824</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-3.324591365619234</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-5.93834939612333</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-2.322651368103194</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-5.970753050768639</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>RUG397</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2.643008270830175</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-6.407469594623105</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-5.377566160067571</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-2.139743302020816</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-10.08052432428411</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-3.329646570590819</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-11.94150632875661</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-2.46118581665611</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-6.290110279971779</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>RUG569</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3.140523554772597</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-6.454189050753789</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-8.942219207842994</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-2.587405478643295</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-6.812777056261115</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-4.22130543290505</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-9.067419629515632</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-1.902477255085993</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-6.426677121650703</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>RUG474</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4.434829058875148</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-7.265790688834679</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-2.22870893886532</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-3.969924963888376</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-14.52723873848507</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-4.009117318913249</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-10.11245948580319</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-2.259386050911794</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-11.64094325065936</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>hRUG897</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1.24198839202086</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-6.445338541441331</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-5.494847935310458</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-2.166614721393282</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-7.247459654086514</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-3.266207938097068</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-8.793249729640186</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-2.526152286039908</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-2.646779594665419</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>RUG116</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2.400534798542469</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.771924091422402</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-5.110171534937533</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-2.723956340047821</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-8.191391127499882</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-3.690351332364159</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-6.207034817592241</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-2.032948254790686</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-5.347198798319754</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>RUG367</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.7161487135171019</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-9.647962202792456</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-4.299061053175138</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1.898568866263296</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-12.93272640775415</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-3.397155965062714</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-6.981120964241184</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-2.671031736161942</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-5.042849359840281</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>RUG144</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.894161238732758</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-7.388772586276792</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-5.11390766696789</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-2.765842246785433</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-9.090507472124353</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-3.796714054073548</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-10.26085222010621</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-1.958309866231513</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-6.079018441079087</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>RUG423</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1.543632654762172</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-7.195542621284629</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-6.403901741270976</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-2.475360151734594</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-8.38762185189545</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-4.184740724297315</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-10.53601908973442</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-2.305573387704583</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-6.01915314999199</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>RUG476</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.5709398247133544</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-7.530488291521742</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-2.492049333543831</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-3.676487814621187</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-6.381119391345221</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-2.679867288367584</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-9.137365070726581</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-2.123464175764583</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-2.549910522950994</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>hRUG858</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2.149411416996226</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-8.38896547947375</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-4.989938472583841</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-3.593076479600509</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-10.39962218765141</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-5.327040296375593</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-7.011013527087217</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-2.576876799357193</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-5.983971021895293</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>RUG168</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3.96468817438634</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-4.894095665273835</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-7.782067649072881</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-3.114471136915998</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-7.639405096417196</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-3.295818149508608</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-9.5768948832931</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-1.453161924688949</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-9.169816660009257</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>RUG242</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1.926836543218637</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-4.565783348623636</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-9.620575647338063</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-2.137522263516321</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-9.658149414724182</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-3.870345627831437</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-9.707098733655442</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-2.139586774585523</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-6.270721576804156</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>RUG586</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2.523732973775018</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-6.349273357396616</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-5.851154344863581</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-2.750274959787697</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-6.408865834910104</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-3.958656717769913</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-10.84536850462833</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-2.451723247133611</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-7.282081954844942</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>RUG106</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2.777082458369994</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-6.616529642970205</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-6.39165983522604</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-2.494329486560402</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-5.909453332635922</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-3.686682434126777</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-7.196182534117531</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-2.672127229096895</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-8.083122409718165</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>RUG765</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2.126653543592397</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-5.461916477882061</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-1.437110899796719</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-3.712310460910937</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-7.857051718359013</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-2.737256599818255</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-7.090553962267856</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-2.535350737946907</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-4.033629513573366</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>RUG259</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3.243828127713396</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-5.282684159225828</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-6.446221468719243</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-1.696516787583841</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-8.311376938442194</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-3.901587564671495</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-7.534136721856025</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-2.536260790444377</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-9.056589472067364</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>RUG488</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3.860826761685542</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-5.519569149396995</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-6.462716196468037</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-2.266720029446077</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-9.043737253272585</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-4.054642775228059</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-9.150776276090886</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-2.258836427894733</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-7.642394980344705</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>RUG085</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2.649816228530977</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-5.911950802196835</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-5.032674475504918</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-2.001711164770715</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-5.859131527529368</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-3.044773235954863</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-8.166634594611379</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-2.227552127496757</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-8.577583202395576</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>RUG647</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.402264181782853</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-6.167118971879435</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-6.274681633576457</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-3.027474729875317</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-8.035767301503052</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-4.099616973874558</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-7.90097579245288</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-2.602989934640388</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-7.008592477009653</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>RUG733</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2.658180957631412</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-8.888906109102894</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-9.478379398889883</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-3.422665328498064</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-10.79786292706519</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-3.405219791939219</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-7.924008834766813</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-2.276233588671488</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-5.402098462577774</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>RUG064</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>3.029074183675829</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-7.311733705945068</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-6.730193612771448</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-2.644577124267308</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-4.184874046620462</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-3.756417663810996</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-10.89284261566582</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-2.644391744716291</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-5.42227236519168</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>RUG598</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1.647586339807519</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-6.160560222992882</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-9.067880910113082</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-2.172984933414375</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-11.51672014868327</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-3.215864083811375</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-6.462483626440802</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-2.672493997799948</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-4.657177390687327</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>RUG022</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2.353882500807869</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-5.29932764548515</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-6.924467361629494</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-2.298054763519919</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-7.624062511143609</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-3.496289328719024</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-6.249248416886989</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-2.260792954787283</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-6.841805054351628</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>RUG849</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3.211113182674739</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-5.562375821306249</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-6.001179829093024</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-3.531643229148102</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-8.728075074117523</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-2.925547641145383</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-13.1494524531333</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-2.281369509554051</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-7.103999446167318</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>RUG216</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.004357273701198</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-9.800448465914357</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-3.211112340889553</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-2.31725362760435</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-8.291342396218885</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-3.476369677040714</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-13.70149399636941</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-4.007135154646745</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-7.101272730193539</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>hRUG893</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>4.013900964435636</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-4.366590772394287</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-7.73463615296289</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-2.195601303488843</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-6.202974559380248</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-2.199511427570468</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-8.25171997194467</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-2.463396296280993</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-8.045950325452756</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>RUG200</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1.850854137495993</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-6.899156032295885</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-6.99481117779905</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-2.336478941203004</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-11.10508654238492</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-3.479450622488421</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-8.371283705371235</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-3.278165034482028</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-6.977496524511579</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>RUG309</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>3.558906458602197</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-5.604204412900109</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-6.158419135030502</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-2.684391994866215</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-9.607358532528036</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-3.880773302374675</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-9.087887430952582</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-2.25249706057516</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-8.731645132642072</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>RUG550</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2.912061179560517</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-3.832296461327553</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-3.913462099123927</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-1.940921718918138</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-6.828453788053118</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-2.854350112865151</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-8.224254066239048</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-2.361156108924132</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-6.202281518541069</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>RUG782</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3.76135220261161</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-7.410917349419615</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-6.152254654697222</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-2.626850783293557</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-10.41883346092501</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-3.812437423477176</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-13.76504965956102</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-2.125994650681207</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-6.904348407039947</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>RUG003</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2.68265064632195</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-5.070255932354497</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-4.297320599610535</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-2.194584454683294</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-7.945301573830871</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-4.239715404836216</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-10.15181084052201</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-2.762924705534228</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-7.206194169349442</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>RUG535</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>3.113125602535667</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-5.648141564937541</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-5.978840894024357</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-1.602898537035042</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-8.093126905727713</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-3.486382948480244</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-7.311007234519588</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-2.223859826577126</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-8.156548560585511</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>RUG315</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3.78584194075511</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-6.702920548300471</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-4.814654443546562</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-3.465284676554415</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-12.94447739574131</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-4.139044685499313</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-10.44157850030839</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-2.140101012685511</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-8.579782422461621</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>RUG108</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.192923285366654</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-5.225870715330093</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-7.647541630914229</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-2.829652832212</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-7.493072930072187</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-3.653590954057421</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-6.047045738000533</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-2.328284944978476</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-6.216567187125023</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>RUG541</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2.9708820501486</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-5.385034715603378</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-5.384995302737019</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-2.148388213454159</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-4.447127219453781</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-3.693931588656424</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-9.380243455447244</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-1.881607608807135</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-7.240448770236259</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>RUG461</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>4.834128040485004</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-6.384126155793382</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-7.180996410659508</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-2.934345761877105</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-7.837992961257499</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-3.524979099588643</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-9.383871436971171</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-1.885142776111952</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-8.841657774211187</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>RUG546</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2.671692310011232</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-5.918681978023175</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-6.043814479004439</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-2.14713105213519</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-12.24538405838556</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-3.514422979987182</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-4.584465652920469</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-2.4970350039146</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-7.676373662183432</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>RUG195</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1.348297997992111</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-3.56841550902978</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-4.601022591670673</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-2.284000739031882</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-5.667137927779249</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-3.03889747027091</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-5.548495268404891</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-1.375425412418321</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-5.810318247427062</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>RUG660</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>3.084978538583723</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-5.948966411219239</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-7.609629980516657</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-2.602276144495298</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-7.577566170668111</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-3.457094178741566</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-8.078519159420283</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-2.701979743332243</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-6.469299218397591</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>RUG280</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1.512489094237109</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-6.939463759515314</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-3.008326211551527</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-2.226316295828488</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-13.68656060404375</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-3.646270905895541</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-10.69637500634128</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-2.569466163727796</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-8.537312213951168</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>RUG614</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3.214291809714689</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-7.511132808085614</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-5.57745393885888</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-3.827484413708481</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-9.704254250206219</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-2.578964746799768</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-8.527459388429559</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-3.053473349859842</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-6.688878695793814</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>RUG742</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2.884910986591621</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-5.54138205262063</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-6.345934254462374</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-1.794077820097857</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-8.879843992273894</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-3.50757321049096</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-5.592859853375257</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-2.546188350028646</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-8.807323662455754</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>RUG457</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3.283493410334778</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-5.635284124029529</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-6.15880854112149</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-2.705391914535219</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-8.779840671780377</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-3.065264187999827</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-12.20827888315807</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-1.817425416495533</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-8.472014416988106</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>RUG036</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2.156407370710055</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-5.911954302714292</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-10.5596179975413</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-3.078630630334087</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-7.703865147589561</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-2.786316097348746</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-8.112247775038776</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-2.057207100372276</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-7.161622118902995</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>RUG046</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1.599670879923093</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-5.17896232526893</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-5.369827909205015</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-2.065925760677001</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-3.543601858800822</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-3.499708670380199</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-6.773973236975388</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-2.073908119691088</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-5.70871781921343</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>RUG445</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>4.281788683874502</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-7.621174855165642</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-9.001043549725583</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-3.288973132320756</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-12.4797104904231</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-3.906018017348681</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-9.778675343001915</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-1.550910358214826</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-7.911124708285222</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>RUG435</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3.43187736055182</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-4.852248393164851</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-5.115548142118771</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-2.093070032484592</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-9.090522147243096</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-3.057930497090376</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-10.39526971774694</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-2.388150242943785</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-7.284077229692247</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>RUG828</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>3.524029479807052</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-4.637453446825937</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-6.337810816870252</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-2.747958792113107</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-4.723507558716863</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-3.001155167720182</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-5.507178811114676</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-1.827389766532754</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-7.789397600842809</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>RUG172</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>4.185934775511142</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-6.538937114805923</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-9.285958736233546</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-2.845305715733917</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-13.03698047173014</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-4.300832030737526</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-6.213931640902033</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-2.322186116999615</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-8.879011774542414</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>RUG589</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>5.1243011371413</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-6.243702287158766</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-6.866704634238262</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-3.166552022144817</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-6.841801505492072</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-3.779237867573773</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-10.49449376638804</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-2.629063652210736</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-8.302237609031939</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>RUG169</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2.239144202253175</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-5.359449959567411</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-6.396472751176818</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-1.856354251857048</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-6.447619070138598</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-3.962287665323873</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-7.204089799136369</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-3.058693350669117</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-6.522259595300055</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>RUG030</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>5.090091967386797</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-6.041585481517062</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-5.765793258836474</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-4.387841149094205</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-15.07703017264323</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-3.615211925277132</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-8.529589339836017</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-2.305229066051325</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-4.971543945180551</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>RUG301</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>-0.3016796243739015</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-3.069446838745773</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-5.70424291908824</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-2.537163743902759</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-4.880985423960731</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-2.342473176460444</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-4.591996901836564</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-1.347712549476792</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-5.969728070800565</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>hRUG878</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2.526134801456257</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-7.575330942956351</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-4.306365101533451</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-3.278261064641239</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-12.58983494904714</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-5.220631930366311</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-11.32787711940885</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-2.726597577433351</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-4.912076096659416</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>RUG037</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2.427258821639652</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-5.012489881611916</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-7.627627849637721</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-2.023608300997353</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-6.123768356726552</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-3.663345642554537</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-7.631531693785235</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-2.374934773502735</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-8.575710487353371</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>RUG711</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>3.212782339600383</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-5.373641381797861</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-5.680714447729955</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-2.352843588814197</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-8.551198905250278</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-3.726506604478026</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-12.53376013967456</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-2.85474738463775</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-6.604455684018661</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>RUG788</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2.540180967381629</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-5.774640776737121</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-9.41270842923244</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-3.596957228020968</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-9.23538589114386</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-3.18538077067721</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-9.393587398123692</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-1.550212044810512</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-6.353295016412291</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>RUG210</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>3.107890781783977</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-5.157849553660852</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-2.955225845792891</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-3.603926147680186</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-7.828464014565386</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-3.448025950597291</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-9.24202142597899</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-2.427613613405903</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-9.67723910957141</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>RUG176</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>5.047142600763311</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-7.68725088390413</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-4.356685944413381</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-3.60261005083369</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-8.591269767687335</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-4.373388254882898</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-11.55834255449245</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-2.622144866912369</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-7.437480038230123</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>RUG047</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2.342724066103049</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-5.267020010536291</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-7.653709047098644</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-4.030515809556769</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-9.943838171484407</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-3.194508108767282</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-8.074293148990201</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-1.919000961200351</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-4.782923576644087</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>RUG310</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>3.120832348485084</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-7.684799723243979</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-6.192189298784482</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-3.787970236144795</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-7.389166300527778</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-3.842272756729944</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-8.653887506124864</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-2.783528564733146</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-9.302648119450192</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>RUG405</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2.978894497016864</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-4.281242007367879</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-6.774949977450411</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-1.822908913930597</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-8.133132824969142</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-3.943764299478203</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-5.973850236873142</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-2.242412943781348</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-6.440338437106147</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>hRUG883</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2.103583691179451</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-4.00714966603442</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-2.5093517417649</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-2.591471258097962</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-7.349894766536589</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-2.801021201267158</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-10.42634798746223</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-1.457938488133519</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-5.523743039430914</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>hRUG905</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5143555729784477</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-6.794494950181468</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-3.934667128597105</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-2.732335438678398</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-4.604865474328236</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-3.967587748288535</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-5.943306244099467</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-2.227612188827451</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-5.079548384199608</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>RUG192</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1.66995764367688</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-9.691236931748172</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-6.027842692315876</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-1.61529602515054</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-15.07285853538983</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-3.986907927702317</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-6.042419604560316</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-2.503259898294065</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-10.18950029258674</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>RUG697</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2.793196639583941</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-8.77936694426951</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-1.102126286572087</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-3.469069209515485</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-13.14765050379773</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-3.835911328708484</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-10.1506668714445</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-2.637565254833966</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-11.47625727098528</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>RUG562</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>5.006870293897398</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-10.34226833487933</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-3.568449929616599</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-4.167824222174324</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-16.0272818478887</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-4.637596709976771</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-11.93586819775346</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-2.74891964116224</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-11.27064984519997</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>RUG292</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1.002808824673331</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-6.797108227147987</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-3.678669670078563</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-2.772261829228181</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-9.707955038556635</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-3.032959796296671</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-13.14247579182679</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-3.4964241371635</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-10.65717980848263</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>RUG376</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1.611541733546852</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-5.118564885773907</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-5.886754812452281</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-1.625919353021607</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-7.428693572906845</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-2.756386868852914</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-6.518823169499135</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-1.421541357441146</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-6.768992128570671</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>RUG070</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2.793230293692731</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-7.107491741308242</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-5.050213476978171</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-3.967718381733</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-7.016545379604004</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-3.244986758744895</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-9.938439684614972</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-2.341231629715722</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-5.383159200599299</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>RUG473</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2.310390178306423</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-6.911609532508526</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-7.555913102587237</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-3.646294097191612</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-9.972469326230247</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-3.085732971356661</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-10.19439852870595</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-2.03111001222773</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-5.723332615921197</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>RUG302</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>3.163264241388154</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-5.92948712297245</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-6.945529332495413</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-2.145725884947589</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-6.436199894759307</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-4.030829413999871</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-5.837753935025741</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-2.458907893976532</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-7.332645852264211</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>RUG233</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1.649446230849698</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-8.750122406795889</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-4.068043914363673</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-3.020609259135759</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-16.52095241003681</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-4.316076302424319</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-8.097227348419267</v>
+      </c>
+      <c r="I92" t="n">
+        <v>-3.325273532718128</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-8.998400409019101</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>RUG232</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1.735085462238004</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-5.6545011674641</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-4.346468476685969</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-2.529230974266873</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-8.691038469913211</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-3.548097575630765</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-4.918279159273394</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-2.37589080139277</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-7.27874547382335</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>RUG207</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1.992958088059931</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-4.604447595619846</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-7.547519522366685</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-3.411077130318029</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-10.29767201158101</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-4.271251131871333</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-5.949919974375246</v>
+      </c>
+      <c r="I94" t="n">
+        <v>-2.588029585422765</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1.408267055738655</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>RUG143</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.5363178391119962</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-5.20638672713158</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-5.330936489857421</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-3.232608875672812</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-4.366213299380784</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-2.733568977851082</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-5.905024283235812</v>
+      </c>
+      <c r="I95" t="n">
+        <v>-1.901596080280054</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-4.643940719256897</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>RUG219</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>3.552741683411627</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-5.636684396972051</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-6.096666369812104</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-2.476312202566703</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-3.914086725025765</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-2.880521357733367</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-9.159165997013575</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-2.978277179914198</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-8.162883911801858</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>RUG139</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2.622671937743817</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-6.893241660559357</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-5.335189228029072</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-1.940035552739651</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-5.34453588611097</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-3.893295471670212</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-5.506734324448042</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-2.590149950606314</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-7.873174724015253</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>RUG086</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1.586966112534663</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-4.716928727680357</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-6.595703599398084</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-2.355066372356876</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-6.185700193497789</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-3.072268405301117</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-10.20762563333821</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-3.126756091059782</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-8.600128507177283</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>RUG582</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>4.274376496825042</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-10.4131260057624</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-3.297634576484023</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-4.084090482820156</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-16.28053124087896</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-4.330684827046082</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-12.39001920208174</v>
+      </c>
+      <c r="I99" t="n">
+        <v>-2.909322400592719</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-9.131189466523207</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>RUG418</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>3.424659054356</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-6.732934585826738</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-6.636822715081751</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-2.996188957553731</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-3.891509909202532</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-3.653320215884188</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-10.97743324482894</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-2.176568838622593</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-7.216736432608216</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>RUG685</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1.892785353483097</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-6.026197478573012</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-6.769442322390522</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-2.49333650612909</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-10.71874489449583</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-3.899598720043451</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-5.504980355366522</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-2.515620437357344</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-6.862675237854436</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>RUG759</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>2.895875527026992</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-7.69833672636481</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-4.392600109505777</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-3.254367048408947</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-13.46203450503027</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-4.253293663934</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-11.9320366831672</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-2.730051961956659</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-5.662415826222491</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>RUG691</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1.410049909127565</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-7.203829781345013</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-4.682928657913642</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-3.455253657653262</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-2.381788269040382</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-2.955629673531964</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-7.838768869904402</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-2.282787796894311</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-8.019739926142345</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>RUG383</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1.319407013945224</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-6.416798933991154</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-7.38884642598994</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-4.328034582165138</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-8.194696282740466</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-3.807214448766767</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-8.418453858411063</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-2.259386850906492</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-2.965927910603831</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>RUG056</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.2234841334916453</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-8.143356796709948</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-1.934064254155668</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0.6978551001771818</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-10.85327161318943</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-5.25517803349638</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-10.40701121230362</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-2.860411958741797</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-8.211268794027179</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>RUG124</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>2.129472453981853</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-5.229075016381039</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-7.121288079365593</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-1.951828984089395</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-4.919389984424193</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-3.683568305677493</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-6.741998412665943</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-2.713415482489104</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-9.499136747714413</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>RUG160</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.9760426263533456</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-2.796331948772956</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-2.420312872180118</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-3.089770224740207</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-7.449046889542052</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-2.473621974652367</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-5.615024069242491</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-2.391934717526484</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-5.704547431318963</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>RUG624</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>3.256776550226538</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-5.373684251001197</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-3.570574456127596</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-1.365268215371724</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-7.568370751394834</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-4.013562792935556</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-8.858270326689237</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-2.390328711533686</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-12.51667653543761</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>RUG209</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>2.373918619794576</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-5.124151903162401</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-3.312545118854706</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-2.678468213825325</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-8.663605452237183</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-3.60965952287516</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-9.909455869369877</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-2.482348024383661</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-8.203317640564345</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>RUG812</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.2674224989459609</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-4.347160747712617</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-5.32480283761593</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-1.771503326400083</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-5.880528999497436</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-2.984922663359136</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-8.064020775805723</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-2.216940081634553</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-8.267901638481757</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>RUG602</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>3.1544566822198</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-7.515913078491354</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-2.246585118675542</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-3.356504250013736</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-14.68740448053593</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-3.505188889157915</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-12.95086929682993</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-3.096889228519176</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-9.603812373152678</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>RUG751</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1.937916636149872</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-5.779891775009215</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-7.722663972273271</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-3.47845469023336</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-7.499288913088708</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-2.942939640617324</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-10.00049972322114</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-2.951396368454712</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-6.807274370029878</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>RUG101</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1.449096141597608</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-6.07078127534905</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-5.324386281000994</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-2.908387428574311</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-5.633785557751902</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-4.937714489222476</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-8.804493676714262</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-2.466872858670949</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-7.0711536881571</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>RUG693</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>3.346797997390937</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-3.165615566325818</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-6.55161010252798</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-2.697081406020978</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-5.17756772336051</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-3.154748619628225</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-7.942490471549426</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-2.251225128389902</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-6.817063337206285</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>RUG749</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>3.475793522898947</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-6.346907008582475</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-6.070997850728206</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-1.786661766318176</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-5.926677905915128</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-4.161705409866337</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-13.46981025801512</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-2.332895420521368</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-8.338805343460381</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>RUG107</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>3.47089533708833</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-6.79876045977232</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-3.811463587477887</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-1.773934236189925</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-11.16913317191862</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-3.071892804981594</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-8.762544324259757</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-1.99761663453842</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-9.402253040466141</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>RUG063</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>3.219198624125542</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-5.421188838515504</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-6.616050774033736</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-2.584582344263541</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-8.733462209528014</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-3.565746967809352</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-6.062714502031814</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-2.786415461309611</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-8.296740212555209</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>RUG178</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>3.28624650658272</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-8.294616767394327</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-3.937508539124293</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-3.489175835760282</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-16.07801142991043</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-4.067557423500284</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-10.26781971318309</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-2.417762030116598</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-7.830582501053783</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>RUG414</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>5.009911257730126</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-6.182552111816961</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-6.731575018405534</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-3.340332409205809</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-13.18423127351872</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-4.173140514711756</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-11.44123501380209</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-2.80708418773576</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-10.84577696146627</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>RUG058</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1.155816196574419</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-7.877050303646959</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-6.151997474271694</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-1.75814057641516</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-15.8560215284563</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-3.951572962424951</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-9.884545205969516</v>
+      </c>
+      <c r="I120" t="n">
+        <v>-3.155603754944779</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-8.526116162538015</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>RUG771</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>3.082423797281934</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-7.001149733915396</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-5.835192845626073</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-1.949431477734129</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-9.642703453944977</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-3.346220083990038</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-6.650133846703013</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-2.15462217525955</v>
+      </c>
+      <c r="J121" t="n">
+        <v>-6.348949784537182</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>RUG837</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>2.76575404694607</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-7.105880640461239</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-7.589344263912922</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-3.339754678379901</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-7.291326982958075</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-3.662363282418921</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-9.403394988868916</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-2.397965334837192</v>
+      </c>
+      <c r="J122" t="n">
+        <v>-6.225326387544807</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>RUG657</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.549356846028537</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-6.864894951814491</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-5.332375094704431</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-3.364960313675621</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-4.664661884099581</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-2.02430066658394</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-6.478404641771027</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-2.239864601665548</v>
+      </c>
+      <c r="J123" t="n">
+        <v>-2.269526684311706</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>RUG174</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.2885882185848639</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-3.11320954052874</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-2.736575221058159</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-2.754266445625586</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-2.034025046494124</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-3.211240030660701</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-3.019348815058893</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-1.971315071203263</v>
+      </c>
+      <c r="J124" t="n">
+        <v>-2.482389099063019</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>RUG355</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1.24801056703114</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-4.364827691500305</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-7.647836913945323</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-1.868355632856818</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-5.580382260131622</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-3.87912499031179</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-8.333697395072058</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-2.704075518504337</v>
+      </c>
+      <c r="J125" t="n">
+        <v>-8.003708163087692</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>RUG827</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1.220100616294526</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-9.575167365191312</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-2.973469151092903</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-2.557100411633217</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-18.60449074137204</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-3.783410293554187</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-13.60500293251822</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-3.432270310175625</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-7.093777783739402</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>RUG795</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.9007004139669068</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-6.332998408189672</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-6.21721771194612</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-3.10505584205999</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-5.451120029711212</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-2.674119631744186</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-6.425323478158927</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-1.930497787887919</v>
+      </c>
+      <c r="J127" t="n">
+        <v>-1.978499804027922</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>RUG843</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1.646368263832994</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-8.613628957933994</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-3.051214809753656</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-2.695779580048535</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-13.25300734818369</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-3.367128215262944</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-9.575370406319658</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-3.06104410413108</v>
+      </c>
+      <c r="J128" t="n">
+        <v>-7.474163445844813</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>RUG689</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>2.003892052114062</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-7.257100156497049</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-7.779166512252263</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-2.401860984790456</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-4.23417372504287</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-3.277319924054577</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-6.407817653638888</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-2.31934692997037</v>
+      </c>
+      <c r="J129" t="n">
+        <v>-7.203349008124322</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>RUG126</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>2.02374592004629</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-5.95585227831717</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-4.207262018715303</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-3.166002352011568</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-7.676945094412804</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-2.925699986472253</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-8.239983440818872</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-2.642991116937738</v>
+      </c>
+      <c r="J130" t="n">
+        <v>-6.352425414577408</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>RUG451</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1.091786796140731</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-7.729562734849979</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-2.606628120071666</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-2.76874788032191</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-11.35498712801108</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-3.761322144576901</v>
+      </c>
+      <c r="H131" t="n">
+        <v>-13.04228377511681</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-3.175308723773773</v>
+      </c>
+      <c r="J131" t="n">
+        <v>-8.261445443995822</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>RUG536</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.4560937785548366</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-5.516689153058069</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-5.693868556772706</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-1.942675378359326</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-3.013867064541721</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-3.07016454596185</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-6.734387220732629</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-1.868489594473679</v>
+      </c>
+      <c r="J132" t="n">
+        <v>-6.616922134499447</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>RUG606</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1.771159358067339</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-7.517999742474196</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-9.377137174760533</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-3.165154826217545</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-4.06012259449877</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-3.785369074715915</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-6.370759810118034</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-1.483353585425745</v>
+      </c>
+      <c r="J133" t="n">
+        <v>-4.490035547884312</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>RUG766</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>2.645444157575145</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-6.426190530418536</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-5.879581891952236</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-3.319184329600309</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-6.645718649743904</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-3.123463649462459</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-6.987586010375495</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-1.995319731323124</v>
+      </c>
+      <c r="J134" t="n">
+        <v>-6.650636223884365</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>RUG059</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2.883455434138161</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-5.328500420942738</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-4.724667757775738</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-3.20313423507339</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-12.01279417355334</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-2.825177798423756</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-6.931816769315044</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-1.869831576842741</v>
+      </c>
+      <c r="J135" t="n">
+        <v>-6.308355581979475</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>RUG753</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1.210384871173954</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-4.396006657289794</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-2.243122062459781</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-2.027739583374483</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-6.894983693353224</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-3.607292093232983</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-6.734681706220338</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-1.474721203100774</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-4.319918237820032</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>RUG744</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>2.358913243535367</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-5.675873555052096</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-5.73327936081757</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-2.157863362172153</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-7.865624808407547</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-4.105939180151659</v>
+      </c>
+      <c r="H137" t="n">
+        <v>-8.759100707918611</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-2.185925952523767</v>
+      </c>
+      <c r="J137" t="n">
+        <v>-7.716536627652243</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>RUG450</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>-0.3551632859011532</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-6.911772199825358</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-3.112779626744698</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-3.630498914153258</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-10.33090733145015</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-2.907590424262358</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-5.26720231277666</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-2.134303389839971</v>
+      </c>
+      <c r="J138" t="n">
+        <v>-2.592648677892308</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>RUG071</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>2.344341028607798</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-3.756330470295488</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-3.972081873345022</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-2.28561311978074</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-6.192574598061233</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-3.283600583471107</v>
+      </c>
+      <c r="H139" t="n">
+        <v>-7.529807528989693</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-1.843579035936705</v>
+      </c>
+      <c r="J139" t="n">
+        <v>-7.677787786028617</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>RUG295</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>2.285009792335702</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-8.514799130949616</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-3.420456115781377</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-2.800635113534442</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-11.02047305816106</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-3.350465733211538</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-9.212648133820201</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-2.253311826909156</v>
+      </c>
+      <c r="J140" t="n">
+        <v>-4.335143932021894</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>RUG620</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>3.135379774971506</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-5.368547567589403</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-6.123411764481734</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-2.807327562476454</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-9.82225854750712</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-4.12894399513424</v>
+      </c>
+      <c r="H141" t="n">
+        <v>-12.36177677924284</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-1.9740228738652</v>
+      </c>
+      <c r="J141" t="n">
+        <v>-8.45635408020315</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>RUG785</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>4.290524291722506</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-6.127493471770949</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-8.046735109542855</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-2.426911438516989</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-12.03796385771727</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-4.168919630757871</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-8.985610855623751</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-2.497161918255056</v>
+      </c>
+      <c r="J142" t="n">
+        <v>-9.344992938181445</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>hRUG879</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.5944200497914727</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-3.072897419350129</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-6.260376100181194</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-3.548380305011147</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-4.298644336497094</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-2.054964486105759</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-5.912710801174389</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-1.549526508244623</v>
+      </c>
+      <c r="J143" t="n">
+        <v>-2.649065848342922</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>RUG249</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>3.216334596525124</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-5.14911783544866</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-7.926426272758451</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-2.350898265540236</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-11.01806346785287</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-3.637378706126672</v>
+      </c>
+      <c r="H144" t="n">
+        <v>-11.3416662078816</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-1.977701224363129</v>
+      </c>
+      <c r="J144" t="n">
+        <v>-4.540794761434396</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>RUG668</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>3.215109727659984</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-5.252216347149418</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-5.88181351982388</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-2.326442861093496</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-9.161011148649566</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-3.472225200911827</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-6.213295455660528</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-2.634478934513698</v>
+      </c>
+      <c r="J145" t="n">
+        <v>-8.374276563235016</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>RUG430</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>3.758648423273287</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-5.374842945676908</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-4.282321324290962</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-2.814657282825359</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-13.91074502215163</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-4.693166516682009</v>
+      </c>
+      <c r="H146" t="n">
+        <v>-10.34768880238053</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-2.144399060035456</v>
+      </c>
+      <c r="J146" t="n">
+        <v>-7.445218504939064</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>RUG424</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>2.4275232772185</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-7.074205456079579</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-6.90735504349493</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-2.190163798207567</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-9.877269440148879</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-3.495437919702886</v>
+      </c>
+      <c r="H147" t="n">
+        <v>-8.47028679676111</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-1.767037078186646</v>
+      </c>
+      <c r="J147" t="n">
+        <v>-8.635938695406001</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>RUG224</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>2.635421381749142</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-4.933861784513272</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-7.767316231538185</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-1.435871929010571</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-7.695229090042518</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-3.536197704788872</v>
+      </c>
+      <c r="H148" t="n">
+        <v>-7.414120504819032</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-2.770259731004183</v>
+      </c>
+      <c r="J148" t="n">
+        <v>-7.974413471120436</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>RUG443</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>2.866025211269011</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-6.386124546726232</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-8.216724489782361</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-4.069590800194726</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-12.96517257195192</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-3.114200797730131</v>
+      </c>
+      <c r="H149" t="n">
+        <v>-7.304986777444803</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-2.753297163549405</v>
+      </c>
+      <c r="J149" t="n">
+        <v>-6.44512246198415</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>RUG136</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>3.172951000411119</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-5.018784341350301</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-6.486755252609027</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-2.859286869420588</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-9.301399637376511</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-4.669455239822915</v>
+      </c>
+      <c r="H150" t="n">
+        <v>-8.885663061865673</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-1.545003556053632</v>
+      </c>
+      <c r="J150" t="n">
+        <v>-7.425874040255635</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>RUG599</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>4.161983687856916</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-6.514783150353533</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-6.235720408233405</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-3.596383702288605</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-6.840006732890123</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-3.773769189820704</v>
+      </c>
+      <c r="H151" t="n">
+        <v>-9.84948721863133</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-1.743289604643129</v>
+      </c>
+      <c r="J151" t="n">
+        <v>-9.150601407994239</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>hRUG913</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>2.219196987891447</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-5.335302891526102</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-5.544050630084677</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-2.883912902188321</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-6.420668475441672</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-2.933314337031528</v>
+      </c>
+      <c r="H152" t="n">
+        <v>-6.936373628830761</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-2.32749048001434</v>
+      </c>
+      <c r="J152" t="n">
+        <v>-6.244486105249131</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>RUG204</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>2.839368035038383</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-6.331367682490998</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-6.043515153853837</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-2.060596657648277</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-7.891670797531514</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-2.678449944129107</v>
+      </c>
+      <c r="H153" t="n">
+        <v>-11.63341326265952</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-2.051646652966385</v>
+      </c>
+      <c r="J153" t="n">
+        <v>-8.054903741703161</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>RUG786</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1.263678551893747</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-5.718473733063002</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-4.004183070703029</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-2.607896313783125</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-6.279331399546543</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-3.532736623239855</v>
+      </c>
+      <c r="H154" t="n">
+        <v>-10.95417474811869</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-1.8382909485782</v>
+      </c>
+      <c r="J154" t="n">
+        <v>-9.170659035345956</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>RUG533</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1.727097859919074</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-6.509652954397253</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-7.17154752152895</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-2.136304994782277</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-6.573645073992519</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-3.208278284447809</v>
+      </c>
+      <c r="H155" t="n">
+        <v>-6.008819591102408</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-2.158267607397196</v>
+      </c>
+      <c r="J155" t="n">
+        <v>-6.300326622001752</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>RUG413</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>3.816270019355</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-10.29270000308861</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-4.179459541692021</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-3.566946195350111</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-14.94704794438091</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-3.969908054770286</v>
+      </c>
+      <c r="H156" t="n">
+        <v>-11.62244388739254</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-2.671884034518798</v>
+      </c>
+      <c r="J156" t="n">
+        <v>-10.33235943705877</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>RUG839</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>3.804470195487359</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-6.134112567632668</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-6.014949964550331</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-2.918821323419384</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-8.857767566806102</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-3.435822173338748</v>
+      </c>
+      <c r="H157" t="n">
+        <v>-9.345551084845688</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-2.877009792200264</v>
+      </c>
+      <c r="J157" t="n">
+        <v>-7.845391936098888</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>RUG403</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>2.396018903430726</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-5.26497052804006</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-5.304690011023184</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-2.498210871480952</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-9.378123081018654</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-3.680774187624345</v>
+      </c>
+      <c r="H158" t="n">
+        <v>-4.860415037723432</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-2.111477773527914</v>
+      </c>
+      <c r="J158" t="n">
+        <v>-4.534610997440196</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>RUG137</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1.613502400155687</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-8.623345844471933</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-5.448057787860103</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-2.066631320486227</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-15.36810110201465</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-4.087873759469095</v>
+      </c>
+      <c r="H159" t="n">
+        <v>-10.92183417834398</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-3.100478370857886</v>
+      </c>
+      <c r="J159" t="n">
+        <v>-8.276357298730661</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>RUG504</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1.665006352682881</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-6.077831233276611</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-5.089862404776018</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-3.074156064551945</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-9.293845012879972</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-2.723460787445645</v>
+      </c>
+      <c r="H160" t="n">
+        <v>-10.60597973446793</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-2.59624551285938</v>
+      </c>
+      <c r="J160" t="n">
+        <v>-3.805297047999129</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>RUG571</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>3.934527224812242</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-8.650870915181267</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-8.543857794596002</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-2.639462217246149</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-9.407884527614028</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-3.527354456839475</v>
+      </c>
+      <c r="H161" t="n">
+        <v>-10.94800339573872</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-2.801525480717498</v>
+      </c>
+      <c r="J161" t="n">
+        <v>-9.236160371495879</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>RUG317</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>3.426673445311051</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-6.103659478830197</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-6.167954902145727</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-2.834692379119538</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-9.356957382301895</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-4.184065964646312</v>
+      </c>
+      <c r="H162" t="n">
+        <v>-10.25111840653319</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-2.003939830874596</v>
+      </c>
+      <c r="J162" t="n">
+        <v>-7.364306425699442</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>RUG815</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1.55789760901752</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-8.027493569519207</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-8.177825870867396</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-2.672199052140305</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-5.317812918070344</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-2.797596405314775</v>
+      </c>
+      <c r="H163" t="n">
+        <v>-7.00796360965795</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-2.024760249285887</v>
+      </c>
+      <c r="J163" t="n">
+        <v>-5.734165316243035</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>RUG069</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1.8034304333123</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-5.499963386493032</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-3.04955665277384</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-2.945745223846617</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-10.49549294867158</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-3.26696573148271</v>
+      </c>
+      <c r="H164" t="n">
+        <v>-6.833325405606996</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-2.599097364544479</v>
+      </c>
+      <c r="J164" t="n">
+        <v>-6.626969540508401</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>RUG073</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1.813457749357509</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-8.197359438348048</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-4.467173166995668</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-2.379732903044907</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-7.248018054536651</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-3.837426856182618</v>
+      </c>
+      <c r="H165" t="n">
+        <v>-13.54203649082837</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-2.715081802845142</v>
+      </c>
+      <c r="J165" t="n">
+        <v>-9.464260534389551</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/outputs/o__Bacteroidales.xlsx
+++ b/outputs/o__Bacteroidales.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="9" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15900" windowWidth="28800" xWindow="0" yWindow="460"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" tabRatio="600" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="g__Prevotella-t" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="glv-t" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="f__Atopobiaceae-t" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="f__Bacteroidaceae-t" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="f__Bacteroidaceae-t-p" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -86,21 +87,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -5475,7 +5476,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -8282,7 +8283,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -43843,7 +43844,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -44772,7 +44773,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -51239,7 +51240,7796 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M165"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>RUG515</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9697807632613132</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002324112998949567</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0006040994516763619</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.008781083570321488</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.847698296849171e-07</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00528552001635712</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9.259278534742735e-05</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.01486620536118691</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.000356739484072684</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9697807632613132</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>RUG212</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9861833672388041</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.24637986075554e-05</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0004559405259517692</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.00948059166228005</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.020765261440237e-05</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0004504608328958344</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.092818267879479e-05</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.003305458304536495</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.05818016310577e-05</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9861833672388041</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>RUG062</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9953758840788103</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.173677038535331e-06</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.456191410354858e-06</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.001422798419341507</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.524540406590437e-07</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00030447962386055</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.830134336812558e-05</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.002844366047034374</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.338816509552741e-05</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9953758840788103</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RUG419</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9435844963242486</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.001530355658304336</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0004673699630510201</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.03040969399685503</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7.473604923865804e-06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.002917938178437861</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.427284992070969e-05</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02102331456270019</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.508486155842496e-05</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9435844963242486</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>hRUG908</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9936673741468024</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0001181767683438567</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.001897305797927929</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0009854228827403111</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.212648658747988e-07</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0003389662383220572</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.98129856948773e-05</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.002887633733220559</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.488618208213168e-05</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9936673741468024</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>RUG459</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9958324254779398</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.778111299240977e-05</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.243006017703829e-06</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0002763411333449257</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8.427316927001571e-08</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.001041560377221779</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.590369124185273e-06</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.002785909668298401</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.906458189140911e-05</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.9958324254779398</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>RUG577</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9950992519586598</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.358791608819697e-05</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.000220377764146523</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.001587408559963983</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.252632213766697e-08</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0003984879676608844</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.617611357919545e-06</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.002661635251267597</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.610444533021755e-06</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9950992519586598</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>RUG112</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9436202647548202</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0008290478185750669</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0004190516390605776</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.03131129368899012</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0004141919087951927</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.005969851784512295</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.593130814758733e-06</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0172880597783514</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0001436454960802318</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.9436202647548202</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>RUG431</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9954254099982049</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.470682691781103e-05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.230176052557455e-05</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.001481932245582467</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.441395561871125e-07</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0004296098397504615</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.173380408451619e-05</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.002549026911189574</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.503447418854557e-05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9954254099982049</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>RUG446</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9694558241393149</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.649850000192381e-05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.007286933321551787</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.01391579512988579</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.77708995664179e-08</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.003535829798896769</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.024588666709541e-06</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.005751190361418275</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.387638936423089e-05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9694558241393149</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>RUG318</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9378995408994275</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0006816904787926655</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8.656023226011399e-05</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0343426885679491</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.263881331882299e-07</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.002208299132279509</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0001277321950402888</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.02464356341111971</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9.59869499808445e-06</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9378995408994275</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>RUG483</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9151644777968938</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.259680566177952e-05</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0001698309906712027</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.02919900553930891</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6.577166145892506e-07</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.03138267030847208</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8.672006144439509e-05</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.02395977173089637</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.426905003686356e-05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9151644777968938</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>RUG838</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9635572888838753</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.000110080808341349</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.002518253143175978</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.009290030546548849</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.879674727155934e-06</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0050874264477879</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6.665968282344087e-05</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.01854226007478296</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0008241207379369927</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.9635572888838753</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>hRUG906</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4009997335339398</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0001634992500014376</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4228112981396872</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1472384531810914</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.322198700134527e-05</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.003789365773976031</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0003208894987111587</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.02459916494657155</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5.43736890200822e-05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.4228112981396872</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RUG339</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9763978740572004</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0008958927765030633</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0001855128828809596</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.006465094953517879</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6.389908979169716e-07</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.002716295652135832</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0005047604026541628</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.01247451863915098</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0003594116450587658</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.9763978740572004</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>RUG500</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.862634695348665</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.934922157930226e-05</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0001614421901916694</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.05251978541423835</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.492975631591903e-05</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03055291272641262</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0003530291904831325</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.05362635650365437</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.749964845939567e-05</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.862634695348665</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>RUG273</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9929875052395415</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.094052530858e-05</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.278690937742414e-05</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.003549773168380599</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.672352919291734e-05</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.001018179617321994</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5.934005770897596e-06</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.002375091018958373</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.306598614751117e-05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9929875052395415</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>RUG307</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9882203596975965</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.790480707670709e-05</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0001714935518803642</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.003897000518968333</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.403627996119558e-06</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.001970358342797097</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0001443459248367775</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.005366389970070433</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0001397435587778403</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9882203596975965</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>RUG397</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9827304934160461</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0001153086364525488</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0003229558941277004</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.008228332175050923</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.928696955411752e-06</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.002503475768533682</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.554704648816319e-07</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.005966382680743901</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0001296672616248574</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9827304934160461</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>RUG569</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9895704344890228</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.737766733707151e-05</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5.59729508646327e-06</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.003219872978129551</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4.707422504894826e-05</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.00062841277508164</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.938605673850486e-06</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.006387034872925054</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6.925709169464679e-05</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.9895704344890228</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>RUG474</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9970461959633115</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8.264197539327939e-06</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.001272850796011076</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.000223139773046698</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5.802215715184022e-09</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.000214563558618037</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.796319875038952e-07</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.001234396262245998</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.040150242122029e-07</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9970461959633115</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>hRUG897</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9177969055305653</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0004209038723324007</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.00108886928325849</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.03036750180177441</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0001887235721474996</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01011257602440451</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.02251848255064e-05</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.02119648682784643</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.01878780790284547</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9177969055305653</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>RUG116</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9784353892120286</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0007508839730552775</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0005353944150733227</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.005820950797237137</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.457633792694516e-05</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.002214592964282433</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0001787772141647027</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.01161702507356794</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0004224100126635179</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.9784353892120286</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>RUG367</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8821272830013283</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.782627505136954e-05</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.005854008209806399</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.06456153355357647</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.042077706679005e-06</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0144259934322251</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.000400543333281438</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0298193021716212</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.00278246794540285</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.8821272830013283</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>RUG144</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9657780066829277</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8.981531038395321e-05</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0008735980513039732</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.009142469322364007</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.637933647203194e-05</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.003261080911119255</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.081852300431323e-06</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.02050077921873917</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.000332789314389432</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9657780066829277</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>RUG423</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.958214647782088</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0001534925165983479</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0003387602716845467</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.01722012924700079</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4.659869718911832e-05</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.00311646214963601</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5.436716780035609e-06</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.02040675081955225</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.0004977217994709708</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.958214647782088</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>RUG476</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5999975340761653</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.000569712790490837</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.08786627324840687</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.02687986666939832</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.001798127739228133</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0728205417051251</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0001142347541867763</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1270271946049375</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.0829265144120611</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.5999975340761653</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>hRUG858</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9863349753472851</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.613758746285695e-05</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0007824276185642635</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.003162959474563192</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.499841573760253e-06</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0005585251194360957</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0001036817761356443</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0087382313994053</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.0002895618355736077</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.9863349753472851</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>RUG168</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9938931522825605</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0001412598564158555</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7.866625290978598e-06</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0008373362112237742</v>
+      </c>
+      <c r="F30" t="n">
+        <v>9.072897894814941e-06</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0006984605251054475</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.307088218766926e-06</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.004409580715683589</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.963797606205512e-06</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9938931522825605</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>RUG242</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9623097892756267</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.001457491100554953</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9.296886075744677e-06</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.01652670600722915</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8.954048229247759e-06</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.002921666737795381</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8.526307869745242e-06</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.01649262163562723</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0002649480009918468</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9623097892756267</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>RUG586</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.986078574263603</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0001381700246069747</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0002273757650852683</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.005051716607415929</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0001301766678906469</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.001508847855229838</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.540935719436284e-06</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.006809235281846631</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5.436259860216682e-05</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.986078574263603</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>RUG106</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9887117264771043</v>
+      </c>
+      <c r="C33" t="n">
+        <v>8.231439382432112e-05</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.000103070765366743</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.005078372643002884</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0001669379685006608</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.001541318034342332</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.610369487061893e-05</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.004251165250166698</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.899077282143368e-05</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.9887117264771043</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>RUG765</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9513164798527595</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0004815605860640743</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0269526696058696</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.002770098250504989</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4.389923134053726e-05</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.007344389219114627</v>
+      </c>
+      <c r="H34" t="n">
+        <v>9.448060418289245e-05</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.008987570003761571</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.002008852646402117</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.9513164798527595</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>RUG259</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9888027254797324</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.000195926156383028</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6.120326425525097e-05</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.007072046692453603</v>
+      </c>
+      <c r="F35" t="n">
+        <v>9.47867990342452e-06</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0007796416801005128</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.0620490635527e-05</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.003053858658336833</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.498898199547105e-06</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.9888027254797324</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>RUG488</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.9951454745072151</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8.395225966072546e-05</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.26910471460852e-05</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.002171334902532493</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.474603536781931e-06</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0003632802860051291</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.223408042930204e-06</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.00218852049491132</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.004849094956219e-05</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.9951454745072151</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>RUG085</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9790337057514259</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0001872705418056752</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0004511638808353078</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.009346843356724883</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0001974279274852667</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.00329358489800168</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.964593656867408e-05</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.007457332038547796</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.302566860485852e-05</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.9790337057514259</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>RUG647</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9656340928961851</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0004982774756876506</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0004474632628952234</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.01150804165081661</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7.690022268872103e-05</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.003938909155839813</v>
+      </c>
+      <c r="H38" t="n">
+        <v>8.799678514605581e-05</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.01759352365557659</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.0002147948951642889</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.9656340928961851</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>RUG733</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9879811622629256</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9.548001287088109e-06</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5.295506090833872e-06</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.002258763060077901</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.415347416965304e-06</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.002298514124775997</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.505890159782619e-05</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.007108200266707256</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.0003120425291204851</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.9879811622629256</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>RUG064</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.9910389387190122</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.199889001828309e-05</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5.723933337280878e-05</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.003404515088859847</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0007296470138991251</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.001119925290779965</v>
+      </c>
+      <c r="H40" t="n">
+        <v>8.910028129449386e-07</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.00340514627484113</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.0002116983864037766</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.9910389387190122</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>RUG598</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9564833701628693</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0003887249867962035</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.123289078743422e-05</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.02096159867849789</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.834390352044432e-06</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.00738767431930991</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0002874211941414467</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.01272009549036217</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.001748047886883475</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9564833701628693</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>RUG022</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9772999981149257</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0004637468391758255</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9.130440938152134e-05</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.009326468202151389</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4.535878768070984e-05</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.002814041864743323</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0001793641374128815</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.009680545081938835</v>
+      </c>
+      <c r="J42" t="n">
+        <v>9.917256258992863e-05</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.9772999981149257</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>RUG849</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9923061976655777</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.00015359173361578</v>
+      </c>
+      <c r="D43" t="n">
+        <v>9.903704716014983e-05</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.001170317775397084</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6.479211033412099e-06</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.00214549630414137</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7.786500707540118e-08</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.004085928651031443</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.287374703601506e-05</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.9923061976655777</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>RUG216</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9352257731210819</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.898667672294804e-05</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.01380896962885815</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.03375663759330806</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8.587077739288955e-05</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.01059159771057844</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.839250136679028e-07</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.006229496683501146</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.000282283883542736</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.9352257731210819</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>hRUG893</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9941990108674162</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.000227967013512134</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7.855041542322713e-06</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.00199857640743976</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3.633629681401231e-05</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.001990776983993939</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4.683621995953577e-06</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.001529040077287197</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5.753689998490291e-06</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9941990108674162</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>RUG200</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9742416396930387</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.0001543780512080666</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.0001402952775093517</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.01479554740080405</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.301299496837411e-06</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.004717856678477177</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.542000590336099e-05</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.005769815999994843</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.0001427455935676032</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9742416396930387</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>RUG309</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9943333657215216</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.000104242189384327</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5.988956085773421e-05</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.001932421877312903</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.903249743189024e-06</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0005841443029655938</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.19962596759258e-06</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.002976264555157381</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4.568917089741646e-06</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.9943333657215216</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>RUG550</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9818265525018659</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.001156105495403463</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0010659766138644</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.007663216218480632</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5.778070967590381e-05</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.003074072942064964</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.430851334819523e-05</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.005033911808999754</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.000108075196296887</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.9818265525018659</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>RUG782</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.9949684940187622</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.398795775776271e-05</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4.924754378692948e-05</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.001672815418799042</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6.909282385495487e-07</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0005111569701118444</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2.433266699032677e-08</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.002760368593168383</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.32142367082982e-05</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.9949684940187622</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>RUG003</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9858468316687767</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.0004234136934031361</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0009171628371539059</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.00751022855244819</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2.388627576507028e-05</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0009715475642567288</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2.62950283326527e-06</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.004254280478725839</v>
+      </c>
+      <c r="J50" t="n">
+        <v>5.00194266371213e-05</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.9858468316687767</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>RUG535</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9847876081390899</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0001543023675675049</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0001108540835704488</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.008814533136873179</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.338224411700255e-05</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.001340332128915349</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2.925493956956989e-05</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.004737173086568462</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.255987372851875e-05</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9847876081390899</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>RUG315</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.996058460841404</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2.77378731593642e-05</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.0001832891290414738</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0007065787162803756</v>
+      </c>
+      <c r="F52" t="n">
+        <v>5.400070882968822e-08</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0003602054648056099</v>
+      </c>
+      <c r="H52" t="n">
+        <v>6.59773153015191e-07</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.002658768373390047</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4.245828057339496e-06</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.996058460841404</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>RUG108</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.9788995526798824</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0005872145840507985</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5.212889481539307e-05</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.006448534642107637</v>
+      </c>
+      <c r="F53" t="n">
+        <v>6.083638812508929e-05</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.002828975963678328</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0002583241756396889</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.01064638933357003</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.000218043338130659</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.9788995526798824</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>RUG541</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9840817649168559</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.0002312611291429219</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0002312702439865187</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.00588518822715993</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0005907866756903504</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.001254698555890391</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4.256038344071669e-06</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.007684607706759349</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3.616650617066452e-05</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.9840817649168559</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>RUG461</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9981145967736691</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.340153401116272e-05</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6.040573295908413e-06</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0004220608815752837</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3.131469469283444e-06</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0002338117337850814</v>
+      </c>
+      <c r="H55" t="n">
+        <v>6.673930659747757e-07</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.001205141852039389</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.147789088766355e-06</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.9981145967736691</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>RUG546</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9833673169115359</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.0001827947083031</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.0001612943908053404</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.007941954133368241</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3.268224016728787e-07</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.002023578400624892</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0006940750082303827</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.005597138056210898</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.152156851953353e-05</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.9833673169115359</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>RUG195</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.8951440550692213</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.006555282110131174</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.002334187981348658</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0236813051276168</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0008037626498116015</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01113161426931166</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0009050106153436872</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.05874824324104494</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0006965389361700444</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.8951440550692213</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>RUG660</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9919177330372855</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.000118326825393368</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.248361750953579e-05</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.003361493907064976</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.321621003676297e-05</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.001429847015119263</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.406793022016935e-05</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.003042507136631711</v>
+      </c>
+      <c r="J58" t="n">
+        <v>7.032432073866935e-05</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.9919177330372855</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>RUG280</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9455837149200066</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0002018661491465634</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.01028809209102985</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.02248834183997404</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.370481498045945e-07</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.005435994173305186</v>
+      </c>
+      <c r="H59" t="n">
+        <v>4.714739205793257e-06</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.01595619518362056</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4.084385556156762e-05</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.9455837149200066</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>RUG614</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.9939829660367712</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.184671858107333e-05</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.0001510679295361986</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0008693094190901747</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.437393641757343e-06</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.003029699722760845</v>
+      </c>
+      <c r="H60" t="n">
+        <v>7.906807921337116e-06</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.00188505106393034</v>
+      </c>
+      <c r="J60" t="n">
+        <v>4.971490776719695e-05</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.9939829660367712</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>RUG742</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9843663427337316</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.0002156076599787301</v>
+      </c>
+      <c r="D61" t="n">
+        <v>9.643875708034979e-05</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.009143189823636882</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7.65224009162339e-06</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.001647920071832626</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.0002047894885292519</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.004309831424354064</v>
+      </c>
+      <c r="J61" t="n">
+        <v>8.227800764981111e-06</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.9843663427337316</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>RUG457</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9895371566348737</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.0001324513038649967</v>
+      </c>
+      <c r="D62" t="n">
+        <v>7.846797994482629e-05</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.002480231717745953</v>
+      </c>
+      <c r="F62" t="n">
+        <v>5.706800375881764e-06</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.00173061998462043</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.851146901464979e-07</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.006027416564026499</v>
+      </c>
+      <c r="J62" t="n">
+        <v>7.763899857542931e-06</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.9895371566348737</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>RUG036</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.9730015740000275</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.0003048376395177547</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.92155383667229e-06</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.005182811651182541</v>
+      </c>
+      <c r="F63" t="n">
+        <v>5.079858300253587e-05</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.006942502024463794</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3.376706209382879e-05</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.01439342102298497</v>
+      </c>
+      <c r="J63" t="n">
+        <v>8.736646289025665e-05</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.9730015740000275</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>RUG046</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9381812185708056</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.001067489811619441</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.000882006668795416</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.02400702477592004</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.005477618292848674</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.005723403104466529</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.0002166004233740255</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.02381615489474389</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.0006284834574264883</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.9381812185708056</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>RUG445</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.9962760637967731</v>
+      </c>
+      <c r="C65" t="n">
+        <v>6.745098760664946e-06</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.69714501619674e-06</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0005133807920199198</v>
+      </c>
+      <c r="F65" t="n">
+        <v>5.235438910413487e-08</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0002769876635915669</v>
+      </c>
+      <c r="H65" t="n">
+        <v>7.798260817872006e-07</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.002919245958602165</v>
+      </c>
+      <c r="J65" t="n">
+        <v>5.047364765576027e-06</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.9962760637967731</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>RUG435</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.991133517378961</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.0002502545952010966</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.0001923235349063811</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.003950735887392047</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3.611795533485954e-06</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.001505374038009259</v>
+      </c>
+      <c r="H66" t="n">
+        <v>9.79667016523259e-07</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.002941211736492855</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.199136648730381e-05</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.991133517378961</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>RUG828</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.9912500089923713</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.0002829412091011673</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5.167022848661687e-05</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.00187194595996872</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.000259611172814129</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.001453220509343298</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.0001185712173183431</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.004699929627262291</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.21010833342732e-05</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.9912500089923713</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>RUG172</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.9973696550573334</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.193327428023618e-05</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.406329664731103e-06</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.000881509920900372</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3.30399283255544e-08</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0002056364782703999</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3.035648993860183e-05</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.00148735678690728</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.112622776328874e-06</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.9973696550573334</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>RUG589</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.9991589493525284</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.154977237677649e-05</v>
+      </c>
+      <c r="D69" t="n">
+        <v>6.194509790303809e-06</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0002505894629143437</v>
+      </c>
+      <c r="F69" t="n">
+        <v>6.350709321261953e-06</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0001357927937734888</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.646183112286409e-07</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0004289345589633891</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.474222021010724e-06</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.9991589493525284</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>RUG169</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.975838353674342</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.000489046740436922</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.0001733712548592753</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.01624521651853583</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0001647269011436334</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.001977562615017454</v>
+      </c>
+      <c r="H70" t="n">
+        <v>7.730960693541177e-05</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.00488153343280112</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.0001528792559284245</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.975838353674342</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>RUG030</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.9990666897869657</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.462744213901912e-05</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.927273852509634e-05</v>
+      </c>
+      <c r="E71" t="n">
+        <v>7.645051703997948e-05</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.742306745242951e-09</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0001655499429330867</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.2151839988668e-06</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0006135463298072761</v>
+      </c>
+      <c r="J71" t="n">
+        <v>4.264631628415253e-05</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.9990666897869657</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>RUG301</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5942056859952052</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.03731734820190462</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.00267690757252412</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.06354456130465186</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.006097749279727747</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.07720251081843751</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.0081409611845273</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.2087615323593831</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.0020527432836385</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.5942056859952052</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>hRUG878</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.9897184456981052</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4.059764414604207e-05</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.00106707429682103</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.002983283794536635</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2.696059131525134e-07</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0004276944554707462</v>
+      </c>
+      <c r="H73" t="n">
+        <v>9.52337169274525e-07</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.005179394334043472</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.0005822878337945451</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.9897184456981052</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>RUG037</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.9774909129693851</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.0005742102229553961</v>
+      </c>
+      <c r="D74" t="n">
+        <v>4.200789611394601e-05</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.01140579857466957</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0001889943454271557</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.002213078497294867</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4.184422351856808e-05</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.008026875914210854</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.627735642464401e-05</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.9774909129693851</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>RUG711</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.9925564599144362</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.0001852331783807426</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.0001362569428794963</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.003798696452603222</v>
+      </c>
+      <c r="F75" t="n">
+        <v>7.721880570899835e-06</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0009617458556150109</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1.439191921151311e-07</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.002299643643377107</v>
+      </c>
+      <c r="J75" t="n">
+        <v>5.40982129451729e-05</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.9925564599144362</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>RUG788</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.9779395285591131</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.0002394587986223036</v>
+      </c>
+      <c r="D76" t="n">
+        <v>6.298513913035646e-06</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.002113424549305298</v>
+      </c>
+      <c r="F76" t="n">
+        <v>7.520527312456453e-06</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.003189569958065098</v>
+      </c>
+      <c r="H76" t="n">
+        <v>6.42010677934847e-06</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.0163635258456464</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.000134253141242851</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.9779395285591131</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>RUG210</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.9908921196751812</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.0002548361047055483</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.002305941471961111</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.00120537260977547</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.763712668497022e-05</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.001408730488364085</v>
+      </c>
+      <c r="H77" t="n">
+        <v>4.290695064692832e-06</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.003908295217438879</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2.776610824171598e-06</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.9908921196751812</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>RUG176</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.9991871022589897</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.945574413093734e-06</v>
+      </c>
+      <c r="D78" t="n">
+        <v>8.234096899305482e-05</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0001750277754253667</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.192777905640652e-06</v>
+      </c>
+      <c r="G78" t="n">
+        <v>8.097710610123455e-05</v>
+      </c>
+      <c r="H78" t="n">
+        <v>6.13728437656176e-08</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.0004665708395216176</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3.78132580670132e-06</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.9991871022589897</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>RUG047</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.9793150082399732</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.0004853472229668866</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4.461970251332657e-05</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.001671319577245052</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4.517895994286906e-06</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.003855964542191785</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2.930011438603256e-05</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.01380634582394958</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0007875768807797842</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.9793150082399732</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>RUG310</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.9952010011686456</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2.018758749790269e-05</v>
+      </c>
+      <c r="D80" t="n">
+        <v>8.980838630945515e-05</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0009941592671416672</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.713166125549379e-05</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0009416135081048881</v>
+      </c>
+      <c r="H80" t="n">
+        <v>7.659756175368392e-06</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.002714434962445601</v>
+      </c>
+      <c r="J80" t="n">
+        <v>4.003702424071641e-06</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.9952010011686456</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>RUG405</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.9846522894797596</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.0006922224391638374</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5.717972501445546e-05</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.008088838612012327</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.470248504595953e-05</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0009700863185496301</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.0001273958436683701</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.005317382295016684</v>
+      </c>
+      <c r="J81" t="n">
+        <v>7.990280176927168e-05</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.9846522894797596</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>hRUG883</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.9454844357201388</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.002097957115949086</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.009381709478528398</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.008642072936611709</v>
+      </c>
+      <c r="F82" t="n">
+        <v>7.414141238629992e-05</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.007008281590283383</v>
+      </c>
+      <c r="H82" t="n">
+        <v>3.419591251668575e-06</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.02684756820541263</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.0004604139494378655</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.9454844357201388</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>hRUG905</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.8785132705507336</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.000588240436102079</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.01026980782870612</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.03417655907056688</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.005254106525210314</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.009937223862431455</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.001377911843566358</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.05661439330905096</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.003268486573632193</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.8785132705507336</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>RUG192</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.9458527622573624</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.100827891180225e-05</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.00042925101205081</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.03540429872499595</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5.064200110779452e-08</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.003304289071233629</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.0004230392419239704</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.01456861230748105</v>
+      </c>
+      <c r="J84" t="n">
+        <v>6.688464039170909e-06</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.9458527622573624</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>RUG697</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.9728029666341279</v>
+      </c>
+      <c r="C85" t="n">
+        <v>9.16482930004659e-06</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.01978370530793898</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.001855057534888126</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.161456463331413e-07</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.001285404676991113</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2.325821543675666e-06</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.004260641204198363</v>
+      </c>
+      <c r="J85" t="n">
+        <v>6.178453652989469e-07</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.9728029666341279</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>RUG562</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.9992148975916675</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.15582096968407e-07</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.0001885578626957832</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.000103547519312221</v>
+      </c>
+      <c r="F86" t="n">
+        <v>7.322218657907996e-10</v>
+      </c>
+      <c r="G86" t="n">
+        <v>6.473216012598794e-05</v>
+      </c>
+      <c r="H86" t="n">
+        <v>4.380473578719806e-08</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.0004279195506495784</v>
+      </c>
+      <c r="J86" t="n">
+        <v>8.519649436912042e-08</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.9992148975916675</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>RUG292</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.9421236380202501</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.0003860530300882447</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.008729062901496117</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.02160804853430662</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2.101271923576599e-05</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.01664929537225152</v>
+      </c>
+      <c r="H87" t="n">
+        <v>6.774680940421549e-07</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.0104740791714</v>
+      </c>
+      <c r="J87" t="n">
+        <v>8.132782877478884e-06</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.9421236380202501</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>RUG376</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.9070306641636857</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.001083362508855495</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.0005025197742327238</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0356131578220272</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0001075220809231313</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.01149885718809718</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.0002670849129362127</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.04368886075142259</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.0002079707978197183</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.9070306641636857</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>RUG070</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.9898876084756353</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4.963144744400096e-05</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.0003883484168312569</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.001146418499530558</v>
+      </c>
+      <c r="F89" t="n">
+        <v>5.435687038344283e-05</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.002361682662240835</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2.926118236103765e-06</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.005830655830969747</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.0002783716787288765</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.9898876084756353</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>RUG473</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.9797937104661169</v>
+      </c>
+      <c r="C90" t="n">
+        <v>9.684363021997424e-05</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5.084562330390417e-05</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.002536176861504378</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4.536872166135431e-06</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.004442507193623281</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3.633907886455133e-06</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.01275396061003176</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.0003177848351473212</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.9797937104661169</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>RUG302</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.9904063285868321</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.0001113990953207562</v>
+      </c>
+      <c r="D91" t="n">
+        <v>4.032924938717764e-05</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.004899460835565259</v>
+      </c>
+      <c r="F91" t="n">
+        <v>6.711492407520281e-05</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0007438035211153016</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.0001221014668317225</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.003582078277716966</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.738404315562879e-05</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.9904063285868321</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>RUG233</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.9782356647050342</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.978298473225251e-05</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.003216392731130842</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.009167779576475443</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.256433850842916e-08</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.002509862758321496</v>
+      </c>
+      <c r="H92" t="n">
+        <v>5.721592717125183e-05</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.006760053764795946</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.323498800004682e-05</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.9782356647050342</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>RUG232</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.9616560795960345</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.0005939680502201875</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.002197022297029961</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.01352230365282678</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2.851095011255769e-05</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.004881603945695741</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.001240224311485582</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.01576323953404656</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.0001170476625479225</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.9616560795960345</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>RUG207</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.9507742773338046</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.001296762790533712</v>
+      </c>
+      <c r="D94" t="n">
+        <v>6.834403923750605e-05</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.004276955663944017</v>
+      </c>
+      <c r="F94" t="n">
+        <v>4.368422066640327e-06</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.001809530576209477</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.0003376986392631692</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.009740466462440901</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.03169159607249991</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.9507742773338046</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>RUG143</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.8553473302334968</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.002742316645942859</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.002421175804179274</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.01973869467342109</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.006353313463863893</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03251237557162878</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.001363650777329223</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.07470848708234337</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.004812655747794585</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.8553473302334968</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>RUG219</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.9938164886394878</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.0001014820331117642</v>
+      </c>
+      <c r="D96" t="n">
+        <v>6.406510271769293e-05</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.002392882448276752</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.0005682033931085197</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.001597259789402911</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2.996365844239331e-06</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.001448507487293138</v>
+      </c>
+      <c r="J96" t="n">
+        <v>8.114740756991124e-06</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.9938164886394878</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>RUG139</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.9818820291876191</v>
+      </c>
+      <c r="C97" t="n">
+        <v>7.233534305136943e-05</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.0003435612066669342</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.01024473256548418</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.0003403650176491978</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.00145281602396216</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.0002894030012442312</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.005347607579965104</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.715007435773048e-05</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.9818820291876191</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>RUG086</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.9611422958854868</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.001758089359954307</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.0002685959043135742</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.01865454812698835</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.0004047264640838</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.009105584902444026</v>
+      </c>
+      <c r="H98" t="n">
+        <v>7.252063156971543e-06</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.008622717283064532</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3.619001050754806e-05</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.9611422958854868</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>RUG582</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.9983097858733729</v>
+      </c>
+      <c r="C99" t="n">
+        <v>4.174111428778775e-07</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.0005137865159220399</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0002340072117129624</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.181360162920083e-09</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.000182866721546359</v>
+      </c>
+      <c r="H99" t="n">
+        <v>5.78109667528698e-08</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.0007575730863778462</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.504187598005978e-06</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.9983097858733729</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>RUG418</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.9931130426723926</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3.851339627301291e-05</v>
+      </c>
+      <c r="D100" t="n">
+        <v>4.239871294301293e-05</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.001616068722033373</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.0006601260571987497</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0008376668819316537</v>
+      </c>
+      <c r="H100" t="n">
+        <v>5.523946607259234e-07</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.003667890144100123</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.374101846669643e-05</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.9931130426723926</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>RUG685</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.9718319288553073</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.0003535253957860248</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.0001681254589081414</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.01209825245779551</v>
+      </c>
+      <c r="F101" t="n">
+        <v>3.239464077073816e-06</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.002964768059591553</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.000595363680731237</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.01183163747970053</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.0001531591481026365</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.9718319288553073</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>RUG759</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.9926321688967876</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2.48759928779576e-05</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.0006783340147807607</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.002117248981802025</v>
+      </c>
+      <c r="F102" t="n">
+        <v>7.809770704975049e-08</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.0007797288720888153</v>
+      </c>
+      <c r="H102" t="n">
+        <v>3.606682349862582e-07</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.003576671725476698</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.0001905327502440303</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.9926321688967876</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>RUG691</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.9341537356065633</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.0001696125320350335</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.002109946215319485</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.007201846540172131</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.02106900168175808</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.01186937366693257</v>
+      </c>
+      <c r="H103" t="n">
+        <v>8.98891751011653e-05</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.02326158570504222</v>
+      </c>
+      <c r="J103" t="n">
+        <v>7.500887707608107e-05</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.9341537356065633</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>RUG383</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.9506822074485554</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.0004151870622260273</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.0001570684470833703</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.003352606972252184</v>
+      </c>
+      <c r="F104" t="n">
+        <v>7.016375185095702e-05</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.005643804400838778</v>
+      </c>
+      <c r="H104" t="n">
+        <v>5.609654625796358e-05</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.02653291333905264</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.01308995203188269</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.9506822074485554</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>RUG056</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.5313747973678405</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.0001931274282637994</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.09605178611099863</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.3306619778601563</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.285117702763449e-05</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.003468678568163278</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2.007942794280398e-05</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.03803625485787743</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.0001804472017296234</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.5313747973678405</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>RUG124</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.9713369547880115</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.0006188613362271392</v>
+      </c>
+      <c r="D106" t="n">
+        <v>9.328582546623572e-05</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.01640148678499125</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0008435053688977352</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.002902674829122313</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.0001363135625309292</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.007658265253879033</v>
+      </c>
+      <c r="J106" t="n">
+        <v>8.652250873643771e-06</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.9713369547880115</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>RUG160</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.8751172550725164</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.02012541225973319</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.02931215817242298</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.01500742430145127</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.000191909450012326</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.02779047350163328</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.0012011641212371</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.03015589840302444</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.001098304717969019</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.8751172550725164</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>RUG624</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.9848878050980303</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.0001758835641867328</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.001067347634596751</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.009684076761079767</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1.959228191017436e-05</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.000685359602076725</v>
+      </c>
+      <c r="H108" t="n">
+        <v>5.393724419918558e-06</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.003474402318232059</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.390154674461542e-07</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.9848878050980303</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>RUG209</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.9797339647836975</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.000542922088563195</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.003322831668671044</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.006264471559119647</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.576058616983319e-05</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.002468727726958967</v>
+      </c>
+      <c r="H109" t="n">
+        <v>4.534259842086905e-06</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.007621814205916282</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.497312106141325e-05</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.9797339647836975</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>RUG812</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7883708049212425</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.007809846404487785</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.002938041512718318</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.1026210131659064</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.001685423799698777</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.03049684944805603</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.0001898587829205602</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.06573332082539833</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.0001548411395713011</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.7883708049212425</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>RUG602</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.9908498908828828</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2.301045248947595e-05</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.004470593838567512</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.001473443411406539</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1.767608234257409e-08</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.001269873741149625</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1.00358385010318e-07</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.001910217556979084</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2.852082057629839e-06</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.9908498908828828</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>RUG751</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.9800900700036125</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.0004359778082006626</v>
+      </c>
+      <c r="D112" t="n">
+        <v>6.247829061031105e-05</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.00435477589276555</v>
+      </c>
+      <c r="F112" t="n">
+        <v>7.811594562591585e-05</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.007439385109381509</v>
+      </c>
+      <c r="H112" t="n">
+        <v>6.404388094703055e-06</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.007376737524381522</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.0001560550373275297</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.9800900700036125</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>RUG101</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.9641571567171453</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.0005227650714605811</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.001102711210747405</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.01235141630161706</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0008092661801361264</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.001623271692830968</v>
+      </c>
+      <c r="H113" t="n">
+        <v>3.396802930328464e-05</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.01920720188146319</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.0001922429152960897</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.9641571567171453</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>RUG693</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.9907234640889608</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.001471116864877069</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4.978842996985216e-05</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.002350330707004771</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.000196728578826527</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.001487190591419138</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.239015564976645e-05</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.003670809912305467</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3.818067098653354e-05</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.9907234640889608</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>RUG749</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.9911966317575645</v>
+      </c>
+      <c r="C115" t="n">
+        <v>5.372979447900706e-05</v>
+      </c>
+      <c r="D115" t="n">
+        <v>7.080126285800162e-05</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.00513694036728017</v>
+      </c>
+      <c r="F115" t="n">
+        <v>8.179341853227234e-05</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.0004777890315045528</v>
+      </c>
+      <c r="H115" t="n">
+        <v>4.332889394920052e-08</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.002974940351089749</v>
+      </c>
+      <c r="J115" t="n">
+        <v>7.330687798010966e-06</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.9911966317575645</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>RUG107</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.9884716615543976</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3.426962715490165e-05</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.0006796352984495706</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.005213911807401433</v>
+      </c>
+      <c r="F116" t="n">
+        <v>4.333917368421764e-07</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.001423860481906747</v>
+      </c>
+      <c r="H116" t="n">
+        <v>4.808934739471512e-06</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.004168882450637333</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.53645357606689e-06</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.9884716615543976</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>RUG063</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.9930964621809903</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.0001755977060895774</v>
+      </c>
+      <c r="D117" t="n">
+        <v>5.316145918128746e-05</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.002995307307397819</v>
+      </c>
+      <c r="F117" t="n">
+        <v>6.397595693114347e-06</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.001122863601755157</v>
+      </c>
+      <c r="H117" t="n">
+        <v>9.245018457615144e-05</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.002447858880339389</v>
+      </c>
+      <c r="J117" t="n">
+        <v>9.90108397731545e-06</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.9930964621809903</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>RUG178</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.9941654552627177</v>
+      </c>
+      <c r="C118" t="n">
+        <v>9.288672544286773e-06</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.0007248058892686464</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.001134828234737792</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3.869619834597979e-09</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.0006364176280320665</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.29122671194281e-06</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.003313135791965766</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.477342440184772e-05</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.9941654552627177</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>RUG414</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.9992366988808656</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.376712626812493e-05</v>
+      </c>
+      <c r="D119" t="n">
+        <v>7.950705677933614e-06</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.0002361585256658632</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.253293166383363e-08</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.0001026879926078184</v>
+      </c>
+      <c r="H119" t="n">
+        <v>7.161868279584798e-08</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.0004025227109215533</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.299063784403664e-07</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.9992366988808656</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>RUG058</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.9305830270598296</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.0001111299324442081</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.0006237520344313844</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.05049400051538279</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3.807219148941433e-08</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.005631760772829955</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1.492750041105885e-05</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.01248329498114073</v>
+      </c>
+      <c r="J120" t="n">
+        <v>5.806913133873594e-05</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.9305830270598296</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>RUG771</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.9864116872061749</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4.119247309961531e-05</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.0001321863191686691</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.006438003812783743</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2.934983489493795e-06</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.001592698772946202</v>
+      </c>
+      <c r="H121" t="n">
+        <v>5.851431558295712e-05</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.005243702472694032</v>
+      </c>
+      <c r="J121" t="n">
+        <v>7.90796440604713e-05</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.9864116872061749</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>RUG837</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.9902730896197903</v>
+      </c>
+      <c r="C122" t="n">
+        <v>5.11161934753827e-05</v>
+      </c>
+      <c r="D122" t="n">
+        <v>3.152048718709149e-05</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.002208850021560466</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4.246392968470777e-05</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.001599775687052697</v>
+      </c>
+      <c r="H122" t="n">
+        <v>5.137604891020032e-06</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.005664742117661922</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.0001233043386964772</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.9902730896197903</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>RUG657</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.8149486934680931</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.0004910906036542067</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.002273665342760804</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.01626162436790541</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.004433132427073374</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.06214483106833247</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.0007227901634267039</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.05009412374863158</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.04863004881012225</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.8149486934680931</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>RUG174</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.6843060818226031</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.02279651210622096</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.03322298201904252</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.03264039531418203</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.06707370172118636</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.02066780253688453</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.02503984289198884</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.07141457754379292</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.04283810404409871</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.6843060818226031</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>RUG355</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.9306643868423484</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.003397569989114143</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.0001274605013856358</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.04124510857111079</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.001007534138246648</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.005522127309478395</v>
+      </c>
+      <c r="H125" t="n">
+        <v>6.419632990173047e-05</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.01788232223108183</v>
+      </c>
+      <c r="J125" t="n">
+        <v>8.92940873323481e-05</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.9306643868423484</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>RUG827</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.9483183391510593</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.94369820798558e-05</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.01431231677221756</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.02170384033282017</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2.329397026033869e-09</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.006367324316467689</v>
+      </c>
+      <c r="H126" t="n">
+        <v>3.455361455517209e-07</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.009045969688288901</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.0002324248915238144</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.9483183391510593</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>RUG795</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.8581577659009433</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.0006194576986901455</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.0006954958970015324</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.01562749249998134</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.001496258285294908</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.02404598198143471</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.0005648269187855076</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.05058169525906802</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.04821102555880057</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.8581577659009433</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>RUG843</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.9634285480802538</v>
+      </c>
+      <c r="C128" t="n">
+        <v>3.372557270639185e-05</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.00878385390606019</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.01253281597781873</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3.259139118259157e-07</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.006404506270051954</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1.289081362017917e-05</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.008697937759528715</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.0001053957060481323</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.9634285480802538</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>RUG689</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.968075110350531</v>
+      </c>
+      <c r="C129" t="n">
+        <v>9.202614744015778e-05</v>
+      </c>
+      <c r="D129" t="n">
+        <v>5.45984990376194e-05</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.01181720642165873</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.001891261185502757</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.004923884253448094</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.0002151542581937491</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.01283365087106336</v>
+      </c>
+      <c r="J129" t="n">
+        <v>9.710801312459259e-05</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.968075110350531</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>RUG126</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.9758954824605499</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.0003341241310073317</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.001920042947490834</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.005439065271313695</v>
+      </c>
+      <c r="F130" t="n">
+        <v>5.976497323897344e-05</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.006916498099239866</v>
+      </c>
+      <c r="H130" t="n">
+        <v>3.403472786583823e-05</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.009176248454802582</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.0002247389344909941</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.9758954824605499</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>RUG451</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.936430503995469</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.0001381694815631579</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.02318859109779833</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.01971817175020963</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3.680529639985757e-06</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.007307976115085164</v>
+      </c>
+      <c r="H131" t="n">
+        <v>6.809679879372691e-07</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.01313105179024025</v>
+      </c>
+      <c r="J131" t="n">
+        <v>8.117427200640753e-05</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.936430503995469</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>RUG536</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7965150887000838</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.002028837849749384</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.001699414427983993</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.07234721189692885</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.02478615496715327</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.02342930872886083</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.0006003545231395759</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.07791844477610445</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.0006751841299959176</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.7965150887000838</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>RUG606</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.9479715578036826</v>
+      </c>
+      <c r="C133" t="n">
+        <v>8.761223682140911e-05</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.365059684580444e-05</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.006807400404535783</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.002781645188044652</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.00366121868745837</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.0002759336974657947</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.03659133837558776</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.00180964300955802</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.9479715578036826</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>RUG766</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.9843446348418772</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.000113080128069564</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.0001953329041746165</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.002527795520709791</v>
+      </c>
+      <c r="F134" t="n">
+        <v>9.079176122259323e-05</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.003074272436835864</v>
+      </c>
+      <c r="H134" t="n">
+        <v>6.450231956640546e-05</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.009499243705548445</v>
+      </c>
+      <c r="J134" t="n">
+        <v>9.03463819956555e-05</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.9843446348418772</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>RUG059</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.9850874820638779</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.0002673423041771102</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.0004890000240097776</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.002239249538539134</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3.3428415734785e-07</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.003267735439791131</v>
+      </c>
+      <c r="H135" t="n">
+        <v>5.379677531752052e-05</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.00849470850248781</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.0001003510676422281</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.9850874820638779</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>RUG753</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.8654510610498815</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.0031799303702907</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.02737811290913228</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.03395806477287033</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0002612917354232246</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.006997646403693271</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.0003067213039221308</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.05903584221391747</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.003431329240869162</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.8654510610498815</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>RUG744</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.976728080349145</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.0003164536459816419</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.0002987989582775022</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.01066995327882338</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3.542527396851986e-05</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.001520981528031776</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1.449711435755717e-05</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.01037468906688198</v>
+      </c>
+      <c r="J137" t="n">
+        <v>4.112078453256178e-05</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.976728080349145</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>RUG450</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.6833056986776269</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.0009707691609818768</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.04335083655976528</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.02583181090990798</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3.178369985264137e-05</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.05322430768277777</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.005027401824676815</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.1153305366905975</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.07292685479381315</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.6833056986776269</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>RUG071</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.9681772324725497</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.002170035795441262</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.001748909166164269</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.009444768719080371</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.0001898538971953577</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.003481535909891643</v>
+      </c>
+      <c r="H139" t="n">
+        <v>4.985016883682489e-05</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.01469482068534584</v>
+      </c>
+      <c r="J139" t="n">
+        <v>4.299318549440087e-05</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.9681772324725497</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>RUG295</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.9754780545434152</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.990307055120428e-05</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.003246124278659629</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.006033231417392455</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.624500025252203e-06</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.003481461363357865</v>
+      </c>
+      <c r="H140" t="n">
+        <v>9.904854752777714e-06</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.01042916328606956</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.001300532685775906</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.9754780545434152</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>RUG620</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.9904182920400237</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.0002007289132635506</v>
+      </c>
+      <c r="D141" t="n">
+        <v>9.435753309336609e-05</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.002599762341300836</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2.335542802280957e-06</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.0006933666113271589</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1.842846134684313e-07</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.00598181911938398</v>
+      </c>
+      <c r="J141" t="n">
+        <v>9.153614191577351e-06</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.9904182920400237</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>RUG785</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.9974203038667318</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2.981196327666067e-05</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4.37395715758588e-06</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.001206515580089678</v>
+      </c>
+      <c r="F142" t="n">
+        <v>8.081759148459045e-08</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.0002113432536440978</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1.710511384954121e-06</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.001124665929184729</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1.194120938990033e-06</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.9974203038667318</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>hRUG879</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7822384761379103</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.01998220608144597</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.000824781728457707</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.01242063616180628</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.005865544193784211</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.05530012201007535</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.001167691589890762</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.09167164280930279</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.03052889928732658</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.7822384761379103</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>RUG249</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.989019705179504</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.0002302157937562569</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.432073755537995e-05</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.003779083023043444</v>
+      </c>
+      <c r="F144" t="n">
+        <v>6.505555885141517e-07</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.001043938889848916</v>
+      </c>
+      <c r="H144" t="n">
+        <v>4.707014407781918e-07</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.005488628655998745</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.0004229864632639608</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.989019705179504</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>RUG668</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.991606796670636</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.000208461809908735</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.0001110697837139433</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.003887530276453904</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4.182717090674092e-06</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.00123613765700087</v>
+      </c>
+      <c r="H145" t="n">
+        <v>7.9732457598008e-05</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.002856902489287178</v>
+      </c>
+      <c r="J145" t="n">
+        <v>9.186138310669244e-06</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.991606796670636</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>RUG430</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.9952366307775479</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.0001074735143199828</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.0003204627548779618</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.001390515890683546</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2.109629940181439e-08</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.0002124955119248321</v>
+      </c>
+      <c r="H146" t="n">
+        <v>7.440839474568893e-07</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.002718099833220977</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1.355653717779586e-05</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.9952366307775479</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>RUG424</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.972921684688932</v>
+      </c>
+      <c r="C147" t="n">
+        <v>7.269918224523823e-05</v>
+      </c>
+      <c r="D147" t="n">
+        <v>8.589971822480058e-05</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.009608196295773187</v>
+      </c>
+      <c r="F147" t="n">
+        <v>4.407317166460109e-06</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.002604764826837933</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1.799778681201568e-05</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.01466909991875127</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1.525026525699843e-05</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.972921684688932</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>RUG224</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.9762945235095426</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.000503828745422782</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2.962984032113606e-05</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.01665101201102262</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3.184464111361711e-05</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.002038359301402321</v>
+      </c>
+      <c r="H148" t="n">
+        <v>4.218132970940267e-05</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.004384533321411354</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2.408730005419997e-05</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.9762945235095426</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>RUG443</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.9926859250707959</v>
+      </c>
+      <c r="C149" t="n">
+        <v>9.52037989606805e-05</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.526282148592981e-05</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.0009654106864148608</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1.322543681664258e-07</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.002509762974122824</v>
+      </c>
+      <c r="H149" t="n">
+        <v>3.798371880186028e-05</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.003600569222215721</v>
+      </c>
+      <c r="J149" t="n">
+        <v>8.974945283397129e-05</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.9926859250707959</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>RUG136</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.9880431251819445</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.0002736216418599869</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6.304037358731933e-05</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.002371418918846939</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3.777759038835411e-06</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.0003880271783690407</v>
+      </c>
+      <c r="H150" t="n">
+        <v>5.725143201387124e-06</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.008826616768773164</v>
+      </c>
+      <c r="J150" t="n">
+        <v>2.464703437894155e-05</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.9880431251819445</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>RUG599</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.9964301551866439</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2.299248648143916e-05</v>
+      </c>
+      <c r="D151" t="n">
+        <v>3.039354438057806e-05</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.0004256285152515847</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1.660898651658429e-05</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.0003564455339976656</v>
+      </c>
+      <c r="H151" t="n">
+        <v>8.191102568525096e-07</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.002715308987789492</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1.647648681728335e-06</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.9964301551866439</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>hRUG913</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.9766509163942136</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.000511518977425073</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.0004151487740439814</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.005935904376020601</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.0001727799988548873</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.005649787657626727</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.0001031633803920436</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.01035471341795863</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.0002060670234643605</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.9766509163942136</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>RUG204</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.9811049385209414</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.0001020740965443847</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.0001361219962513191</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.007306137381518255</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2.144294895368871e-05</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.003938742246802365</v>
+      </c>
+      <c r="H153" t="n">
+        <v>5.08471255099762e-07</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.00737182084047132</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1.821349726244744e-05</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.9811049385209414</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>RUG786</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.9253326118608859</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.000858989112510434</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.004769739211061778</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.01927055701059691</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.0004902417225586828</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.007642601671548396</v>
+      </c>
+      <c r="H154" t="n">
+        <v>4.572477736349839e-06</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.0416034773033668</v>
+      </c>
+      <c r="J154" t="n">
+        <v>2.720962973472522e-05</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.9253326118608859</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>RUG533</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.9522563467601872</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.0002521032523184758</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.0001300532741787915</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.01999398374697995</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.0002364759745917343</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.0068445870347419</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.0004159945246650537</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.01955965063077569</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.0003108048015611011</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.9522563467601872</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>RUG413</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.9971114122626726</v>
+      </c>
+      <c r="C156" t="n">
+        <v>7.435254882445344e-07</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.0003359251035984065</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.0006198029317521171</v>
+      </c>
+      <c r="F156" t="n">
+        <v>7.078451049508145e-09</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.000414237597447014</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1.966959553084274e-07</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.00151696018986641</v>
+      </c>
+      <c r="J156" t="n">
+        <v>7.146147689229692e-07</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.9971114122626726</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>RUG839</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.9967206978950155</v>
+      </c>
+      <c r="C157" t="n">
+        <v>4.811736371877689e-05</v>
+      </c>
+      <c r="D157" t="n">
+        <v>5.420676451059448e-05</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.001198629797846042</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3.158155342800132e-06</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.0007147504768353402</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1.939062457302245e-06</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.001249808826095693</v>
+      </c>
+      <c r="J157" t="n">
+        <v>8.691658178034266e-06</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.9967206978950155</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>RUG403</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.9771109005327102</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.0004600641813409181</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.0004421488196378394</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.007318243806045775</v>
+      </c>
+      <c r="F158" t="n">
+        <v>7.524869373086955e-06</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.002242983873561226</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.0006894688335723281</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.01077365152789223</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.0009550135558664235</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.9771109005327102</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>RUG137</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.9629481069143017</v>
+      </c>
+      <c r="C159" t="n">
+        <v>3.449817961282867e-05</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.0008256695346993186</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.02428516822291158</v>
+      </c>
+      <c r="F159" t="n">
+        <v>4.060562400232303e-08</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.003217560178534157</v>
+      </c>
+      <c r="H159" t="n">
+        <v>3.463980023957378e-06</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.008636684341844668</v>
+      </c>
+      <c r="J159" t="n">
+        <v>4.880804244791513e-05</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.9629481069143017</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>RUG504</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.9605212045375922</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.0004167113398617946</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.001119192341003365</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.008400688285915095</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1.671622779650733e-05</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.01192943551305535</v>
+      </c>
+      <c r="H160" t="n">
+        <v>4.500755404514834e-06</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.01354780027724802</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.004043750722123342</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.9605212045375922</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>RUG571</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.9968408129651313</v>
+      </c>
+      <c r="C161" t="n">
+        <v>3.410804646480625e-06</v>
+      </c>
+      <c r="D161" t="n">
+        <v>3.796051132491344e-06</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.001391805255020676</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1.599889585395622e-06</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.00057275880161866</v>
+      </c>
+      <c r="H161" t="n">
+        <v>3.429453237882126e-07</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.001183573658218455</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.8996293227598e-06</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0.9968408129651313</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>RUG317</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.9930985621692349</v>
+      </c>
+      <c r="C162" t="n">
+        <v>7.211429355720045e-05</v>
+      </c>
+      <c r="D162" t="n">
+        <v>6.762358735868246e-05</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.001895464811663174</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2.786968281213425e-06</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.0004916886962883779</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1.139732223587833e-06</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.004350177461005361</v>
+      </c>
+      <c r="J162" t="n">
+        <v>2.044228038750816e-05</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.9930985621692349</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>RUG815</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.9458763578297915</v>
+      </c>
+      <c r="C163" t="n">
+        <v>6.50057651765814e-05</v>
+      </c>
+      <c r="D163" t="n">
+        <v>5.59323911036402e-05</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.01376343171610665</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.000976677604508406</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.01214136049164105</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.000180188931676357</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.02629697733203845</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.0006440679379574089</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.9458763578297915</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>RUG069</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.9651917705891268</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.0006498153637516372</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.007533349182718066</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.008357431561746138</v>
+      </c>
+      <c r="F164" t="n">
+        <v>4.398038757371498e-06</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.006061338454662365</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.0001712845566868696</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0.01182007089373526</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.0002105413588154267</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.9651917705891268</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>RUG073</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.9695043170923695</v>
+      </c>
+      <c r="C165" t="n">
+        <v>4.354187065133646e-05</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.001815124410732205</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.01463761045868838</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.0001125125085603528</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.003407232308626671</v>
+      </c>
+      <c r="H165" t="n">
+        <v>2.078467949067403e-07</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.01046718761745853</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1.226588611820191e-05</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.9695043170923695</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -53338,7 +61128,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -54774,7 +62564,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -59954,7 +67744,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -62287,7 +70077,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -68337,7 +76127,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -70862,7 +78652,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -72588,7 +80378,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -78826,6 +86616,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs/o__Bacteroidales.xlsx
+++ b/outputs/o__Bacteroidales.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet name="glv-t-glv" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="o__Bacteroidales_pred-t" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="o__Bacteroidales_pred-t-p" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -44859,4 +44860,9450 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N196"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>RUG152</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2166412345618637</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.971415424163423e-05</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0004581946340266629</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.053755055745511e-05</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.002685059120781489</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.769186049912814</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.004728432080376264</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.555346523351409e-06</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.002645158201559698</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0001076348272701144</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.003443429609985677</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.769186049912814</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>RUG419</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9825435605044526</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0004304102303554015</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002066190971959627</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0004782562032801199</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.005961493439535509</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.872897987360607e-08</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.001799669193000796</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.773865123149814e-08</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.004216927990298227</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.893866201499819e-05</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.002484506337471777</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9825435605044526</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>hRUG908</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.996433089495784</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.304862583197688e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0006036102411798998</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.000108693629954437</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0009535381460005128</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.222980017863279e-08</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0002374010788851796</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.209753524611386e-08</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.000756158901808517</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.010689315740585e-05</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0008143186600626008</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.996433089495784</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RUG459</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9666717089887825</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.004186249171478077</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00102190321143633</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.715094022578803e-05</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.002235648921785545</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.105994054625978e-08</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.005372378124960622</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.516231355345107e-07</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.004686859762070656</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.092122963695351e-05</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.01567686696654741</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.9666717089887825</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>RUG577</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9938188025449234</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0004078769112078407</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0002824650475953492</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.488162220576264e-05</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.00131334959218275</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.530338173462162e-08</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0008411709747156082</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.671111609880305e-09</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.002628942158992965</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9.070256502537657e-07</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0006115801480325269</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.9938188025449234</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>RUG431</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9973859886767623</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.790475873872445e-05</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.253249556320714e-05</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.257605749056695e-05</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0007124235857373508</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.365063416685992e-06</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0003974540732276946</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.338425996159671e-07</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0009469617801843629</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.396010979762892e-06</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0004698636552996655</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.9973859886767623</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>RUG446</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.858139904457585</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.675171225632953e-05</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0004353677183096576</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.002918900237702837</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.09512917937850629</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.407900765953557e-08</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.01037587448365767</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.764453172367273e-10</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.007563380752968757</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7.821356302748738e-05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.02533240344053299</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.858139904457585</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>RUG318</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9590862791845289</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.000675403147018967</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.001450807150768118</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.320066458518189e-05</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02341899651994238</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8.899841721977558e-08</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.003121961352217141</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9.087754196366235e-07</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.008398748867380446</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.377194818474116e-05</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.003779833391537119</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.9590862791845289</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>RUG483</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9567398125357035</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.987781794025802e-05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.626189580533149e-05</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.017108148728769e-05</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.02300967288622652</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.440050684851101e-08</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.006960374819010452</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.199811955960426e-07</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.008937548514736432</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.020274751750442e-07</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.00424509403991259</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.9567398125357035</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>RUG326</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.03624665147886911</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.004751890233187745</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0008604620125484636</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.001461835620800789</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9105424185210729</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.068188779735607e-07</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.01191871167832233</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.486169500372794e-05</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.00536421021297699</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.179370744908619e-05</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.02881695802089079</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.9105424185210729</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>hRUG906</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9187419670764699</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0001184351032053319</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.004549641776772265</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.01367479412067958</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.05050962152997557</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.709427181407084e-07</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.005823437588979017</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.008865954527138e-09</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.003362361406904365</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0002559274511317975</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.002963635994298178</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.9187419670764699</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.2053098364489765</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.281752896710694e-06</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.009936925963069179</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7212095429574176</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.02595592397498971</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.358961955482393e-06</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.02116877875794615</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.196573127161692e-08</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.006345690577003554</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0002394640573507733</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.009828184582662996</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.7212095429574176</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>RUG339</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9924441323707519</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.000516486268533449</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0001552579212557681</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0001606374641252804</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0008689845890479669</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.965688655729954e-08</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.001780747196201416</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.077388843020952e-07</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.002109566982529132</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.212949390244113e-05</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.001941910317882095</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.9924441323707519</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>RUG417</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2951391174942722</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0002087471376477577</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.01364497299012406</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.007228237779462915</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5528571410763877</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0009823923656874312</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.06826412734580936</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.483100057143096e-06</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01255879561541343</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.000217166807108633</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.04889481828802916</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.5528571410763877</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1959854470038327</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.332658460414587e-07</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.00149367197423172</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5781552578226566</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1093000631649034</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.916396590936496e-08</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.08554966980383286</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8.550662805961122e-10</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.02117605687937658</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0002262652412895578</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.008113414824998274</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5781552578226566</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4901979601372239</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0001253019590897684</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.01066176238254787</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.4534475241730177</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0111075362018732</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.445696944935734e-05</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.009489335570540885</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.580426888600331e-07</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.006460315798598396</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0009955119942625494</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0174801367707074</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.4901979601372239</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>RUG500</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9452545458896393</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.384336792796563e-05</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6.277581313620309e-05</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.682864217650337e-05</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.02407271630193945</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8.334881649567513e-07</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.01416985263655289</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.535637229427869e-06</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.01410172652084938</v>
+      </c>
+      <c r="K18" t="n">
+        <v>8.857806942335594e-06</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.002226483895441578</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.9452545458896393</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>RUG273</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9792298440632698</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.349975675761764e-05</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.007479003031715567</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.473461147496498e-05</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.006050025177081263</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6.474829842277922e-06</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.003276711140241912</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.049163108773612e-07</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.001319336213542946</v>
+      </c>
+      <c r="K19" t="n">
+        <v>7.506122510770022e-06</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.002582760137252178</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.9792298440632698</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>RUG307</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9783448398435735</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0006628042192920555</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0006258408923013439</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0008240511043480886</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.006902311137072157</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.000239732201958691</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.003252604679660013</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.203212695746749e-06</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.00185499132167145</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.762796760456937e-05</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.007249993419822561</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.9783448398435735</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>RUG397</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9313057454523603</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0005237171196718481</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.006817501992331962</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0002399660229263659</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.01670371554621582</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.016447392285109e-06</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.003595771984695665</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7.023539304154355e-07</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.004578848664816034</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.525274529491118e-05</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.03618476167036432</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.9313057454523603</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>RUG569</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9982423345788115</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.909671209803504e-05</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0001866399105315691</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6.418418741079047e-07</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0003354396546424834</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8.793692707439519e-09</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0001766769671811168</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9.321811277379314e-08</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0006957832196517861</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0001224233237005363</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0002008617797033365</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.9982423345788115</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>RUG474</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9973100387860669</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.131754774654039e-07</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.025466591051458e-05</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0009874948999483951</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0005543863336945296</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6.989081431455529e-14</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0004619835215314424</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7.051971319949676e-14</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.0003607241680198192</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.763125681542146e-06</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0002932413235290044</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.9973100387860669</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>hRUG897</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.937398757804016</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.979237957856522e-05</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0001640080220892714</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.003155626523640427</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.009635188257087193</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.259600945088584e-05</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.02664068517732494</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.210599321543989e-07</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.01063893477625263</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0009651424373051288</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.01128874755332278</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.937398757804016</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>RUG323</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.3234971278776398</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01939915898424881</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.07566299771560636</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.002654674784337778</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3316430181086363</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.002670242437593513</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0489800463222823</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.372002344922944e-05</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.04688951400557557</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0004730025849991418</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.1481164971556312</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.3316430181086363</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>RUG367</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8211952840614549</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0001696039997121953</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.001147161113512747</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.001424005960627935</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1161039605965938</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.08872627319579e-06</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.01585983925377844</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.956058025773039e-06</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.02265792601657298</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0004619915098761521</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.02097618270357184</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8211952840614549</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>RUG538</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1157188834804126</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.005760240178541088</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.003910853335422185</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0180162029293109</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.2249533665144186</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.121380176320016e-06</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.09480173030159428</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0001062569584313585</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.04813900988879086</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.007767003144889535</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.4808253318880123</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.4808253318880123</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>RUG153</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.02210626262589934</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0003333706778001525</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.001180938656410469</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.001146513114336644</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9328833685562447</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.44301587167724e-05</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.009840235259160767</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.695827629782084e-06</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.002805651378634963</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.299488371393174e-06</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.02967523425679519</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.9328833685562447</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>RUG429</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1693792072908757</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.001426440008930689</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.01645378489330831</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.005265397742812898</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.7222468142905157</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.830805647049238e-05</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.01794298971496727</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.083430571785595e-05</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.00585650827990659</v>
+      </c>
+      <c r="K29" t="n">
+        <v>9.527680221015006e-05</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.06127443861428425</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.7222468142905157</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>RUG144</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9931805561496464</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.000481403473977313</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0003434390666656514</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0001350504818550719</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.002793241439237504</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.067537214878354e-07</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0007096238543859856</v>
+      </c>
+      <c r="I30" t="n">
+        <v>8.734102409867929e-08</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.001449422842824604</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0001450053432496428</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.000761663253412182</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.9931805561496464</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>RUG423</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9588579232623173</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0005008859693304726</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.004129385918360102</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.001099629447364106</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0140130733214623</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.407468968604329e-05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.004888888553835859</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.262733280323488e-08</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0130156337348573</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0006637335207021677</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.002796748954751486</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.9588579232623173</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>RUG407</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5134089487201243</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0007065223776793367</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.3598968023338139</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0002732799161858061</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.06913683639468871</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.252605789521979e-05</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.01451060795939078</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.308498678407301e-06</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.007131789893935193</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.001268171081589069</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.03365220676601927</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5134089487201243</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>hRUG858</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9929619658923943</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0001346370109585829</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.001637065193128778</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.000902335525796303</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.001167805475960833</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.11135276764787e-06</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0009941134334367581</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9.083644005835633e-10</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.001908807795517439</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.898575486255816e-05</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.000273171656812399</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.9929619658923943</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>RUG168</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9951253747537071</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0004599649085927448</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4.888285711761999e-05</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6.476001456591543e-06</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0008099685776986983</v>
+      </c>
+      <c r="G34" t="n">
+        <v>9.734247698512497e-07</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0006164060209934356</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6.624687984011267e-09</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.001453660222275251</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4.493318771220809e-07</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.001477837276823641</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.9951253747537071</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>RUG242</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9535435781160591</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.005099587346833001</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.004823307292928527</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5.435010227316886e-05</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.01318001066904439</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.678421960997886e-07</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.00604197810638446</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.824162755640835e-06</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.006639937787169503</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.425052971652139e-05</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.01058900804463941</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.9535435781160591</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>RUG106</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.9972721459803319</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.578712272999694e-05</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0001265285420312795</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.000226079391194376</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0006671357413314883</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.214230557164491e-07</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0006984868480039849</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.651508373433816e-09</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.0006608715545148796</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.529602469341016e-05</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0003175457206044484</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.9972721459803319</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>RUG259</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9940195398566078</v>
+      </c>
+      <c r="C37" t="n">
+        <v>9.73547058050527e-05</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0002146145744075439</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.587138858980224e-05</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.003185189467054743</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.124803212063458e-06</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0004846922547715881</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7.982300807410294e-08</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.00104100909101307</v>
+      </c>
+      <c r="K37" t="n">
+        <v>8.835195153272649e-07</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0009296405160148108</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.9940195398566078</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>RUG739</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.45845691850417</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.01307409839284922</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.01566634749497922</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.008460744773328857</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.346510728614934</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02489604074637493</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.06707200430389426</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.655298001935336e-05</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.02799712038794091</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0002627685325841945</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.03757667526892489</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.45845691850417</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.04416572037629379</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9.032199216908677e-07</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.002869438168911654</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.919416757754536</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.02062695226038874</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.266503615134525e-09</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.005936266961990171</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.306867776713234e-09</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.003887903126435083</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.745057662450868e-06</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.003094307500488997</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.919416757754536</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>RUG488</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.9934419506351528</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.000117707863302523</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0005787006323196213</v>
+      </c>
+      <c r="E40" t="n">
+        <v>8.875536846247357e-05</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.003329751757101983</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.351597493970941e-07</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0004710217652587228</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.463388900487446e-08</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.0006747127647366121</v>
+      </c>
+      <c r="K40" t="n">
+        <v>7.135699711486393e-07</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.001296425850055639</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.9934419506351528</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>RUG085</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.988560847958648</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0005843089314353449</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0008709604631253647</v>
+      </c>
+      <c r="E41" t="n">
+        <v>9.258536007731876e-05</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.003978480485714701</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4.609395123452907e-06</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.002327710411332621</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.028084531413227e-08</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.002456991475938184</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.652644430072914e-07</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.001123299973316774</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.988560847958648</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>RUG156</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4100574337074682</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.003405707065686542</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.008730535584314164</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.003588103078409757</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.4442907981474405</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.000369192620959507</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.04448923620178712</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.721705173185963e-06</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.01228205730632908</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0003279018481917078</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.07245631273424011</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.4442907981474405</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>RUG647</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9797112895963802</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0005390013844765711</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0001126657572891982</v>
+      </c>
+      <c r="E43" t="n">
+        <v>6.281961041767159e-05</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.003589148232556134</v>
+      </c>
+      <c r="G43" t="n">
+        <v>6.431759164362999e-05</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.002992043231068379</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8.871196947678227e-06</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.002508591679793788</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0001295534349612651</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.01028169828446568</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.9797112895963802</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>RUG733</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9773614384696119</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.285737184195524e-05</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.903791960363386e-05</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.272561006205029e-06</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.01066597308312503</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.483593130902568e-07</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.007428655907313418</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.263121956831428e-08</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.003026266977682868</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.390908782355309e-05</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.001458427631458601</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.9773614384696119</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>RUG064</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9969632797478534</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.164861356572297e-05</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.00027297898366561</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.788371384785394e-05</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.001640054856416433</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7.428889455859653e-06</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0005937611826831855</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.096927731147128e-07</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.0002838911971855573</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.041393808236487e-06</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.000206821728745049</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.9969632797478534</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>RUG849</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.980783416759074</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.0008234296879876111</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.001982026316717904</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0002676379155679915</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.001289587776958784</v>
+      </c>
+      <c r="G46" t="n">
+        <v>6.57063831486587e-07</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.003525820027961124</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.978429525347391e-08</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.001453574118994986</v>
+      </c>
+      <c r="K46" t="n">
+        <v>7.89068558807407e-07</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.009873021480052112</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.980783416759074</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>RUG216</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9001492589969534</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0003112878246379137</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.001393308684040816</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.002238046948721765</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.03256046328383497</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.091524015612933e-07</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.007400111312499093</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.932376267897e-08</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.002877497915187083</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4.910678093223391e-05</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.05302077977702844</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.9001492589969534</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>hRUG893</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9968504296115944</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.12956059824435e-05</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0007086736627423078</v>
+      </c>
+      <c r="E48" t="n">
+        <v>8.592487196956948e-06</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.001073844320244765</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.866700127581919e-07</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0007785571892024282</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.780640832537474e-08</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.0003126688345906689</v>
+      </c>
+      <c r="K48" t="n">
+        <v>5.112764073306633e-08</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.0002355826843840759</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.9968504296115944</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>RUG200</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.9864030637998362</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3.735001687412553e-05</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.89052827747445e-05</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.376094606586999e-05</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.009484350734781061</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3.171864095151945e-08</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0009768499091258344</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.517127876355698e-08</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.001352466817341216</v>
+      </c>
+      <c r="K49" t="n">
+        <v>5.007172551260309e-06</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.001708188430730009</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.9864030637998362</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>RUG083</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.1838953161780903</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.05453990749328081</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.07624712462553336</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.002490125347574962</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.1323544935058434</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0006104871498496297</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.1377708295722568</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.001645791049930342</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.05551471449512194</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.01165453846568148</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.343276672116837</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.343276672116837</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>RUG309</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9979066149262312</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6.614949655781394e-05</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0001120106215173443</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4.654267603849838e-05</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0005055393939448</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.089394273104751e-08</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.0002350121197891809</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.09711606675705e-08</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.0005009912004553011</v>
+      </c>
+      <c r="K51" t="n">
+        <v>4.027326933723789e-08</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.0006270674270932097</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.9979066149262312</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>RUG550</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.9896103369827572</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.001041538341051633</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.001000266091584425</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0008844254567882318</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.003246027405703995</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3.54867384315422e-06</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.002431122871948878</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3.101385077449039e-08</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.0009111454255884558</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1.202387535036066e-05</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.000859533861532869</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.9896103369827572</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>RUG360</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.228650416956714</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.01369078623345626</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.01371851572739416</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.01066420532184779</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.5734643175693619</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0001403423164425479</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.02390916445043477</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.338687021751366e-05</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.05117011534905048</v>
+      </c>
+      <c r="K53" t="n">
+        <v>5.467739476768065e-05</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.08451407181031291</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.5734643175693619</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>RUG782</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9966556753404998</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2.350621119173788e-05</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0005377519919830087</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.589969093972858e-06</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0008281103781806683</v>
+      </c>
+      <c r="G54" t="n">
+        <v>7.818397865310045e-08</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0006510328941692247</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.216683637774922e-09</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.0004733051745845554</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2.373258486026388e-06</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.0008235743811486928</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.9966556753404998</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>RUG003</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9619166741864742</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.0007377137357783578</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.002619712919020293</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.595836431953843e-05</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.01127937310398107</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.726325479191872e-05</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.005956855245301886</v>
+      </c>
+      <c r="I55" t="n">
+        <v>6.673652568064328e-06</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.002732664219158821</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.0004958732267293089</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.01420123809187666</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.9619166741864742</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.0487385018045044</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.896972169582779e-06</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.003622719016808332</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.7788660053219353</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.09032218476210825</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.555394193151948e-07</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.04691019748744611</v>
+      </c>
+      <c r="I56" t="n">
+        <v>4.794332360011388e-09</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.0115563986655127</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.0007374470059339092</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.01924338862982967</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7788660053219353</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>RUG535</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.9931071269819489</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0001899472987876259</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.000566969126145613</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5.591712854478587e-05</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.003040933593969017</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.703157209698627e-07</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.001015675147401096</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.78840108863409e-07</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0006277021231012063</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1.059800840554865e-07</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.001395173464187825</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.9931071269819489</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>RUG315</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9989898686703015</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3.765185149825984e-06</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7.244872403137662e-05</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.919222303373566e-05</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0001247884134176386</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4.018422019639604e-10</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.0002022254578683855</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.564522624703171e-10</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.0004786752126147316</v>
+      </c>
+      <c r="K58" t="n">
+        <v>5.005375763542234e-07</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.0001085350177116642</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.9989898686703015</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>RUG392</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.0001307353826103271</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4.125554621552442e-07</v>
+      </c>
+      <c r="D59" t="n">
+        <v>9.28739918412921e-06</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.000630469668512831</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.00043271608723089</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3.114562148068326e-07</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.0006510886514392238</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.873501635638748e-06</v>
+      </c>
+      <c r="J59" t="n">
+        <v>8.079511056965436e-05</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.997815726166542</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.0002455840205983484</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.997815726166542</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>RUG108</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.9913562013288444</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.001027468400600738</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.0002026541472721172</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0001083614804087768</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.00236553436170312</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4.327401076775531e-05</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.001267517433054101</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7.671448734975013e-07</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.002247729204616424</v>
+      </c>
+      <c r="K60" t="n">
+        <v>4.0641826534912e-06</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.001376428305205588</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.9913562013288444</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>RUG541</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.987124130537151</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6.363446946503523e-05</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.001882221938555772</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0001476793931628566</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.00591760423908522</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.169927381852712e-07</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.00140730113705003</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.253941730419506e-08</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.002449900774863551</v>
+      </c>
+      <c r="K61" t="n">
+        <v>8.437063277756947e-06</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.0009989609152334861</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.987124130537151</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>RUG461</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9850645871195214</v>
+      </c>
+      <c r="C62" t="n">
+        <v>9.875855954525986e-05</v>
+      </c>
+      <c r="D62" t="n">
+        <v>9.560449223781275e-05</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.742250994352254e-05</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.002259779242183457</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5.064822314104255e-06</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.001345075843559709</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.147621298598757e-08</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.008844593271977286</v>
+      </c>
+      <c r="K62" t="n">
+        <v>8.96189508774905e-06</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.002240140767416593</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.9850645871195214</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.06717788240668193</v>
+      </c>
+      <c r="C63" t="n">
+        <v>8.27493370003623e-06</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.00506017691674831</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.7101237017333529</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.179884761326418</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3.114183756578485e-08</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.01662960922124365</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.257739330304023e-07</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.005552412815068446</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.0001712199362078417</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.01539170379480819</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.7101237017333529</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>RUG250</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.00279977212158045</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4.554468683785716e-06</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.440787419875439e-05</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5.431935902321904e-06</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0003137673752417404</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4.711332825296921e-10</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.0009505508417036432</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.734808614531891e-12</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.0002608665521563428</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.9945947268447606</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.001055921512904225</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.9945947268447606</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>RUG546</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.9856984073346572</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.0001077677530984428</v>
+      </c>
+      <c r="D65" t="n">
+        <v>9.291371157139153e-05</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0001698674249700595</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.005136775335374052</v>
+      </c>
+      <c r="G65" t="n">
+        <v>7.132761634709223e-06</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.002356923688569366</v>
+      </c>
+      <c r="I65" t="n">
+        <v>4.458306774739427e-07</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.002922215748031558</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1.881054682806316e-06</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.003505669356733009</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.9856984073346572</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>RUG195</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.9498494075765074</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.002629829036323425</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.006493932174353568</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0001579072647505686</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.01500829918415832</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.638683038718577e-06</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.006384429022007801</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.60006566656331e-06</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.007685896200054232</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.0003386127721340668</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.01144844802100543</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.9498494075765074</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>RUG660</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.9627937152355116</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.0002463802513858667</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.004922744120471381</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0003622499942266805</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.01523686825169441</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.752885385626373e-06</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.004599484285297191</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5.300237541313168e-06</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.004294457464117769</v>
+      </c>
+      <c r="K67" t="n">
+        <v>8.039945495821486e-05</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.007452647819409885</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.9627937152355116</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>RUG734</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.06417320928327733</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.03731011235414349</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.0662665177716813</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.004654274832505076</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.2137889321337575</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.657128404712405e-06</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.09814635567468982</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.0004269225956434086</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.01495002272538441</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.0007967631317577618</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.4994852323687551</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.4994852323687551</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>RUG061</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.6266850575236976</v>
+      </c>
+      <c r="C69" t="n">
+        <v>7.692729826100625e-06</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.000105129452351301</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.002157939326634414</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.3073054912220457</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.163014182795866e-07</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.02591506422648466</v>
+      </c>
+      <c r="I69" t="n">
+        <v>8.671951353846468e-07</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.01563839302143746</v>
+      </c>
+      <c r="K69" t="n">
+        <v>6.685312442917338e-06</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.02217756368852611</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.6266850575236976</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>RUG280</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.8705387084645149</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.0001073429469718075</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.01520792729140054</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.01160493377149035</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.03770157071882339</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.525745825209845e-08</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.01895709315680507</v>
+      </c>
+      <c r="I70" t="n">
+        <v>5.409826601233376e-08</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.01086009604261528</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2.318887680450379e-05</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.03499906937485016</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.8705387084645149</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.06498737473553946</v>
+      </c>
+      <c r="C71" t="n">
+        <v>8.914089463681203e-07</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.0002207753306575207</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.750759515268554</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.01464241548329029</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2.006414114876764e-07</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.1487338910982545</v>
+      </c>
+      <c r="I71" t="n">
+        <v>6.500587789172307e-11</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.01362810281756253</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.00168895384266931</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.005337879308108636</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.750759515268554</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.02321037444518604</v>
+      </c>
+      <c r="C72" t="n">
+        <v>7.459425149478134e-08</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0003801960704191656</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.8535368686432018</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.07694392753904894</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3.169890081326608e-09</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.0317670239274996</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2.46580707335189e-09</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.008287798221566563</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.0001732388911276334</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.00570049203200162</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.8535368686432018</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>RUG614</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.9899066582762266</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3.541357015059615e-05</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.0001540959345754438</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0001622496985528395</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.001218560850246927</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2.116149115543745e-06</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.003099868334469695</v>
+      </c>
+      <c r="I73" t="n">
+        <v>6.498162780004605e-08</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.004104103910075584</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2.381273516651647e-05</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.001293055559792441</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.9899066582762266</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.04098152745861518</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4.896797772484715e-07</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.001560019802849073</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.9160748781749399</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.01904487353080347</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.003225320442955e-06</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.01540466841302922</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5.728938142465305e-10</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.002044802213225378</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.0003268855999779186</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.004560851328568397</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.9160748781749399</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.0008995931737006029</v>
+      </c>
+      <c r="C75" t="n">
+        <v>8.689537904586412e-08</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.001070082886531329</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.9912895412317833</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.002668422558868958</v>
+      </c>
+      <c r="G75" t="n">
+        <v>9.814038656284732e-09</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.001830223500752823</v>
+      </c>
+      <c r="I75" t="n">
+        <v>4.230559885590193e-11</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.0004565516091753093</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.0003727784020775451</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.001412709885386912</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.9912895412317833</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>RUG539</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.3312087075664198</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.01441854891269786</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.01545176033807162</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.009795005138274374</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.3513882614500835</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.005943139834216166</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.1104438686691278</v>
+      </c>
+      <c r="I76" t="n">
+        <v>7.309201087219199e-05</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.05604981142131002</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.001224538013056408</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.1040032666458704</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.3513882614500835</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>RUG676</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.3148298979317277</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.0009130149209361859</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.3776234938443686</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.001764166316422585</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.1058612409155991</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2.963037429741974e-08</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.07866385004516763</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.137533807476792e-06</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.02231846051783756</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.001348846483518892</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.09667586186024028</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.3776234938443686</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>RUG742</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.8841121304228264</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.0004303619126125916</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.0009835692682054486</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0003869423745952015</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.05825752260506929</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.001285114365108078</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.01563190335015157</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2.352719840336473e-05</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01100361797291336</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0008063339580172156</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.02707897657209745</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.8841121304228264</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.1042438447273348</v>
+      </c>
+      <c r="C79" t="n">
+        <v>4.958961237666275e-08</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5.334678771217115e-05</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.8668023973553499</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.006736020693397918</v>
+      </c>
+      <c r="G79" t="n">
+        <v>7.983856532575301e-10</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.01189089291104188</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1.136972196131473e-11</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.00714051581361706</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1.328017585363231e-05</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.003119651136324795</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.8668023973553499</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>RUG197</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.2083240558548176</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.00102704427377703</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.01616961292218684</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.4190385232886507</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.2589976092284091</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5.493361436141355e-06</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.03471797683546539</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1.461525495233417e-06</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01435434340391407</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.0001225585055453797</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.04724132080030249</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.4190385232886507</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>RUG046</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.8882843921147883</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.007174842363508847</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.01029403588750043</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.004677754958466901</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.03410682642410438</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.002327406478320037</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.01858799571389929</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.0001947162924678755</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.02119330730125583</v>
+      </c>
+      <c r="K81" t="n">
+        <v>7.447272771787899e-05</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.01308424973797032</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.8882843921147883</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>RUG445</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.9977788728973296</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.0001363852375614406</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2.319323206386711e-05</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.374166560184547e-05</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0007360026929436464</v>
+      </c>
+      <c r="G82" t="n">
+        <v>4.467470347794238e-07</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.0003470650138118272</v>
+      </c>
+      <c r="I82" t="n">
+        <v>5.309786320089535e-07</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.0003989810387362146</v>
+      </c>
+      <c r="K82" t="n">
+        <v>3.594479792352498e-06</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.0005611860164924541</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.9977788728973296</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>RUG435</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.9954828582769677</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.0006552930162731972</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.0002552087532453267</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.388352762487045e-05</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.000879128641998638</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0001354312516875597</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.000739618215773752</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1.663142481109292e-07</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.001193268898821288</v>
+      </c>
+      <c r="K83" t="n">
+        <v>8.599499530108093e-07</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.0006442831534063773</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.9954828582769677</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>RUG828</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.9879287736313709</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.0004019958181900001</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.001663006072276056</v>
+      </c>
+      <c r="E84" t="n">
+        <v>8.363903594909079e-05</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.002821188252709818</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0003058940344780018</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.002234187560969316</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1.185402751170446e-05</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.001807691013861658</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1.4005158531032e-06</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.002740370036830299</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.9879287736313709</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>RUG172</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.9987681664573965</v>
+      </c>
+      <c r="C85" t="n">
+        <v>8.848179851585192e-05</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2.688616943127733e-05</v>
+      </c>
+      <c r="E85" t="n">
+        <v>4.969065536343036e-06</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.000671195971337154</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3.967025801143638e-06</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.0001161731674791405</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4.387652039724722e-08</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.0002352557044777486</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1.097881062582622e-07</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8.475097539832022e-05</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.9987681664573965</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>RUG716</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.0154356467809618</v>
+      </c>
+      <c r="C86" t="n">
+        <v>8.123639475995772e-05</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.0002710287851190424</v>
+      </c>
+      <c r="E86" t="n">
+        <v>9.924311818724299e-05</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.002543569977703195</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.9766522358181253</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.002093065460701249</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5.510631938123564e-06</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.001516839530170052</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.0001334891487283652</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.001168134353605559</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.9766522358181253</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>RUG264</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.06212728487664712</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.006506625729792443</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.008599262702203125</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.001465213717918618</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.7791220164278254</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0002166020063619552</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.09702951359261629</v>
+      </c>
+      <c r="I87" t="n">
+        <v>5.564743213582363e-07</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.008056614325713715</v>
+      </c>
+      <c r="K87" t="n">
+        <v>4.963884551936015e-05</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.03682667130108075</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.7791220164278254</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>RUG169</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.9790434735130528</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.0003345934094095619</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.004068495987497375</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0001437992966635484</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.01183555485690213</v>
+      </c>
+      <c r="G88" t="n">
+        <v>9.57102961839456e-05</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.002709032034274971</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1.796670651288342e-06</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.0007392362316176305</v>
+      </c>
+      <c r="K88" t="n">
+        <v>7.87998768018894e-05</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.0009495078269449714</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.9790434735130528</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>RUG030</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.9911443904994255</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.0004007878785149623</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.0001589771382467278</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.294255414725101e-05</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.004559837927830328</v>
+      </c>
+      <c r="G89" t="n">
+        <v>3.180338313011846e-07</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.0009105302282588661</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4.277239188076388e-07</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.001826511671431551</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1.425015313910142e-05</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.0009610261912558894</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.9911443904994255</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>RUG037</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.9457269686188134</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.000690929130056881</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.006585936164940887</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4.133066787339473e-05</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.01775540708574298</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.001317987607852285</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.009070402075715831</v>
+      </c>
+      <c r="I90" t="n">
+        <v>4.711475876994557e-06</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.003642623648066055</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1.055272331020431e-05</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.01515315080175113</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.9457269686188134</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>RUG184</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.04013120627206015</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.003216907755974603</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.005890300786438286</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.01515223669148661</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.8749306711078321</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1.239281843949329e-06</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.02029300444431983</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3.180280336134871e-06</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.004078498452989183</v>
+      </c>
+      <c r="K91" t="n">
+        <v>4.70843730207432e-06</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.03629804648941719</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.8749306711078321</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>RUG711</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.9263503612107705</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.001604043994198486</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.002815915932011616</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.0008211462609534139</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.005987566907447333</v>
+      </c>
+      <c r="G92" t="n">
+        <v>9.590468796355279e-07</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.005045046192657638</v>
+      </c>
+      <c r="I92" t="n">
+        <v>9.607027045194961e-06</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.004697830403550364</v>
+      </c>
+      <c r="K92" t="n">
+        <v>5.663241030903512e-05</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.05261089061417657</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.9263503612107705</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>RUG359</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.3325385808158174</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.02154314327544606</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.0147139169845564</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.07889771334120789</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.3890825703942888</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.003092313454005701</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.08176447245782513</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.0002834619103388175</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02268944318465871</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.000236035532185067</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.05515834864966992</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.3890825703942888</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>RUG788</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.98513498101949</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.0004825679342720716</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.0006592524351956436</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.055449805266095e-05</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.004289961929519919</v>
+      </c>
+      <c r="G94" t="n">
+        <v>5.197018797061441e-07</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.003054342057933146</v>
+      </c>
+      <c r="I94" t="n">
+        <v>5.391923662499899e-09</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.004694858274493095</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1.803454784770243e-05</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.001644922209392357</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.98513498101949</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>RUG210</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.9761821008822463</v>
+      </c>
+      <c r="C95" t="n">
+        <v>7.068921618136827e-05</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.001683723046716051</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.0006389826272871995</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.005470713396539929</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.000179144417428113</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.008174230144102429</v>
+      </c>
+      <c r="I95" t="n">
+        <v>4.498100774431035e-06</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.003449582692127594</v>
+      </c>
+      <c r="K95" t="n">
+        <v>2.169707326596333e-06</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.004144165769270146</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.9761821008822463</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>RUG176</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.9992507674207899</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.124397984208592e-05</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5.380176601846885e-05</v>
+      </c>
+      <c r="E96" t="n">
+        <v>5.048793787688328e-06</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.0002512864158791412</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.667960865318499e-06</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.0001392237736126496</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3.866741448042099e-09</v>
+      </c>
+      <c r="J96" t="n">
+        <v>9.037293066997664e-05</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2.609877281624773e-08</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.0001965569930205073</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.9992507674207899</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>RUG047</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.9937470240958564</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.0006293811416601758</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.0001470559762698159</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.794924810935445e-05</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.0008376389548167535</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3.964686290541747e-06</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.001016070144482022</v>
+      </c>
+      <c r="I97" t="n">
+        <v>4.996042395223008e-08</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.003042724203437291</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2.175614716249566e-06</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.0005559659739375423</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.9937470240958564</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>RUG310</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.995625337155232</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3.111114978520026e-05</v>
+      </c>
+      <c r="D98" t="n">
+        <v>7.737932061204023e-05</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.013698494391876e-05</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.002060781159029375</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2.33428396581808e-07</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.001117131142221947</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1.05659512813946e-07</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.0007862024508551355</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1.283376302938589e-05</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.0002787477863816523</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.995625337155232</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>RUG405</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.9885500474560137</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.0004053635350362406</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.0007137226652653522</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.206213579926994e-06</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.004727803377105626</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0001032688138323088</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.001380454705445561</v>
+      </c>
+      <c r="I99" t="n">
+        <v>9.662358797774225e-07</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.00188083573561991</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1.208270082118944e-06</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.002235122992139267</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.9885500474560137</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>hRUG883</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.8060558650998836</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.00261714002294802</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.01782115306904526</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.04491406095656339</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.01624557965733891</v>
+      </c>
+      <c r="G100" t="n">
+        <v>7.166831121369281e-07</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.02818981116320551</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1.775281591619886e-06</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.03288187061301173</v>
+      </c>
+      <c r="K100" t="n">
+        <v>9.125386958130247e-05</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.05118077358371835</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.8060558650998836</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>hRUG905</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.9707157414099248</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3.091544814553759e-05</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.01458002626727012</v>
+      </c>
+      <c r="E101" t="n">
+        <v>9.297436505413516e-05</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.008060124085466542</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1.379206687540528e-05</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.00156580589023649</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1.46762386525705e-06</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.004294474040422241</v>
+      </c>
+      <c r="K101" t="n">
+        <v>8.226631336908673e-05</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.000562412489370519</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.9707157414099248</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>RUG192</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.5713610370627179</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.002803073602595482</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.00143287741067618</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.0002499277264281345</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.340932816400767</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2.583791421443842e-09</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.01948165955113739</v>
+      </c>
+      <c r="I102" t="n">
+        <v>4.45109205842543e-06</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.009595411331304093</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.0003534944665393742</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.05378524877198452</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.5713610370627179</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>RUG465</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.6601691808966759</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.002459432208475336</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.03169931469273176</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.03222442563965582</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.1104963627177531</v>
+      </c>
+      <c r="G103" t="n">
+        <v>4.512792564672546e-05</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.07458608261853905</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2.20926922235012e-05</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.05747381460971711</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.007228870756395432</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.02359529524218621</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.6601691808966759</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>RUG697</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.9984779994914532</v>
+      </c>
+      <c r="C104" t="n">
+        <v>6.906202239411802e-07</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3.308595937657604e-05</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.0004199669172098276</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.0004181194179286382</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1.380454596208917e-11</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.0002442618887039923</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1.09465106307091e-12</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.0003481366180593696</v>
+      </c>
+      <c r="K104" t="n">
+        <v>7.794943051330708e-08</v>
+      </c>
+      <c r="L104" t="n">
+        <v>5.76611227146837e-05</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.9984779994914532</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>RUG325</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.1790289509934142</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.00285948297149935</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.003374361523746019</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.003261417723898556</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.7250345372112533</v>
+      </c>
+      <c r="G105" t="n">
+        <v>4.363934407226427e-06</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.03507936818786821</v>
+      </c>
+      <c r="I105" t="n">
+        <v>5.366157021285089e-06</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.01901594987091203</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2.905854195000175e-06</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.03233329557178478</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.7250345372112533</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>RUG737</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.02091310269409205</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.0001876098205975332</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.00314264665206855</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.1473597851969042</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.6850106962512678</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2.671452432160527e-05</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.1109564742639649</v>
+      </c>
+      <c r="I106" t="n">
+        <v>8.204215876100921e-07</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.00524558153673425</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.001313738746386387</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.02584282989207516</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.6850106962512678</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>RUG562</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.9995905299030502</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.351115187180852e-07</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2.244093899365245e-05</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.0001009302485575405</v>
+      </c>
+      <c r="F107" t="n">
+        <v>7.024040290867549e-05</v>
+      </c>
+      <c r="G107" t="n">
+        <v>4.657671994277991e-13</v>
+      </c>
+      <c r="H107" t="n">
+        <v>3.841645043196646e-05</v>
+      </c>
+      <c r="I107" t="n">
+        <v>4.120406057466176e-12</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.0001255430664078273</v>
+      </c>
+      <c r="K107" t="n">
+        <v>2.923716828318999e-07</v>
+      </c>
+      <c r="L107" t="n">
+        <v>5.147150186248142e-05</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.9995905299030502</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>RUG292</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.9146644766353974</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.0002543958572006536</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.003340909501351177</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.007007178427404713</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.03193801172536737</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.319894580610232e-07</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.01094116612971699</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2.374362454183283e-08</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.002848016494354887</v>
+      </c>
+      <c r="K108" t="n">
+        <v>3.829680020585769e-05</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.0289673926959183</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.9146644766353974</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>RUG377</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.5887948703033864</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2.128348265933596e-06</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.0005071112213509186</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.0124191313521482</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.3622199198372316</v>
+      </c>
+      <c r="G109" t="n">
+        <v>6.401009965211032e-07</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.0216030857250171</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3.414776969912994e-09</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.005663123950855373</v>
+      </c>
+      <c r="K109" t="n">
+        <v>6.591950368628582e-06</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.008783393795602298</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.5887948703033864</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>RUG473</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.9807030380188253</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.001186223318388021</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.0003491554912161751</v>
+      </c>
+      <c r="E110" t="n">
+        <v>5.090113010766105e-05</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.005563869170589319</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.469470153569521e-06</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.003162307527714261</v>
+      </c>
+      <c r="I110" t="n">
+        <v>6.875115890116682e-07</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.005409317653927823</v>
+      </c>
+      <c r="K110" t="n">
+        <v>4.560092667233059e-05</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.003527429780816563</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.9807030380188253</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>RUG699</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.531656702622603</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.0004726558235725639</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.3084570579961512</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.0001689444783292548</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.1148286879739176</v>
+      </c>
+      <c r="G111" t="n">
+        <v>4.126616664452015e-08</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.008445443354803137</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.32090000365299e-06</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.004388912602456439</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.00737338956486815</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.02420684341712841</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.531656702622603</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>RUG302</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.9888780260661497</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.0004996256301542916</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.0003790661004098079</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.118309250439259e-05</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.00799839350887338</v>
+      </c>
+      <c r="G112" t="n">
+        <v>9.41674153246068e-06</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.000788751681318716</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1.79137202072125e-06</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.0008252832982037901</v>
+      </c>
+      <c r="K112" t="n">
+        <v>7.478733367008005e-06</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.0006009837754656468</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.9888780260661497</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>RUG233</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.9964436466968949</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3.770179572905504e-07</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3.434197030730372e-05</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.0008804999202228149</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.001205373926614983</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.014431574349175e-08</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.0004913526458168585</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3.564478378131452e-11</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.0005484922308391021</v>
+      </c>
+      <c r="K113" t="n">
+        <v>2.879774206335287e-07</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.0003956174339655841</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.9964436466968949</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>RUG649</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.6706134367918725</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.95145663229146e-05</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.00130982165025545</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.001505836524760169</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.3050738145257036</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.092143140048096e-06</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.00536468231383822</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1.874766480020548e-08</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.003651935920141383</v>
+      </c>
+      <c r="K114" t="n">
+        <v>6.160833479393853e-06</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.01245368598282142</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.6706134367918725</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>RUG329</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.009647628579355486</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.003605649550583723</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.01717043674338284</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.003247843651823741</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.8604549456716343</v>
+      </c>
+      <c r="G115" t="n">
+        <v>9.377006596808755e-05</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.0126706201596017</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.0001143502933672854</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.006832630581421048</v>
+      </c>
+      <c r="K115" t="n">
+        <v>2.555367099939868e-05</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.08613657103186236</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.8604549456716343</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>RUG173</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>3.585976052550121e-05</v>
+      </c>
+      <c r="C116" t="n">
+        <v>7.782784175536894e-08</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4.387070224637076e-08</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3.708171407529381e-08</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3.017549140245837e-06</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4.868246900158146e-14</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.345504756554887e-05</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1.285320394788292e-13</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3.717537879637096e-06</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.9999397647159441</v>
+      </c>
+      <c r="L116" t="n">
+        <v>4.026608509552271e-06</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.9999397647159441</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>RUG219</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.9859855817062776</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.0002433157791546643</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.001258529848818306</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9.339654530694252e-05</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.006607585249996025</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.092391040206687e-05</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.002520541998834869</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2.905100361249569e-07</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.002057538718532274</v>
+      </c>
+      <c r="K117" t="n">
+        <v>9.755378704608905e-06</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.001212540353936651</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.9859855817062776</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.006294539569259813</v>
+      </c>
+      <c r="C118" t="n">
+        <v>3.05997985813687e-07</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.0003211048696650644</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.969634779877676</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.005151903796391979</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1.511266393332768e-07</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.01104078851497083</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1.511729933326597e-10</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.00266750521553722</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.0008909944370446539</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.003997926443656099</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.969634779877676</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>RUG079</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.5191384843533344</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.004241350935967468</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.2079860420488648</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.07833394632833468</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0628634928286618</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2.567187202308963e-05</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.03458508949247763</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.0001706112755745475</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.03890506536865864</v>
+      </c>
+      <c r="K119" t="n">
+        <v>8.818109502302446e-06</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.05374142738660063</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.5191384843533344</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>RUG659</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.03733322937782631</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.0005097270150216064</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.002262219630097591</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.01023280251759059</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.8412968438311361</v>
+      </c>
+      <c r="G120" t="n">
+        <v>5.596885156506525e-06</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.02353142439206892</v>
+      </c>
+      <c r="I120" t="n">
+        <v>7.414110648778265e-07</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.006043584324111463</v>
+      </c>
+      <c r="K120" t="n">
+        <v>2.676915905216119e-05</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.07875706145687381</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.8412968438311361</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>RUG469</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.6856181506040711</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.0004217145053862522</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.1800816920077969</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.002788150598261158</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.05239511539742753</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1.85090120516578e-05</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.01711628430805195</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1.525553069806293e-06</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.004795357761210317</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.001323898801701368</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.05543960145097174</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.6856181506040711</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>RUG582</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.9985387171972789</v>
+      </c>
+      <c r="C122" t="n">
+        <v>5.153508265797911e-07</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4.331568264938046e-05</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.0004278413725424588</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.000306559881084457</v>
+      </c>
+      <c r="G122" t="n">
+        <v>5.192535875394357e-13</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.0001563546555486283</v>
+      </c>
+      <c r="I122" t="n">
+        <v>9.594097591379886e-12</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.0002661243463334284</v>
+      </c>
+      <c r="K122" t="n">
+        <v>7.310223982826211e-07</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.0002598404812245302</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.9985387171972789</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>RUG418</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.9969637493231482</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4.659205433995928e-05</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.000258119591952691</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2.616358366447411e-06</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.0005426864855639139</v>
+      </c>
+      <c r="G123" t="n">
+        <v>3.25759514567884e-08</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.0002835153310544731</v>
+      </c>
+      <c r="I123" t="n">
+        <v>6.151618531174716e-08</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.0004614721707881434</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1.338078358628767e-06</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.00143981651429077</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.9969637493231482</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>RUG685</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.9726050473532234</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.0002019136107050087</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.0001705971719585003</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.332573078951022e-05</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.005139903461578311</v>
+      </c>
+      <c r="G124" t="n">
+        <v>5.327206970465622e-05</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.008967502740955872</v>
+      </c>
+      <c r="I124" t="n">
+        <v>2.765441096995779e-07</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.003573058812782148</v>
+      </c>
+      <c r="K124" t="n">
+        <v>3.887174703095131e-05</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.009236230757162072</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.9726050473532234</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>RUG279</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.03087981114608148</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.001565436316513135</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.003115014226203201</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.01812242205172898</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.8857316121620745</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1.70745788376142e-07</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.007043878751192059</v>
+      </c>
+      <c r="I125" t="n">
+        <v>4.188483491886322e-05</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.00491832778225263</v>
+      </c>
+      <c r="K125" t="n">
+        <v>7.441028679398562e-06</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.04857400095456729</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.8857316121620745</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>RUG759</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.9933650541316511</v>
+      </c>
+      <c r="C126" t="n">
+        <v>8.821702578071028e-05</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.0003181835358527621</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.948785799942606e-05</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.002776442640771537</v>
+      </c>
+      <c r="G126" t="n">
+        <v>6.118507006170594e-08</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.0009893245661265727</v>
+      </c>
+      <c r="I126" t="n">
+        <v>6.283720142576853e-08</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.001009683843818915</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1.860205332184078e-05</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.001384880322405545</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.9933650541316511</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>RUG691</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.9775577224513456</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.0001574831549755978</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.001010760255856743</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.000110233778644732</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.008664179455640896</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.0001837226383997157</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.005758924878079322</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3.933411633845399e-07</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.003214995208121589</v>
+      </c>
+      <c r="K127" t="n">
+        <v>4.65989825346436e-05</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.003294985855237736</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.9775577224513456</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>RUG056</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.3683424575034735</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.0003145980461142637</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.01962103843673893</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.3725224930578538</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.216627980223835</v>
+      </c>
+      <c r="G128" t="n">
+        <v>3.105874417424544e-09</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.008512440954392849</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1.389586614962499e-09</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.007796363970458052</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.0004014475878877951</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.005861175723784885</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.3725224930578538</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>RUG124</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.9646570236175769</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.0001729546047896234</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.002439975170602757</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.248280109509068e-05</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.0300270758643499</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2.61667779439731e-05</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.001051528885557502</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1.23857233716211e-06</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.0007724858260249218</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1.823019711439921e-05</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.0008208376826077215</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.9646570236175769</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>RUG324</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.1460039572066347</v>
+      </c>
+      <c r="C130" t="n">
+        <v>7.26509930211917e-05</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.001321465996388719</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.0007572379580394556</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.01072984180134636</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.7538703314429538</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.04596486730574893</v>
+      </c>
+      <c r="I130" t="n">
+        <v>4.890576599032811e-05</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.01722851405379078</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.007986230964209338</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.01601599651187627</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0.7538703314429538</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>RUG390</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.149700278220404</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.002934908890833766</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.01092546499605116</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.0001892079839352782</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.2226394943563293</v>
+      </c>
+      <c r="G131" t="n">
+        <v>8.433660299488189e-06</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.3988849816205578</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1.605100162605339e-05</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.02019283620396042</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.00316050590632574</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.191347837159677</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.3988849816205578</v>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>RUG160</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.9909304275324866</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.0007824485862238583</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.0001788890392154809</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.748801207552588e-05</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.003880284079985952</v>
+      </c>
+      <c r="G132" t="n">
+        <v>3.046447430801535e-07</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.001419576707122941</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2.37951682390518e-07</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.001683518697504946</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1.573859923233358e-05</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.001081086149726854</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.9909304275324866</v>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>RUG587</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.8526373500194546</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.0007029802410796856</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.07160353122103907</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.0006699193767756301</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.04498529249240765</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2.232677530109035e-07</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.005641153116781004</v>
+      </c>
+      <c r="I133" t="n">
+        <v>4.499488281216166e-07</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.005740582918193025</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.0002469489375370741</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.01777156846015112</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.8526373500194546</v>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>RUG624</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.9967560735631046</v>
+      </c>
+      <c r="C134" t="n">
+        <v>7.203675438121292e-05</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.0003782226258894044</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3.570659403231537e-06</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.001829517654162167</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2.597009219256091e-06</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.0003491509307505435</v>
+      </c>
+      <c r="I134" t="n">
+        <v>2.724942844574483e-08</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.0004048717947396247</v>
+      </c>
+      <c r="K134" t="n">
+        <v>5.309376512535297e-07</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.0002034008212702657</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.9967560735631046</v>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.4399925098071113</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.515836046085e-05</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.01208688650620868</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.3196170366428053</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.102523079997497</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1.812235997799538e-06</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.07355709645701097</v>
+      </c>
+      <c r="I135" t="n">
+        <v>6.614983744046311e-08</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.02394247293662125</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.0001189109177207306</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.02814496998872856</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.4399925098071113</v>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>RUG380</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.2631831601378851</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.001581554740095988</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.004813239807270013</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.003572852038608135</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.302427491437464</v>
+      </c>
+      <c r="G136" t="n">
+        <v>6.857952099541235e-05</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.08062128857828024</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.0002180461167270333</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.02381540407652197</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.02546769354787955</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.2942306899982726</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.302427491437464</v>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>RUG209</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.9783421801822086</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.001336917972863979</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.0005562249587462254</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.002183551375600965</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.007358638977328719</v>
+      </c>
+      <c r="G137" t="n">
+        <v>4.086118098919326e-08</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.002916387439116244</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1.390972261047275e-08</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.004265837899326166</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1.44478425986378e-06</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.003038761639645685</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0.9783421801822086</v>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>RUG812</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7170609874516465</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.003533818788757711</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.07746367323873626</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.0005663907061868706</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.07987894844863376</v>
+      </c>
+      <c r="G138" t="n">
+        <v>5.334449913318906e-05</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.04368531421379158</v>
+      </c>
+      <c r="I138" t="n">
+        <v>2.592835901324634e-06</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.01330297996805299</v>
+      </c>
+      <c r="K138" t="n">
+        <v>6.418188428280045e-05</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.06438776796487704</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0.7170609874516465</v>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>RUG602</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.9925051270782113</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5.497308039377151e-06</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.0002026461761799142</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.0001057955108673771</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.001702326169015947</v>
+      </c>
+      <c r="G139" t="n">
+        <v>9.105266702903362e-11</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.001347058403377737</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1.088025189660699e-10</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.000888887459935805</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1.649944573061037e-06</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.003241011749944416</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.9925051270782113</v>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>RUG101</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.9774012837473054</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.0002460703991977583</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.01248601074031922</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.0009751334953863626</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.00253807561906213</v>
+      </c>
+      <c r="G140" t="n">
+        <v>8.681727166837909e-07</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.001599794086453143</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1.422813954831933e-07</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.00305236400226166</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.0008129154573362657</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.0008873419985659354</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.9774012837473054</v>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>RUG693</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.9643124700629775</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.002174396394103674</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.005446105511868742</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.0008830707179543866</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.003564267047897305</v>
+      </c>
+      <c r="G141" t="n">
+        <v>6.114783579234269e-06</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.005750540902498553</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1.680485604910446e-07</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.005778978784481599</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1.689837774080811e-05</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.01206698936833783</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0.9643124700629775</v>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>RUG749</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.9950404596411858</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.0001295851011928323</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.0003957012281735082</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.696890978278622e-05</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.00062268777663744</v>
+      </c>
+      <c r="G142" t="n">
+        <v>9.184118620879615e-09</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.0006147635374832631</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2.767146565552696e-08</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.0009621065199676102</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1.548196134842117e-06</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.002206142233857684</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0.9950404596411858</v>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>RUG107</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.9970525985474471</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2.854787633406013e-05</v>
+      </c>
+      <c r="D143" t="n">
+        <v>6.930942701583789e-05</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.0001465807438872276</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.0009121739524963823</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1.006790213077477e-08</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.0004890961238425979</v>
+      </c>
+      <c r="I143" t="n">
+        <v>4.152487548021719e-09</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.0008542114471785017</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1.421977110708519e-07</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.0004473254636976152</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0.9970525985474471</v>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.08376717176940174</v>
+      </c>
+      <c r="C144" t="n">
+        <v>4.832396844323942e-06</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.01671310147072027</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.7586718819735274</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.08219087689617739</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1.204755283041476e-06</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.03352515946598889</v>
+      </c>
+      <c r="I144" t="n">
+        <v>7.268663078441263e-09</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.01144853644921003</v>
+      </c>
+      <c r="K144" t="n">
+        <v>4.787159046767659e-05</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.01362935596371626</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0.7586718819735274</v>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>RUG245</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.2599627880177184</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.0004670105099818897</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.5507372049703719</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.003268858454832288</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.06995086911991556</v>
+      </c>
+      <c r="G145" t="n">
+        <v>4.554511686197455e-07</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.02243830993807508</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.0001895717606617153</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.008786023308299142</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.03764946397390204</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.04654944449507321</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0.5507372049703719</v>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>RUG164</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.06356432149904669</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.0002526128684098218</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.6720398116870008</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.09009701717640482</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.07354175673345296</v>
+      </c>
+      <c r="G146" t="n">
+        <v>4.891107985377576e-07</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.04849474919815123</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.0004954480102514929</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.008733784854537538</v>
+      </c>
+      <c r="K146" t="n">
+        <v>7.39022062004679e-05</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.04270610665574585</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0.6720398116870008</v>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>RUG178</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.9987011171088001</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.126113570386802e-05</v>
+      </c>
+      <c r="D147" t="n">
+        <v>9.154551673239734e-05</v>
+      </c>
+      <c r="E147" t="n">
+        <v>4.979769531836556e-05</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.0004397876141158695</v>
+      </c>
+      <c r="G147" t="n">
+        <v>5.983570733924107e-10</v>
+      </c>
+      <c r="H147" t="n">
+        <v>9.671678025171594e-05</v>
+      </c>
+      <c r="I147" t="n">
+        <v>3.343093104657232e-11</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.0004228628460292077</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2.418108878131346e-07</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.0001866688603727825</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0.9987011171088001</v>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>RUG414</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.9991565155505703</v>
+      </c>
+      <c r="C148" t="n">
+        <v>3.907024201002565e-06</v>
+      </c>
+      <c r="D148" t="n">
+        <v>5.775621198648851e-06</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.515783586806061e-05</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.0002199223754333621</v>
+      </c>
+      <c r="G148" t="n">
+        <v>7.365503691572197e-10</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.0001827043353145396</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1.19802820112111e-10</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.0002229783041094326</v>
+      </c>
+      <c r="K148" t="n">
+        <v>3.722525730118462e-08</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.0001930008716941851</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0.9991565155505703</v>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>RUG058</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.8389739357142102</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.0001678903659617322</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.00430322420510721</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.005821415479645977</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.1120282938679779</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2.809610258945275e-09</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.01078477243926783</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1.097807247395086e-08</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.006862595190472459</v>
+      </c>
+      <c r="K149" t="n">
+        <v>8.424676107070216e-06</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0.021049434273567</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0.8389739357142102</v>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>RUG771</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.9963902299856024</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.0001377439728788491</v>
+      </c>
+      <c r="D150" t="n">
+        <v>7.50250809842309e-05</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.962602930067324e-06</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.001368551179643363</v>
+      </c>
+      <c r="G150" t="n">
+        <v>4.600098949165746e-06</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.0003494209938826209</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1.927997014890073e-07</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.001086027178575883</v>
+      </c>
+      <c r="K150" t="n">
+        <v>2.457840963821903e-05</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.0005616676972137694</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0.9963902299856024</v>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>RUG837</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.9969294683137612</v>
+      </c>
+      <c r="C151" t="n">
+        <v>3.608701299394817e-06</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.0003736061490840773</v>
+      </c>
+      <c r="E151" t="n">
+        <v>7.034436879592962e-07</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.0009206816721717728</v>
+      </c>
+      <c r="G151" t="n">
+        <v>4.814284143461536e-07</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.0006584087341408512</v>
+      </c>
+      <c r="I151" t="n">
+        <v>8.616557208937852e-10</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.000899754770481949</v>
+      </c>
+      <c r="K151" t="n">
+        <v>5.118167980773312e-05</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0.0001621042454949413</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0.9969294683137612</v>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>RUG827</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.8983848349490863</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.0001136321473615095</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.0001581410337917513</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.003705151718218353</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.03630942416126211</v>
+      </c>
+      <c r="G152" t="n">
+        <v>3.561877344740366e-08</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.01100768122031629</v>
+      </c>
+      <c r="I152" t="n">
+        <v>7.643427192034063e-10</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.008583779629906743</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1.011874630957806e-05</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0.0417272000106314</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0.8983848349490863</v>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.003202623870262829</v>
+      </c>
+      <c r="C153" t="n">
+        <v>3.269331607581044e-07</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.0001568326363477084</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.9949162744216467</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.0003065044706221089</v>
+      </c>
+      <c r="G153" t="n">
+        <v>4.162280683563018e-09</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.0005690679995794691</v>
+      </c>
+      <c r="I153" t="n">
+        <v>6.277265112039568e-09</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.0005626138249615277</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1.179897346266085e-05</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0.0002739464304104557</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0.9949162744216467</v>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>RUG843</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.952644554107844</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.059794233952734e-05</v>
+      </c>
+      <c r="D154" t="n">
+        <v>3.143608700983203e-05</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.001903954135743391</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.0268436319738831</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1.640849839758509e-08</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.0107842856355658</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1.814467946870115e-11</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.003473275973371227</v>
+      </c>
+      <c r="K154" t="n">
+        <v>2.644047631068817e-07</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0.004307983312837092</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0.952644554107844</v>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>RUG689</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.9731916440294638</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2.615792834985574e-05</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.001222842501535791</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.062754208708237e-05</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.0093198407391572</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.000149161132882374</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.007126011932517329</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1.03328822372999e-06</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.005625061828883211</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.0006256617026295984</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0.002701957374269935</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0.9731916440294638</v>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>RUG165</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.01114983764703797</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.001388437824111928</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.01709392883313357</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.02270729693922068</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.8400500819417063</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1.563106782659519e-06</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.02246340665046716</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.0001710637104531227</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.01565167712293392</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1.875310001673686e-05</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0.06930395312413599</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0.8400500819417063</v>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>RUG451</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.9455426289741738</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.0001404553745728834</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.000256451585358704</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.009142556487155534</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.02300180572279684</v>
+      </c>
+      <c r="G157" t="n">
+        <v>2.101353280029302e-07</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.007644978383450541</v>
+      </c>
+      <c r="I157" t="n">
+        <v>2.348082012916256e-10</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.003176443415601992</v>
+      </c>
+      <c r="K157" t="n">
+        <v>6.155524899843208e-06</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0.01108831416185362</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0.9455426289741738</v>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>RUG536</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.6881515346243374</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.005883983809697045</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.09249986487480025</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.007470938738021542</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.04088344383999101</v>
+      </c>
+      <c r="G158" t="n">
+        <v>5.347407995369312e-07</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.03972697697543188</v>
+      </c>
+      <c r="I158" t="n">
+        <v>4.953606771045159e-06</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.05554817527929988</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.001043929264165936</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0.06878566424668435</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0.6881515346243374</v>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.1372357633954378</v>
+      </c>
+      <c r="C159" t="n">
+        <v>8.291825004230002e-06</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.002100743687778901</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.7960440524967564</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.02360154831384345</v>
+      </c>
+      <c r="G159" t="n">
+        <v>5.249523344833409e-07</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.02102824534081133</v>
+      </c>
+      <c r="I159" t="n">
+        <v>5.993071551548647e-09</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.00871978778004473</v>
+      </c>
+      <c r="K159" t="n">
+        <v>8.902075638319475e-05</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0.01117201545853383</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0.7960440524967564</v>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>RUG606</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.9757753563412763</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.0002817037671101767</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.001935216611222224</v>
+      </c>
+      <c r="E160" t="n">
+        <v>5.87239051344274e-06</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.006805677761781741</v>
+      </c>
+      <c r="G160" t="n">
+        <v>4.726019244317023e-05</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.004935026787277394</v>
+      </c>
+      <c r="I160" t="n">
+        <v>2.739570110477742e-06</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.007969695432192624</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.0004977351618672905</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0.001743715984205225</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0.9757753563412763</v>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>RUG766</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.9893857970455516</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.0006992532313424757</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.00152180782494522</v>
+      </c>
+      <c r="E161" t="n">
+        <v>7.975697498804454e-05</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.002354315536026271</v>
+      </c>
+      <c r="G161" t="n">
+        <v>5.691402424542687e-07</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.001544420706914621</v>
+      </c>
+      <c r="I161" t="n">
+        <v>4.174395273619186e-06</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.002697522419606199</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1.788818510540278e-05</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0.001694494540004095</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0.9893857970455516</v>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>RUG059</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.978860406469493</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.003000932475244585</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.00128911173200592</v>
+      </c>
+      <c r="E162" t="n">
+        <v>4.119476779578294e-05</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.003163034318120608</v>
+      </c>
+      <c r="G162" t="n">
+        <v>5.349971567662061e-06</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.002077492781560999</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1.676218178939313e-06</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.006474256320026261</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.0001196244175513539</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0.004966920528454665</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0.978860406469493</v>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>RUG358</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.2649481669939444</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.0001463216189658657</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.5917847609891471</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.007192436778099081</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.09281062345721293</v>
+      </c>
+      <c r="G163" t="n">
+        <v>2.661013069822099e-06</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.01108092980285521</v>
+      </c>
+      <c r="I163" t="n">
+        <v>9.723308344723745e-08</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.00481089054299131</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.001191988093990051</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0.02603112347664072</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0.5917847609891471</v>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>RUG753</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.9955113609696915</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2.485451161690776e-05</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.0002490333830324837</v>
+      </c>
+      <c r="E164" t="n">
+        <v>8.063475727149847e-05</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.001356826577594793</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1.625852716362864e-09</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.0003998802695359292</v>
+      </c>
+      <c r="I164" t="n">
+        <v>2.752192878082514e-10</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.001460059158991445</v>
+      </c>
+      <c r="K164" t="n">
+        <v>2.250296241767861e-06</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0.0009150981749515289</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0.9955113609696915</v>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>RUG348</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.2602899540756889</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.01499144758128457</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.04115726619360684</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.004575193244317492</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.5444328135919942</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.001667872835921829</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.04548408570197252</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.00439438112859906</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.02033590784025997</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.0008776533413464904</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0.06179342446500817</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0.5444328135919942</v>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>RUG312</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0.3900346442338404</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.005833935433939544</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.07645743885211737</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.00123646906414557</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.09475179418779414</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.0001689870214977711</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.05694563505287734</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.0001674620410339656</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.02510392091365915</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0.001504510997214054</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0.3477952022018807</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0.3900346442338404</v>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>RUG071</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0.9774400448436091</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.004110664092840935</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.002203816282013132</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.0004576072650650135</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.006063131507524402</v>
+      </c>
+      <c r="G167" t="n">
+        <v>7.957937035462549e-06</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.00254244348010881</v>
+      </c>
+      <c r="I167" t="n">
+        <v>4.508902322250209e-07</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.002167008123460001</v>
+      </c>
+      <c r="K167" t="n">
+        <v>7.245158857310022e-07</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0.00500615106222533</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0.9774400448436091</v>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>RUG620</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0.9394307656611802</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.002467810095213472</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.0055551733677013</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.00017048954326913</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.01529023945148355</v>
+      </c>
+      <c r="G168" t="n">
+        <v>5.895652755825742e-08</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.004384717101781396</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1.015342894816161e-06</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.002853716490185834</v>
+      </c>
+      <c r="K168" t="n">
+        <v>1.238361123293383e-05</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0.02983363037852963</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0.9394307656611802</v>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>RUG265</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0.3686680613202362</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.001896372454235577</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.4761688808602161</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.0002234763005559203</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.04083034238394827</v>
+      </c>
+      <c r="G169" t="n">
+        <v>6.36773143681056e-05</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.0235537595413265</v>
+      </c>
+      <c r="I169" t="n">
+        <v>2.756820100958216e-05</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.02073098982643198</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0.0006397370296470298</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0.06719713476802484</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0.4761688808602161</v>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>RUG785</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0.9928652624566972</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.0001007806009310209</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.0004383427248004287</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.776545150666814e-05</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.002325287471841603</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1.631069415571946e-06</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.0006861493665879215</v>
+      </c>
+      <c r="I170" t="n">
+        <v>9.912273945539756e-07</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.001495500942027614</v>
+      </c>
+      <c r="K170" t="n">
+        <v>1.257226092507006e-06</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0.00206703146270506</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0.9928652624566972</v>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>RUG249</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0.9920055945579355</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.0005595632596115814</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.0003279433548986467</v>
+      </c>
+      <c r="E171" t="n">
+        <v>4.186013386529174e-05</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.001105460679631262</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1.366457409867571e-07</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.001364199772262476</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1.206733220085052e-07</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.0009136950190735139</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0.0002127271076404753</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0.00346869879601835</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0.9920055945579355</v>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>RUG668</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0.9842644517476141</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.000586131260374983</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.0004455349913687926</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.0001755915052221495</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.00662761285169406</v>
+      </c>
+      <c r="G172" t="n">
+        <v>7.086295800327881e-05</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.002478319753485094</v>
+      </c>
+      <c r="I172" t="n">
+        <v>5.969956929035513e-06</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.001564498353390268</v>
+      </c>
+      <c r="K172" t="n">
+        <v>6.232728278740804e-06</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0.003774793893639532</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0.9842644517476141</v>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>RUG430</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0.9663882968499382</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.0006130321996495306</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.002136028316315204</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.01322300800356614</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.006996692439765795</v>
+      </c>
+      <c r="G173" t="n">
+        <v>6.827838594277691e-07</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.002456713703429627</v>
+      </c>
+      <c r="I173" t="n">
+        <v>7.530574506490962e-09</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.004549114243912505</v>
+      </c>
+      <c r="K173" t="n">
+        <v>4.466593972278511e-05</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0.003591757989266286</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0.9663882968499382</v>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>RUG424</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0.9909078402573783</v>
+      </c>
+      <c r="C174" t="n">
+        <v>6.481521701081526e-06</v>
+      </c>
+      <c r="D174" t="n">
+        <v>6.888840802930217e-05</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.603797718599332e-05</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.004174339234692545</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1.331757394079228e-08</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.0009469465617299058</v>
+      </c>
+      <c r="I174" t="n">
+        <v>4.642547383832028e-10</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.002335175811256031</v>
+      </c>
+      <c r="K174" t="n">
+        <v>3.275368894642848e-06</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0.001541001077303748</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0.9909078402573783</v>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>RUG224</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0.9812716410662303</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.0003081756150986009</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.0006201671012772812</v>
+      </c>
+      <c r="E175" t="n">
+        <v>4.557508218441548e-05</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.01259684747187225</v>
+      </c>
+      <c r="G175" t="n">
+        <v>8.93478897928496e-06</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.001305231397759425</v>
+      </c>
+      <c r="I175" t="n">
+        <v>2.934188184180858e-07</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.001637280243273042</v>
+      </c>
+      <c r="K175" t="n">
+        <v>2.221846895043796e-06</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0.002203631967611944</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0.9812716410662303</v>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>RUG443</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0.9960579441889594</v>
+      </c>
+      <c r="C176" t="n">
+        <v>8.905359305786665e-05</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.000232813454826375</v>
+      </c>
+      <c r="E176" t="n">
+        <v>3.301805529142681e-06</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.001673986531642132</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2.71262784304447e-05</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.0004596398777945804</v>
+      </c>
+      <c r="I176" t="n">
+        <v>2.814589057971395e-08</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.001028734343399107</v>
+      </c>
+      <c r="K176" t="n">
+        <v>3.215366865670113e-06</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0.0004241564136047142</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0.9960579441889594</v>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>RUG134</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0.03726316613010936</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.135857324059465e-06</v>
+      </c>
+      <c r="D177" t="n">
+        <v>2.098190453005077e-05</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.01492758560692569</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.8134461114772842</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1.214318980115942e-08</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.06272570649152003</v>
+      </c>
+      <c r="I177" t="n">
+        <v>4.45392983464209e-09</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.005634849124917845</v>
+      </c>
+      <c r="K177" t="n">
+        <v>3.392965584993807e-06</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0.06597705384468421</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0.8134461114772842</v>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0.02653910639547962</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.0001021952342453034</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.007208433166608185</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.9200652474038327</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.02881207527588977</v>
+      </c>
+      <c r="G178" t="n">
+        <v>2.990568638569631e-08</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.006129269664225942</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1.627015124334031e-06</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.006027569511048303</v>
+      </c>
+      <c r="K178" t="n">
+        <v>7.579782261939368e-05</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0.00503864860523981</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0.9200652474038327</v>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>RUG136</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0.9898206784466308</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.0001140791911215051</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.001069126197486492</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.000337865906034826</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.002209757884690852</v>
+      </c>
+      <c r="G179" t="n">
+        <v>9.915495033702011e-06</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.001531179276912219</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1.121823015900901e-08</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.002684986245431784</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0.0002565173654580302</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0.001965882772969611</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0.9898206784466308</v>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>RUG599</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0.9984295709938019</v>
+      </c>
+      <c r="C180" t="n">
+        <v>5.853733051613535e-06</v>
+      </c>
+      <c r="D180" t="n">
+        <v>9.192071145176549e-05</v>
+      </c>
+      <c r="E180" t="n">
+        <v>3.722705930086077e-06</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.0006281266630610137</v>
+      </c>
+      <c r="G180" t="n">
+        <v>5.408172388594865e-06</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.0003380432952617082</v>
+      </c>
+      <c r="I180" t="n">
+        <v>4.085727231679092e-08</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.0004179362778989135</v>
+      </c>
+      <c r="K180" t="n">
+        <v>2.581821043844494e-07</v>
+      </c>
+      <c r="L180" t="n">
+        <v>7.911840777767448e-05</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0.9984295709938019</v>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>hRUG913</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.9873642783094961</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.000224868783155274</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.001105174073003571</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.0004614169325382837</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.003388258522052605</v>
+      </c>
+      <c r="G181" t="n">
+        <v>3.368819233549976e-07</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.002141518306475302</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1.591938694405253e-07</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.002547577063333044</v>
+      </c>
+      <c r="K181" t="n">
+        <v>8.765008770969824e-05</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0.002678761846443239</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0.9873642783094961</v>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0.0276586028492226</v>
+      </c>
+      <c r="C182" t="n">
+        <v>7.305363526616479e-06</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.002925888461640583</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.8941555125268682</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.03452798044941619</v>
+      </c>
+      <c r="G182" t="n">
+        <v>3.47141222926842e-08</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.01437733368373247</v>
+      </c>
+      <c r="I182" t="n">
+        <v>5.443502437870155e-11</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.004172026596963114</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0.002121586002010436</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0.02005372929806254</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0.8941555125268682</v>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>RUG204</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0.9782156243683331</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.0037256503317748</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.001051337120864933</v>
+      </c>
+      <c r="E183" t="n">
+        <v>4.648100515224155e-05</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.005786529702915188</v>
+      </c>
+      <c r="G183" t="n">
+        <v>2.408256564038745e-09</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.002322536795660236</v>
+      </c>
+      <c r="I183" t="n">
+        <v>3.278274390842266e-08</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.004242104251548325</v>
+      </c>
+      <c r="K183" t="n">
+        <v>1.95156316168537e-06</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0.004607749669588934</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0.9782156243683331</v>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>RUG533</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0.9616927833303393</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.0001694706925868004</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.005007833300516995</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.0002338604098620135</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.01396977967284491</v>
+      </c>
+      <c r="G184" t="n">
+        <v>4.108543215318857e-08</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.008508392886728141</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1.202188272301778e-06</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.004743428566560156</v>
+      </c>
+      <c r="K184" t="n">
+        <v>4.677032687102179e-05</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0.005626437539986449</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0.9616927833303393</v>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>RUG182</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0.1807954420595485</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.04283157521323149</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.05871732771635509</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.002562012135565191</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.1249933600980539</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.0008823827400665728</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.1275224462746727</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.001265215377876804</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.04717490068628157</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0.005675767400207525</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0.4075795702981408</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0.4075795702981408</v>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>RUG413</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0.9993626401407021</v>
+      </c>
+      <c r="C186" t="n">
+        <v>6.017727341069202e-07</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.84760371389376e-05</v>
+      </c>
+      <c r="E186" t="n">
+        <v>3.566681169354802e-05</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.0003018924406127502</v>
+      </c>
+      <c r="G186" t="n">
+        <v>4.74394506667464e-12</v>
+      </c>
+      <c r="H186" t="n">
+        <v>6.868123523852725e-05</v>
+      </c>
+      <c r="I186" t="n">
+        <v>7.074370920845982e-13</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.0001665312509103315</v>
+      </c>
+      <c r="K186" t="n">
+        <v>4.392994237004443e-07</v>
+      </c>
+      <c r="L186" t="n">
+        <v>4.507100609466906e-05</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0.9993626401407021</v>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>RUG839</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0.998537711531075</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.756672847911081e-06</v>
+      </c>
+      <c r="D187" t="n">
+        <v>6.298422089302895e-06</v>
+      </c>
+      <c r="E187" t="n">
+        <v>3.273381031316355e-06</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.0004672715553471761</v>
+      </c>
+      <c r="G187" t="n">
+        <v>6.810643869064164e-07</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.0002226671796706326</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1.515075397144873e-09</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.0003131611018337114</v>
+      </c>
+      <c r="K187" t="n">
+        <v>1.489122852986518e-08</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0.0004461626854141537</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0.998537711531075</v>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>RUG403</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0.9805559938572496</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.0001731485829479545</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.0011991505951387</v>
+      </c>
+      <c r="E188" t="n">
+        <v>3.785076855583909e-05</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.00506203155319348</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2.351144776993332e-05</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.001251859290434713</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1.13763663042346e-05</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.003253248653827527</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0.0001678556598324353</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0.008263973224745313</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0.9805559938572496</v>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>RUG137</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7595090147947524</v>
+      </c>
+      <c r="C189" t="n">
+        <v>4.559884244446561e-05</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.007096211384288808</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.003536917905780871</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.2007917624051154</v>
+      </c>
+      <c r="G189" t="n">
+        <v>5.133591253600327e-07</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.01443544875955044</v>
+      </c>
+      <c r="I189" t="n">
+        <v>9.938426679976159e-09</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.009506000729640219</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0.001075570041278204</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0.004002951839597115</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0.7595090147947524</v>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>RUG415</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7110670407727936</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.004035318773059747</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.07157431316307687</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.02392275467705973</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.06786813217812383</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.0003266529767823318</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.04768479488497197</v>
+      </c>
+      <c r="I190" t="n">
+        <v>2.245551580205324e-06</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.04015332631638625</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0.005148395391254847</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0.02821702531491058</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.7110670407727936</v>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>RUG571</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0.9976228238304699</v>
+      </c>
+      <c r="C191" t="n">
+        <v>7.13412772936347e-06</v>
+      </c>
+      <c r="D191" t="n">
+        <v>8.323375348781395e-06</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.187868752849717e-06</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.0007556903465504597</v>
+      </c>
+      <c r="G191" t="n">
+        <v>3.740661733540219e-06</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.0004189009915709508</v>
+      </c>
+      <c r="I191" t="n">
+        <v>2.52382868098756e-09</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.0006452405213723195</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1.702104328978692e-07</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0.0005367855422104052</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0.9976228238304699</v>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>RUG317</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0.9852065728409309</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.0005462032210317212</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.0008784315132710714</v>
+      </c>
+      <c r="E192" t="n">
+        <v>3.56406300803483e-05</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.0018484271790819</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1.198874911001375e-08</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.0007854858132578047</v>
+      </c>
+      <c r="I192" t="n">
+        <v>3.306885506732579e-08</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.001477608757559486</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1.885035138337042e-06</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0.009219699952044309</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0.9852065728409309</v>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>RUG815</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0.9670414740346657</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.614568813984603e-05</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.001108896777612054</v>
+      </c>
+      <c r="E193" t="n">
+        <v>9.023161614262575e-05</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.01325610315000858</v>
+      </c>
+      <c r="G193" t="n">
+        <v>2.27943429559012e-05</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.007882057333819751</v>
+      </c>
+      <c r="I193" t="n">
+        <v>6.210659268355787e-07</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.004940739806001881</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0.0001799489612867849</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0.005450987223440154</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0.9670414740346657</v>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>RUG069</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0.8697981423434644</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.006114069868068031</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.00566618139441159</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.001027022740276354</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.06652206012082487</v>
+      </c>
+      <c r="G194" t="n">
+        <v>2.605551547229424e-05</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.01604582353929951</v>
+      </c>
+      <c r="I194" t="n">
+        <v>2.250127233918831e-05</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.02641551463837008</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0.0009867063359505642</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0.007375922231523059</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0.8697981423434644</v>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>RUG073</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0.9860240016807326</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.26799642386367e-05</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.0008828002569718987</v>
+      </c>
+      <c r="E195" t="n">
+        <v>6.740292484472523e-05</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.006919080961223294</v>
+      </c>
+      <c r="G195" t="n">
+        <v>9.128721362682758e-07</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.002841030196889657</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1.693275584468698e-10</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.001599233286011725</v>
+      </c>
+      <c r="K195" t="n">
+        <v>8.654627554396611e-05</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0.001566311412079766</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0.9860240016807326</v>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>RUG544</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0.001330487149883387</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.14244677457113e-07</v>
+      </c>
+      <c r="D196" t="n">
+        <v>7.50314234834152e-07</v>
+      </c>
+      <c r="E196" t="n">
+        <v>5.169136014295379e-05</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.0002497256443122178</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1.058345128008508e-10</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.004755918542299164</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1.611851565739068e-05</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.0009209537382939856</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0.9923523861465887</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0.0003218542380754183</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0.9923523861465887</v>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/outputs/o__Bacteroidales.xlsx
+++ b/outputs/o__Bacteroidales.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15880" windowWidth="28800" xWindow="0" yWindow="460"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="glv-t-glv" sheetId="1" state="visible" r:id="rId1"/>
@@ -76,21 +76,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -36002,7 +36002,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -44858,7 +44858,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -44868,7 +44868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N196"/>
+  <dimension ref="A1:P196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44942,6 +44942,16 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>gtdb-Tk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -44990,6 +45000,16 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -45038,6 +45058,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -45086,6 +45116,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -45134,6 +45174,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -45182,6 +45232,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -45230,6 +45290,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -45278,6 +45348,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -45326,6 +45406,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -45374,6 +45464,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -45422,6 +45522,16 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -45470,6 +45580,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -45518,6 +45638,16 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -45566,6 +45696,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -45614,6 +45754,16 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -45662,6 +45812,16 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -45710,6 +45870,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -45758,6 +45928,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -45806,6 +45986,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -45854,6 +46044,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -45902,6 +46102,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -45950,6 +46160,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -45998,6 +46218,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -46046,6 +46276,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -46094,6 +46334,16 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -46142,6 +46392,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -46190,6 +46450,16 @@
           <t>f__WCHB1-69</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -46238,6 +46508,16 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -46286,6 +46566,16 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -46334,6 +46624,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -46382,6 +46682,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -46430,6 +46740,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -46478,6 +46798,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -46526,6 +46856,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -46574,6 +46914,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -46622,6 +46972,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -46670,6 +47030,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -46718,6 +47088,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -46766,6 +47146,16 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -46814,6 +47204,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -46862,6 +47262,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -46910,6 +47320,16 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -46958,6 +47378,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -47006,6 +47436,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -47054,6 +47494,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -47102,6 +47552,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -47150,6 +47610,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -47198,6 +47668,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -47246,6 +47726,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -47294,6 +47784,16 @@
           <t>f__WCHB1-69</t>
         </is>
       </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -47342,6 +47842,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -47390,6 +47900,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -47438,6 +47958,16 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -47486,6 +48016,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -47534,6 +48074,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -47582,6 +48132,16 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -47630,6 +48190,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -47678,6 +48248,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -47726,6 +48306,16 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -47774,6 +48364,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -47822,6 +48422,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -47870,6 +48480,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
@@ -47918,6 +48538,16 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -47966,6 +48596,16 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -48014,6 +48654,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -48062,6 +48712,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
@@ -48110,6 +48770,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
@@ -48158,6 +48828,16 @@
           <t>f__WCHB1-69</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
@@ -48206,6 +48886,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
@@ -48254,6 +48944,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
@@ -48302,6 +49002,16 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
@@ -48350,6 +49060,16 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
@@ -48398,6 +49118,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
@@ -48446,6 +49176,16 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
@@ -48494,6 +49234,16 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
@@ -48542,6 +49292,16 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
@@ -48590,6 +49350,16 @@
           <t>f__F082</t>
         </is>
       </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
@@ -48638,6 +49408,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
@@ -48686,6 +49466,16 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
@@ -48734,6 +49524,16 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
@@ -48782,6 +49582,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
@@ -48830,6 +49640,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
@@ -48878,6 +49698,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
@@ -48926,6 +49756,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
@@ -48974,6 +49814,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
@@ -49022,6 +49872,16 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
@@ -49070,6 +49930,16 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
@@ -49118,6 +49988,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
@@ -49166,6 +50046,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
@@ -49214,6 +50104,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
@@ -49262,6 +50162,16 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
@@ -49310,6 +50220,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
@@ -49358,6 +50278,16 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
@@ -49406,6 +50336,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
@@ -49454,6 +50394,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
@@ -49502,6 +50452,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
@@ -49550,6 +50510,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
@@ -49598,6 +50568,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
@@ -49646,6 +50626,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
@@ -49694,6 +50684,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
@@ -49742,6 +50742,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
@@ -49790,6 +50800,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
@@ -49838,6 +50858,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>f__UBA3663</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
@@ -49886,6 +50916,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
@@ -49934,6 +50974,16 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
@@ -49982,6 +51032,16 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
@@ -50030,6 +51090,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
@@ -50078,6 +51148,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
@@ -50126,6 +51206,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
@@ -50174,6 +51264,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
@@ -50222,6 +51322,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
@@ -50270,6 +51380,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
@@ -50318,6 +51438,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
@@ -50366,6 +51496,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
@@ -50414,6 +51554,16 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
@@ -50462,6 +51612,16 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
@@ -50510,6 +51670,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
@@ -50558,6 +51728,16 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
@@ -50606,6 +51786,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
@@ -50654,6 +51844,16 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
@@ -50702,6 +51902,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
@@ -50750,6 +51960,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
@@ -50798,6 +52018,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
@@ -50846,6 +52076,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
@@ -50894,6 +52134,16 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
@@ -50942,6 +52192,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
@@ -50990,6 +52250,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
@@ -51038,6 +52308,16 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
@@ -51086,6 +52366,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
@@ -51134,6 +52424,16 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
@@ -51182,6 +52482,16 @@
           <t>f__Rikenellaceae</t>
         </is>
       </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
@@ -51230,6 +52540,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
@@ -51278,6 +52598,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
@@ -51326,6 +52656,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
@@ -51374,6 +52714,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
@@ -51422,6 +52772,16 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
@@ -51470,6 +52830,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
@@ -51518,6 +52888,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
@@ -51566,6 +52946,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
@@ -51614,6 +53004,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
@@ -51662,6 +53062,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
@@ -51710,6 +53120,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
@@ -51758,6 +53178,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
@@ -51806,6 +53236,16 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
@@ -51854,6 +53294,16 @@
           <t>f__F082</t>
         </is>
       </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
@@ -51902,6 +53352,16 @@
           <t>f__F082</t>
         </is>
       </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
@@ -51950,6 +53410,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
@@ -51998,6 +53468,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
@@ -52046,6 +53526,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
@@ -52094,6 +53584,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
@@ -52142,6 +53642,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
@@ -52190,6 +53700,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
@@ -52238,6 +53758,16 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
@@ -52286,6 +53816,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
@@ -52334,6 +53874,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
@@ -52382,6 +53932,16 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
@@ -52430,6 +53990,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
@@ -52478,6 +54048,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
@@ -52526,6 +54106,16 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
@@ -52574,6 +54164,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
@@ -52622,6 +54222,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
@@ -52670,6 +54280,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
@@ -52718,6 +54338,16 @@
           <t>f__F082</t>
         </is>
       </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
@@ -52766,6 +54396,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
@@ -52814,6 +54454,16 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
@@ -52862,6 +54512,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
@@ -52910,6 +54570,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
@@ -52958,6 +54628,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
@@ -53006,6 +54686,16 @@
           <t>f__F082</t>
         </is>
       </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
@@ -53054,6 +54744,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
@@ -53102,6 +54802,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
@@ -53150,6 +54860,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
@@ -53198,6 +54918,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
@@ -53246,6 +54976,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
@@ -53294,6 +55034,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
@@ -53342,6 +55092,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
@@ -53390,6 +55150,16 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
@@ -53438,6 +55208,16 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
@@ -53486,6 +55266,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
@@ -53534,6 +55324,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
@@ -53582,6 +55382,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
@@ -53630,6 +55440,16 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
@@ -53678,6 +55498,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
@@ -53726,6 +55556,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
@@ -53774,6 +55614,16 @@
           <t>f__WCHB1-69</t>
         </is>
       </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
@@ -53822,6 +55672,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
@@ -53870,6 +55730,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
@@ -53918,6 +55788,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
@@ -53966,6 +55846,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
@@ -54014,6 +55904,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>f__UBA3663</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
@@ -54062,6 +55962,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
@@ -54110,6 +56020,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
@@ -54158,6 +56078,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
@@ -54206,6 +56136,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
@@ -54254,6 +56194,16 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
@@ -54302,8 +56252,18 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs/o__Bacteroidales.xlsx
+++ b/outputs/o__Bacteroidales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA317"/>
+  <dimension ref="A1:AB317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,6 +570,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -657,6 +662,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -744,6 +754,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -831,6 +846,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -918,6 +938,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1005,6 +1030,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1092,6 +1122,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1179,6 +1214,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1266,6 +1306,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1353,6 +1398,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1440,6 +1490,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1527,6 +1582,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1614,6 +1674,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1701,6 +1766,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1788,6 +1858,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1875,6 +1950,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1962,6 +2042,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2049,6 +2134,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2136,6 +2226,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -2223,6 +2318,11 @@
           <t>f__F082</t>
         </is>
       </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2310,6 +2410,11 @@
           <t>f__WCHB1-69</t>
         </is>
       </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2397,6 +2502,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2484,6 +2594,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2571,6 +2686,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2658,6 +2778,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2745,6 +2870,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2832,6 +2962,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2919,6 +3054,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -3006,6 +3146,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -3093,6 +3238,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -3180,6 +3330,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -3267,6 +3422,11 @@
           <t>f__WCHB1-69</t>
         </is>
       </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -3354,6 +3514,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -3441,6 +3606,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -3528,6 +3698,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -3615,6 +3790,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -3702,6 +3882,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -3789,6 +3974,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -3876,6 +4066,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -3963,6 +4158,11 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -4050,6 +4250,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -4137,6 +4342,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -4224,6 +4434,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -4311,6 +4526,11 @@
           <t>f__F082</t>
         </is>
       </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -4398,6 +4618,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -4485,6 +4710,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -4572,6 +4802,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -4659,6 +4894,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -4746,6 +4986,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -4833,6 +5078,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -4920,6 +5170,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -5007,6 +5262,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -5094,6 +5354,11 @@
           <t>f__WCHB1-69</t>
         </is>
       </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -5181,6 +5446,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -5268,6 +5538,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -5355,6 +5630,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -5442,6 +5722,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -5529,6 +5814,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -5616,6 +5906,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -5703,6 +5998,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -5790,6 +6090,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -5877,6 +6182,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -5964,6 +6274,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -6051,6 +6366,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -6138,6 +6458,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -6225,6 +6550,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -6312,6 +6642,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -6399,6 +6734,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -6486,6 +6826,11 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -6573,6 +6918,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -6660,6 +7010,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -6747,6 +7102,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -6834,6 +7194,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -6921,6 +7286,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -7008,6 +7378,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -7095,6 +7470,11 @@
           <t>f__F082</t>
         </is>
       </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -7182,6 +7562,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -7269,6 +7654,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -7356,6 +7746,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -7443,6 +7838,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -7530,6 +7930,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -7617,6 +8022,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -7704,6 +8114,11 @@
           <t>f__F082</t>
         </is>
       </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -7791,6 +8206,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -7878,6 +8298,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -7965,6 +8390,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -8052,6 +8482,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -8139,6 +8574,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -8226,6 +8666,11 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -8313,6 +8758,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -8400,6 +8850,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -8487,6 +8942,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -8574,6 +9034,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -8661,6 +9126,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -8748,6 +9218,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -8835,6 +9310,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -8922,6 +9402,11 @@
           <t>f__WCHB1-69</t>
         </is>
       </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -9009,6 +9494,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -9096,6 +9586,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -9183,6 +9678,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -9270,6 +9770,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -9357,6 +9862,11 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -9444,6 +9954,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -9531,6 +10046,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -9618,6 +10138,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -9705,6 +10230,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB106" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -9792,6 +10322,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB107" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -9879,6 +10414,11 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="AB108" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -9966,6 +10506,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB109" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -10053,6 +10598,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB110" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -10140,6 +10690,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB111" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -10227,6 +10782,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB112" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -10314,6 +10874,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB113" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -10401,6 +10966,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB114" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -10488,6 +11058,11 @@
           <t>f__F082</t>
         </is>
       </c>
+      <c r="AB115" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -10575,6 +11150,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB116" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -10662,6 +11242,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB117" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -10749,6 +11334,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB118" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -10836,6 +11426,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB119" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -10923,6 +11518,11 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="AB120" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -11010,6 +11610,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB121" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -11097,6 +11702,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB122" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -11184,6 +11794,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB123" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -11271,6 +11886,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB124" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -11358,6 +11978,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB125" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -11445,6 +12070,11 @@
           <t>f__WCHB1-69</t>
         </is>
       </c>
+      <c r="AB126" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -11532,6 +12162,11 @@
           <t>f__F082</t>
         </is>
       </c>
+      <c r="AB127" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -11619,6 +12254,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB128" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -11706,6 +12346,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB129" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -11793,6 +12438,11 @@
           <t>f__F082</t>
         </is>
       </c>
+      <c r="AB130" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -11880,6 +12530,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB131" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -11967,6 +12622,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB132" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -12054,6 +12714,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB133" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -12141,6 +12806,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB134" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -12228,6 +12898,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB135" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -12315,6 +12990,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB136" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -12402,6 +13082,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB137" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -12489,6 +13174,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB138" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -12576,6 +13266,11 @@
           <t>f__F082</t>
         </is>
       </c>
+      <c r="AB139" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -12663,6 +13358,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB140" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -12750,6 +13450,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB141" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -12837,6 +13542,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB142" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -12924,6 +13634,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB143" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -13011,6 +13726,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB144" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -13098,6 +13818,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB145" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -13185,6 +13910,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB146" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -13272,6 +14002,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB147" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -13359,6 +14094,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB148" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -13446,6 +14186,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB149" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -13533,6 +14278,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB150" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -13620,6 +14370,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB151" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -13707,6 +14462,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB152" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -13794,6 +14554,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB153" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -13881,6 +14646,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB154" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -13968,6 +14738,11 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="AB155" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -14055,6 +14830,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB156" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -14142,6 +14922,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB157" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -14229,6 +15014,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB158" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -14316,6 +15106,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB159" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -14403,6 +15198,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB160" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -14490,6 +15290,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB161" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -14577,6 +15382,11 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="AB162" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -14664,6 +15474,11 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="AB163" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -14751,6 +15566,11 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="AB164" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -14838,6 +15658,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB165" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -14925,6 +15750,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB166" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -15012,6 +15842,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB167" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -15099,6 +15934,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB168" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -15186,6 +16026,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB169" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -15273,6 +16118,11 @@
           <t>f__F082</t>
         </is>
       </c>
+      <c r="AB170" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -15360,6 +16210,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB171" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -15447,6 +16302,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB172" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -15534,6 +16394,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB173" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -15621,6 +16486,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB174" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -15708,6 +16578,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB175" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -15795,6 +16670,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB176" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -15882,6 +16762,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB177" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -15969,6 +16854,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB178" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -16056,6 +16946,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB179" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -16143,6 +17038,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB180" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -16230,6 +17130,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB181" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -16317,6 +17222,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB182" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -16404,6 +17314,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB183" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -16491,6 +17406,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB184" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -16578,6 +17498,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB185" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -16665,6 +17590,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB186" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -16752,6 +17682,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB187" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -16839,6 +17774,11 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="AB188" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -16926,6 +17866,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB189" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -17013,6 +17958,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB190" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -17100,6 +18050,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB191" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -17187,6 +18142,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB192" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -17274,6 +18234,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB193" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -17361,6 +18326,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB194" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -17448,6 +18418,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB195" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -17535,6 +18510,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB196" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -17622,6 +18602,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB197" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -17709,6 +18694,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB198" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -17796,6 +18786,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB199" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -17883,6 +18878,11 @@
           <t>f__WCHB1-69</t>
         </is>
       </c>
+      <c r="AB200" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -17970,6 +18970,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB201" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -18057,6 +19062,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB202" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -18144,6 +19154,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB203" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -18231,6 +19246,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB204" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -18318,6 +19338,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB205" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -18405,6 +19430,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB206" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -18492,6 +19522,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB207" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -18579,6 +19614,11 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="AB208" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -18666,6 +19706,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB209" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -18753,6 +19798,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB210" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -18840,6 +19890,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB211" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -18927,6 +19982,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB212" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -19014,6 +20074,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB213" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -19101,6 +20166,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB214" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -19188,6 +20258,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB215" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -19275,6 +20350,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB216" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -19362,6 +20442,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB217" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -19449,6 +20534,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB218" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -19536,6 +20626,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB219" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -19623,6 +20718,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB220" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -19710,6 +20810,11 @@
           <t>f__F082</t>
         </is>
       </c>
+      <c r="AB221" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -19797,6 +20902,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB222" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -19884,6 +20994,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB223" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -19971,6 +21086,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB224" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -20058,6 +21178,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB225" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -20145,6 +21270,11 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="AB226" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -20232,6 +21362,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB227" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -20319,6 +21454,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB228" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -20406,6 +21546,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB229" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -20493,6 +21638,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB230" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -20580,6 +21730,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB231" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -20667,6 +21822,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB232" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -20754,6 +21914,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB233" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -20841,6 +22006,11 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="AB234" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -20928,6 +22098,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB235" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -21015,6 +22190,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB236" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -21102,6 +22282,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB237" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -21189,6 +22374,11 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="AB238" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -21276,6 +22466,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB239" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -21363,6 +22558,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB240" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -21450,6 +22650,11 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="AB241" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -21537,6 +22742,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB242" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -21624,6 +22834,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB243" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -21711,6 +22926,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB244" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -21798,6 +23018,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB245" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -21885,6 +23110,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB246" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -21972,6 +23202,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB247" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -22059,6 +23294,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB248" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -22146,6 +23386,11 @@
           <t>f__F082</t>
         </is>
       </c>
+      <c r="AB249" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -22233,6 +23478,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB250" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -22320,6 +23570,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB251" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -22407,6 +23662,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB252" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -22494,6 +23754,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB253" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -22581,6 +23846,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB254" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -22668,6 +23938,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB255" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -22755,6 +24030,11 @@
           <t>f__F082</t>
         </is>
       </c>
+      <c r="AB256" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -22842,6 +24122,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB257" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -22929,6 +24214,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB258" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -23016,6 +24306,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB259" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -23103,6 +24398,11 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="AB260" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -23190,6 +24490,11 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="AB261" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -23277,6 +24582,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB262" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -23364,6 +24674,11 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="AB263" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -23451,6 +24766,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB264" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -23538,6 +24858,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB265" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -23625,6 +24950,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB266" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -23712,6 +25042,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB267" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -23799,6 +25134,11 @@
           <t>f__WCHB1-69</t>
         </is>
       </c>
+      <c r="AB268" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -23886,6 +25226,11 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="AB269" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -23973,6 +25318,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB270" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -24060,6 +25410,11 @@
           <t>f__P3</t>
         </is>
       </c>
+      <c r="AB271" t="inlineStr">
+        <is>
+          <t>f__P3</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -24147,6 +25502,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB272" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -24234,6 +25594,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB273" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -24321,6 +25686,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB274" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -24408,6 +25778,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB275" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -24495,6 +25870,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB276" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -24582,6 +25962,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB277" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -24669,6 +26054,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB278" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -24756,6 +26146,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB279" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -24843,6 +26238,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB280" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -24930,6 +26330,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB281" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -25017,6 +26422,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB282" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -25104,6 +26514,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB283" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -25191,6 +26606,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB284" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -25278,6 +26698,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB285" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -25365,6 +26790,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB286" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -25452,6 +26882,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB287" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -25539,6 +26974,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB288" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -25626,6 +27066,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB289" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -25713,6 +27158,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB290" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -25800,6 +27250,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB291" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -25887,6 +27342,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB292" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -25974,6 +27434,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB293" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -26061,6 +27526,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB294" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -26148,6 +27618,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB295" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -26235,6 +27710,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB296" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -26322,6 +27802,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB297" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -26409,6 +27894,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB298" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -26496,6 +27986,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB299" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -26583,6 +28078,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB300" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -26670,6 +28170,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB301" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -26757,6 +28262,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB302" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -26844,6 +28354,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB303" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -26931,6 +28446,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB304" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -27018,6 +28538,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB305" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -27105,6 +28630,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB306" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -27192,6 +28722,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB307" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -27279,6 +28814,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB308" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -27366,6 +28906,11 @@
           <t>f__Muribaculaceae</t>
         </is>
       </c>
+      <c r="AB309" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -27453,6 +28998,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB310" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -27540,6 +29090,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB311" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -27627,6 +29182,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB312" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -27714,6 +29274,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB313" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -27801,6 +29366,11 @@
           <t>f__Paludibacteraceae</t>
         </is>
       </c>
+      <c r="AB314" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -27888,6 +29458,11 @@
           <t>f__Bacteroidaceae</t>
         </is>
       </c>
+      <c r="AB315" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -27975,6 +29550,11 @@
           <t>f__UBA932</t>
         </is>
       </c>
+      <c r="AB316" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -28058,6 +29638,11 @@
         <v>0.9801469963064067</v>
       </c>
       <c r="AA317" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="AB317" t="inlineStr">
         <is>
           <t>f__Bacteroidaceae</t>
         </is>
